--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1068.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1068.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007167817675880923</v>
+        <v>0.0007777844712126107</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0006646521844907764</v>
+        <v>0.0006832872924671534</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,28 +7591,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03423420093371624</v>
+        <v>0.0342178272234934</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001624042632063776</v>
+        <v>0.001613287960178169</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.06119004528890859</v>
+        <v>0.0605431669485344</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001644140857859965</v>
+        <v>0.001622480039836841</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1858150425527252</v>
+        <v>0.161177962040253</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001957255276151025</v>
+        <v>0.001587740266068982</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>0.2920167974254464</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001711327676341884</v>
+        <v>0.001759308826145863</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03590114318753002</v>
+        <v>0.03586929997445092</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002436063948095664</v>
+        <v>0.002419931940267253</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.001813303128852829</v>
+        <v>-0.002011784522967699</v>
       </c>
       <c r="J88" t="n">
         <v>0.07961328768000402</v>
@@ -7658,25 +7658,25 @@
         <v>0.002566100070163902</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.002581926307472531</v>
+        <v>-0.001362064830568399</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1915297824446291</v>
+        <v>0.1858150425527252</v>
       </c>
       <c r="N88" t="n">
-        <v>0.002396821706921876</v>
+        <v>0.00212383019327026</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.0009415131968574967</v>
+        <v>-0.003082818929719582</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3037519826009103</v>
+        <v>0.3037294170286443</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002349944093874131</v>
+        <v>0.002355438866725937</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.001953231319191037</v>
+        <v>-0.003856637103119873</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03740767113853164</v>
+        <v>0.0373811331656284</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003248085264127552</v>
+        <v>0.003226575920356337</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.001813303128852829</v>
+        <v>-0.002011583384743048</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08324164481616135</v>
+        <v>0.08301354011811389</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003288281715719931</v>
+        <v>0.003244960079673681</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.002581926307472531</v>
+        <v>-0.001362064830568399</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2013041372714644</v>
+        <v>0.1998205819628306</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003195762275895834</v>
+        <v>0.003175480532137964</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.0009415131968574967</v>
+        <v>-0.003082818929719582</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3171056731900472</v>
+        <v>0.3178342355403617</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003133258791832175</v>
+        <v>0.003140585155634583</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.001953231319191037</v>
+        <v>-0.003856637103119873</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03876134188240594</v>
+        <v>0.03873146506033741</v>
       </c>
       <c r="G90" t="n">
-        <v>0.00406010658015944</v>
+        <v>0.004033219900445422</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.001813303128852829</v>
+        <v>-0.002011382246518396</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08705599306782942</v>
+        <v>0.08674881072389047</v>
       </c>
       <c r="K90" t="n">
-        <v>0.004110352144649914</v>
+        <v>0.004056200099592101</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.002581926307472531</v>
+        <v>-0.001362064830568399</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2103560429300569</v>
+        <v>0.20954018402238</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003994702844869792</v>
+        <v>0.003969350665172455</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.0009415131968574967</v>
+        <v>-0.003082818929719582</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3295366445879672</v>
+        <v>0.3311819436017981</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.003916573489790218</v>
+        <v>0.003925731444543229</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.001953231319191037</v>
+        <v>-0.003856637103119873</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03998915050457172</v>
+        <v>0.03996002395977248</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004872127896191328</v>
+        <v>0.004839863880534506</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.001813303128852829</v>
+        <v>-0.002011382246518396</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09057908720347103</v>
+        <v>0.09017522699796647</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004932422573579896</v>
+        <v>0.004867440119510522</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.002581926307472531</v>
+        <v>-0.001362064830568399</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2186885579456358</v>
+        <v>0.2183992204046415</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004793643413843751</v>
+        <v>0.004763220798206946</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.0009415131968574967</v>
+        <v>-0.003082818929719582</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3408664889396743</v>
+        <v>0.3433142265556293</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004699888187748262</v>
+        <v>0.004710877733451874</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.001953231319191037</v>
+        <v>-0.003856637103119873</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04110650225033399</v>
+        <v>0.04105673072748926</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005684149212223216</v>
+        <v>0.00564650786062359</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.002675431878398058</v>
+        <v>-0.002418510036599888</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09382512928453936</v>
+        <v>0.09335018229743609</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005754493002509879</v>
+        <v>0.005678680139428943</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.003079510208491112</v>
+        <v>-0.001494847308836823</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2262260409820043</v>
+        <v>0.2265784228957147</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005592583982817709</v>
+        <v>0.005557090931241437</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.0009893931924850636</v>
+        <v>-0.002921568988265485</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3514401715819016</v>
+        <v>0.3544542389741014</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005483202885706306</v>
+        <v>0.005496024022360521</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.002486833963269333</v>
+        <v>-0.003833184906891357</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04210921991817355</v>
+        <v>0.04203669553263878</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006496170528255104</v>
+        <v>0.006453151840712675</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.002675431878398058</v>
+        <v>-0.002418026382957932</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09680832137248753</v>
+        <v>0.09627620557300161</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006576563431439862</v>
+        <v>0.006489920159347362</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.003079510208491112</v>
+        <v>-0.001494847308836823</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2331527413945186</v>
+        <v>0.2341181580423342</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006391524551791668</v>
+        <v>0.006350961064275928</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.0009893931924850636</v>
+        <v>-0.002921568988265485</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3610119293335338</v>
+        <v>0.3646547681220688</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.00626651758366435</v>
+        <v>0.006281170311269167</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.002486833963269333</v>
+        <v>-0.003833184906891357</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04299228350257984</v>
+        <v>0.04290201687809399</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007308191844286991</v>
+        <v>0.007259795820801758</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.002675431878398058</v>
+        <v>-0.002418026382957932</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09954286552876872</v>
+        <v>0.09895445023183332</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007398633860369845</v>
+        <v>0.007301160179265783</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.003079510208491112</v>
+        <v>-0.001494847308836823</v>
       </c>
       <c r="M94" t="n">
-        <v>0.239625234560864</v>
+        <v>0.2408629422738667</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007190465120765627</v>
+        <v>0.007144831197310419</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.0009893931924850636</v>
+        <v>-0.002921568988265485</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3698127546958887</v>
+        <v>0.3738438324978856</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007049832281622394</v>
+        <v>0.007066316600177812</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.002486833963269333</v>
+        <v>-0.003833184906891357</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04379086225512185</v>
+        <v>0.04366806739351529</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008120213160318879</v>
+        <v>0.008066439800890843</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.002675431878398058</v>
+        <v>-0.002418026382957932</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1019973600464453</v>
+        <v>0.1013546837594243</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008220704289299828</v>
+        <v>0.008112400199184203</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.00345506443086299</v>
+        <v>-0.001494847308836823</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2453322663293447</v>
+        <v>0.2472004384555241</v>
       </c>
       <c r="N95" t="n">
-        <v>0.007989405689739585</v>
+        <v>0.007938701330344911</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.0009893931924850636</v>
+        <v>-0.002921568988265485</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3776448150457064</v>
+        <v>0.3824485256659044</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007833146979580437</v>
+        <v>0.007851462889086459</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.002486833963269333</v>
+        <v>-0.003833184906891357</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04447949884595434</v>
+        <v>0.04435740673589328</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008932234476350769</v>
+        <v>0.008873083780979929</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.003363283770026219</v>
+        <v>-0.002681773067848594</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1043073890961527</v>
+        <v>0.1035976070763403</v>
       </c>
       <c r="K96" t="n">
-        <v>0.009042774718229811</v>
+        <v>0.008923640219102623</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.00345506443086299</v>
+        <v>-0.00162505398933506</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2506634324257328</v>
+        <v>0.2529358960061311</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008788346258713543</v>
+        <v>0.008732571463379401</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.001076089046992203</v>
+        <v>-0.00262738123232865</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3848061750435036</v>
+        <v>0.3899553227940623</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008616461677538481</v>
+        <v>0.008636609177995103</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.002921907432884515</v>
+        <v>-0.003793606667094634</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.04511461967197279</v>
+        <v>0.0449653919826084</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009744255792382656</v>
+        <v>0.009679727761069012</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.003363283770026219</v>
+        <v>-0.002682041245155379</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1063653579505518</v>
+        <v>0.1056076496976999</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009864845147159792</v>
+        <v>0.009734880239021044</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.00345506443086299</v>
+        <v>-0.00162505398933506</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2554189725380548</v>
+        <v>0.2581053503500548</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009587286827687502</v>
+        <v>0.009526441596413892</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.001076089046992203</v>
+        <v>-0.00262738123232865</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3914141912444791</v>
+        <v>0.3971177973059669</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009399776375496525</v>
+        <v>0.009421755466903749</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.002921907432884515</v>
+        <v>-0.003793606667094634</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04567043618499309</v>
+        <v>0.04549383961620462</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01055627710841454</v>
+        <v>0.0104863717411581</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.003363283770026219</v>
+        <v>-0.002682309422462163</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1082786040662868</v>
+        <v>0.1074145955356614</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01068691557608977</v>
+        <v>0.01054612025893946</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.00345506443086299</v>
+        <v>-0.00162505398933506</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2596744288208531</v>
+        <v>0.2626626194239284</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01038622739666146</v>
+        <v>0.01032031172944838</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.001076089046992203</v>
+        <v>-0.00262738123232865</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3973292361700127</v>
+        <v>0.4032167344554195</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01018309107345457</v>
+        <v>0.0102069017558124</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.002921907432884515</v>
+        <v>-0.003793606667094634</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04615522451534945</v>
+        <v>0.0459514030957366</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01136829842444643</v>
+        <v>0.01129301572124718</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.003363283770026219</v>
+        <v>-0.002682309422462163</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1099669443911008</v>
+        <v>0.1090809203764488</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01150898600501976</v>
+        <v>0.01135736027885789</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.00345506443086299</v>
+        <v>-0.00162505398933506</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2635487796187068</v>
+        <v>0.2670170497599225</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01118516796563542</v>
+        <v>0.01111418186248287</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.001076089046992203</v>
+        <v>-0.00262738123232865</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4026003636432678</v>
+        <v>0.4090189858520332</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01096640577141261</v>
+        <v>0.01099204804472104</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.002921907432884515</v>
+        <v>-0.003793606667094634</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04656313727034435</v>
+        <v>0.04636089281509946</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01218031974047832</v>
+        <v>0.01209965970133627</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.003896272286340673</v>
+        <v>-0.002846665970861584</v>
       </c>
       <c r="J100" t="n">
-        <v>0.111523839342826</v>
+        <v>0.1105585953894261</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01233105643394974</v>
+        <v>0.01216860029877631</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.003726232782376467</v>
+        <v>-0.001758278042438401</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2670806261684605</v>
+        <v>0.2707509706944057</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01198410853460938</v>
+        <v>0.01190805199551737</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.001184729515168809</v>
+        <v>-0.002272316495928076</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4074084593526117</v>
+        <v>0.4140542599794333</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01174972046937066</v>
+        <v>0.01177719433362969</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.003262529560528218</v>
+        <v>-0.003745820247010091</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04695213341173982</v>
+        <v>0.04673124445167778</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01299234105651021</v>
+        <v>0.01290630368142535</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.003896272286340673</v>
+        <v>-0.002846950608994857</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1128666408193929</v>
+        <v>0.1118943989023348</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01315312686287972</v>
+        <v>0.01297984031869472</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.003726232782376467</v>
+        <v>-0.001758278042438401</v>
       </c>
       <c r="M101" t="n">
-        <v>0.270224318635823</v>
+        <v>0.2741937182644243</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01278304910358334</v>
+        <v>0.01270192212855186</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.001184729515168809</v>
+        <v>-0.002272316495928076</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4118057992909973</v>
+        <v>0.4185714838457928</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.0125330351673287</v>
+        <v>0.01256234062253833</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.003262529560528218</v>
+        <v>-0.003745820247010091</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04729535042805284</v>
+        <v>0.04705710951757094</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0138043623725421</v>
+        <v>0.01371294766151443</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.003896272286340673</v>
+        <v>-0.002846665970861584</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1141228988195603</v>
+        <v>0.1131199338486037</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0139751972918097</v>
+        <v>0.01379108033861315</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.003726232782376467</v>
+        <v>-0.001758278042438401</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2729317545959055</v>
+        <v>0.2773852711498593</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0135819896725573</v>
+        <v>0.01349579226158635</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.001184729515168809</v>
+        <v>-0.002272316495928076</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4156446700552776</v>
+        <v>0.4228254061689093</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01331634986528674</v>
+        <v>0.01334748691144698</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.003262529560528218</v>
+        <v>-0.003745820247010091</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04760833098252731</v>
+        <v>0.04734004342048383</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01461638368857398</v>
+        <v>0.01451959164160352</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.003896272286340673</v>
+        <v>-0.002846950608994857</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1152914186609388</v>
+        <v>0.1142836679716234</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01479726772073969</v>
+        <v>0.01460232035853157</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.003726232782376467</v>
+        <v>-0.001758278042438401</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2756210497433336</v>
+        <v>0.2801071549142472</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01438093024153125</v>
+        <v>0.01428966239462084</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.001184729515168809</v>
+        <v>-0.002272316495928076</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4193752141316386</v>
+        <v>0.4264663847148835</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01409966456324479</v>
+        <v>0.01413263320035562</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.003262529560528218</v>
+        <v>-0.003745820247010091</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04791396543330367</v>
+        <v>0.04761743877996671</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01542840500460587</v>
+        <v>0.0153262356216926</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.004273047446295276</v>
+        <v>-0.002957370010374508</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1163371243695909</v>
+        <v>0.1152695508480382</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01561933814966967</v>
+        <v>0.01541356037844999</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.003910659070819849</v>
+        <v>-0.001897972198115732</v>
       </c>
       <c r="M104" t="n">
-        <v>0.27794896647913</v>
+        <v>0.2827401856255283</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01517987081050521</v>
+        <v>0.01508353252765533</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.001298443351804774</v>
+        <v>-0.001930546101797184</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4225814961495438</v>
+        <v>0.4298158874671026</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01488297926120283</v>
+        <v>0.01491777948926427</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.00351277817869208</v>
+        <v>-0.003699627424609912</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04818466858502203</v>
+        <v>0.04787663529256506</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01624042632063776</v>
+        <v>0.01613287960178169</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.004273047446295276</v>
+        <v>-0.002956482976778115</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1172738773334436</v>
+        <v>0.116191075706208</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01644140857859966</v>
+        <v>0.01622480039836841</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.003910659070819849</v>
+        <v>-0.001897972198115732</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2800798360667195</v>
+        <v>0.2849337188571193</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01597881137947917</v>
+        <v>0.01587740266068982</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.001298443351804774</v>
+        <v>-0.001930546101797184</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4253789972685599</v>
+        <v>0.4328594153220429</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01566629395916087</v>
+        <v>0.01570292577817292</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.00351277817869208</v>
+        <v>-0.003699627424609912</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04845773204784593</v>
+        <v>0.04815532324022503</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01705244763666965</v>
+        <v>0.01693952358187077</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.004273047446295276</v>
+        <v>-0.002957074332509044</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1180819774668635</v>
+        <v>0.1170972126245466</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01726347900752964</v>
+        <v>0.01703604041828683</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.003910659070819849</v>
+        <v>-0.001897972198115732</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2819215081425423</v>
+        <v>0.2870720338426376</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01677775194845313</v>
+        <v>0.01667127279372431</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.001298443351804774</v>
+        <v>-0.001930546101797184</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4281559796566307</v>
+        <v>0.4356497449892162</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01644960865711892</v>
+        <v>0.01648807206708156</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.00351277817869208</v>
+        <v>-0.003699627424609912</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04874170025649756</v>
+        <v>0.04843348867640142</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01786446895270154</v>
+        <v>0.01774616756195986</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.004273047446295276</v>
+        <v>-0.002956482976778115</v>
       </c>
       <c r="J107" t="n">
-        <v>0.118876247798781</v>
+        <v>0.1179368056703193</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01808554943645962</v>
+        <v>0.01784728043820525</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.003910659070819849</v>
+        <v>-0.001897972198115732</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2839001899885742</v>
+        <v>0.2891071468600049</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01757669251742709</v>
+        <v>0.0174651429267588</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.001298443351804774</v>
+        <v>-0.001930546101797184</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4307614859533142</v>
+        <v>0.4381708292128165</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01723292335507696</v>
+        <v>0.01727321835599021</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.00351277817869208</v>
+        <v>-0.003699627424609912</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04900848954588884</v>
+        <v>0.04870527449915509</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01867649026873342</v>
+        <v>0.01855281154204894</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.004505991938305897</v>
+        <v>-0.003057650683819915</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1196376777698856</v>
+        <v>0.118691107712106</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0189076198653896</v>
+        <v>0.01865852045812367</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.00402598710398144</v>
+        <v>-0.002050258137501994</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2856209946747945</v>
+        <v>0.2910775242227743</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01837563308640104</v>
+        <v>0.01825901305979329</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.001400359311689992</v>
+        <v>-0.001671983612275786</v>
       </c>
       <c r="P108" t="n">
-        <v>0.433041400813316</v>
+        <v>0.4407509847899695</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.018016238053035</v>
+        <v>0.01805836464489885</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.003676731119867736</v>
+        <v>-0.003661850042465256</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0493176978712791</v>
+        <v>0.04902317879681248</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01948851158476531</v>
+        <v>0.01935945552213802</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.004505991938305897</v>
+        <v>-0.003058262213956679</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1203466085393869</v>
+        <v>0.119493294397543</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01972969029431958</v>
+        <v>0.01946976047804209</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.00402598710398144</v>
+        <v>-0.002050258137501994</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2873816238914909</v>
+        <v>0.2928001893599219</v>
       </c>
       <c r="N109" t="n">
-        <v>0.019174573655375</v>
+        <v>0.01905288319282778</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.001400359311689992</v>
+        <v>-0.001671983612275786</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4354556627684693</v>
+        <v>0.4429600090280582</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01879955275099305</v>
+        <v>0.0188435109338075</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.003676731119867736</v>
+        <v>-0.003661850042465256</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04965589265785215</v>
+        <v>0.04935213929537766</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0203005329007972</v>
+        <v>0.02016609950222711</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.004505991938305897</v>
+        <v>-0.003057344918751533</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1210683354683336</v>
+        <v>0.1202403816586225</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02055176072324957</v>
+        <v>0.02028100049796051</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.00402598710398144</v>
+        <v>-0.002050258137501994</v>
       </c>
       <c r="M110" t="n">
-        <v>0.2890888434554078</v>
+        <v>0.294533183553379</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01997351422434896</v>
+        <v>0.01984675332586228</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.001400359311689992</v>
+        <v>-0.001671983612275786</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4376445926929604</v>
+        <v>0.4453346159704793</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01958286744895109</v>
+        <v>0.01962865722271614</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.003676731119867736</v>
+        <v>-0.003661850042465256</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05005382000888853</v>
+        <v>0.04973762922639717</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02111255421682909</v>
+        <v>0.02097274348231619</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.004598475069251202</v>
+        <v>-0.003057344918751533</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1216972658574186</v>
+        <v>0.1210153278344344</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02137383115217955</v>
+        <v>0.02109224051787893</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.00402598710398144</v>
+        <v>-0.002050258137501994</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2907795766077569</v>
+        <v>0.2963149517217507</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02077245479332292</v>
+        <v>0.02064062345889677</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.001400359311689992</v>
+        <v>-0.00156978140633192</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4401399612486138</v>
+        <v>0.4475808402809635</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02036618214690913</v>
+        <v>0.02041380351162479</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.003676731119867736</v>
+        <v>-0.003643373706886674</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05046055242191443</v>
+        <v>0.05016597355792964</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02192457553286098</v>
+        <v>0.02177938746240527</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.004598475069251202</v>
+        <v>-0.003190166475744738</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1223844935632532</v>
+        <v>0.1217820785405972</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02219590158110954</v>
+        <v>0.02190348053779735</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.004089860689649545</v>
+        <v>-0.002217989500899913</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2926234830472796</v>
+        <v>0.2981391155058046</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02157139536229688</v>
+        <v>0.02143449359193126</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.001473606149614355</v>
+        <v>-0.00156978140633192</v>
       </c>
       <c r="P112" t="n">
-        <v>0.442649229993121</v>
+        <v>0.4500300567818207</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02114949684486718</v>
+        <v>0.02119894980053344</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.003758466216546823</v>
+        <v>-0.003643373706886674</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05094402250780362</v>
+        <v>0.05061288920572141</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02273659684889286</v>
+        <v>0.02258603144249436</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.004598475069251202</v>
+        <v>-0.003189847490995639</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1231275281923653</v>
+        <v>0.1226762289098112</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02301797201003952</v>
+        <v>0.02271472055771577</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.004089860689649545</v>
+        <v>-0.002217989500899913</v>
       </c>
       <c r="M113" t="n">
-        <v>0.2944368937921247</v>
+        <v>0.300088585423787</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02237033593127084</v>
+        <v>0.02222836372496575</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.001473606149614355</v>
+        <v>-0.00156978140633192</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4451530268842583</v>
+        <v>0.4526662521503609</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02193281154282522</v>
+        <v>0.02198409608944208</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.003758466216546823</v>
+        <v>-0.003643373706886674</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05143506948590876</v>
+        <v>0.05104148460133721</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02354861816492475</v>
+        <v>0.02339267542258345</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.004598475069251202</v>
+        <v>-0.003190166475744738</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1238676163316528</v>
+        <v>0.1235199103054477</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0238400424389695</v>
+        <v>0.02352596057763419</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.004089860689649545</v>
+        <v>-0.002217989500899913</v>
       </c>
       <c r="M114" t="n">
-        <v>0.2965008303770903</v>
+        <v>0.3020298412354769</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0231692765002448</v>
+        <v>0.02302223385800024</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.001473606149614355</v>
+        <v>-0.00156978140633192</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4479797276596673</v>
+        <v>0.4551198749777166</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02271612624078326</v>
+        <v>0.02276924237835073</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.003758466216546823</v>
+        <v>-0.003643373706886674</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05194293054559485</v>
+        <v>0.05145871149911042</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02436063948095664</v>
+        <v>0.02419931940267253</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.004598475069251202</v>
+        <v>-0.003189847490995639</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1245324685062079</v>
+        <v>0.1244482014413992</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02466211286789948</v>
+        <v>0.02433720059755261</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.004089860689649545</v>
+        <v>-0.002217989500899913</v>
       </c>
       <c r="M115" t="n">
-        <v>0.2984008246122259</v>
+        <v>0.3038925211871489</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02396821706921876</v>
+        <v>0.02381610399103473</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.001516534706366816</v>
+        <v>-0.00156978140633192</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4508314845535449</v>
+        <v>0.457902947402851</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02349944093874131</v>
+        <v>0.02355438866725938</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.003758466216546823</v>
+        <v>-0.003643373706886674</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05246678476245778</v>
+        <v>0.05188692007408321</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02517266079698853</v>
+        <v>0.02500596338276161</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.004628941898154362</v>
+        <v>-0.003330130367961173</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1252436103103731</v>
+        <v>0.1253164456132558</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02548418329682947</v>
+        <v>0.02514844061747103</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.004130480590757622</v>
+        <v>-0.002432370779821732</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3003280902304301</v>
+        <v>0.3057666280876425</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02476715763819272</v>
+        <v>0.02460997412406922</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.001516534706366816</v>
+        <v>-0.001634540813171518</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4539041863819034</v>
+        <v>0.4605924997394121</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02428275563669935</v>
+        <v>0.02433953495616802</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.00376450802742564</v>
+        <v>-0.00364308580968692</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05298264695396158</v>
+        <v>0.05230303641664556</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02598468211302042</v>
+        <v>0.0258126073628507</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.004628941898154362</v>
+        <v>-0.003331129506985464</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1258795035684602</v>
+        <v>0.126142362834179</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02630625372575945</v>
+        <v>0.02595968063738945</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.004130480590757622</v>
+        <v>-0.002432370779821732</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3021952544353559</v>
+        <v>0.3076063618121898</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02556609820716667</v>
+        <v>0.02540384425710371</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.001516534706366816</v>
+        <v>-0.001634540813171518</v>
       </c>
       <c r="P117" t="n">
-        <v>0.456965181749675</v>
+        <v>0.4631205231604471</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.0250660703346574</v>
+        <v>0.02512468124507667</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.00376450802742564</v>
+        <v>-0.00364308580968692</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05348923876694646</v>
+        <v>0.05269887840626333</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02679670342905231</v>
+        <v>0.02661925134293978</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.004628941898154362</v>
+        <v>-0.003330463414302603</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1265285808465368</v>
+        <v>0.1269971187823009</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02712832415468943</v>
+        <v>0.02677092065730787</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.004130480590757622</v>
+        <v>-0.002432370779821732</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3040042356676083</v>
+        <v>0.3094570709272389</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02636503877614063</v>
+        <v>0.0261977143901382</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.001516534706366816</v>
+        <v>-0.001634540813171518</v>
       </c>
       <c r="P118" t="n">
-        <v>0.460153888198962</v>
+        <v>0.4654895829808624</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02584938503261544</v>
+        <v>0.02590982753398531</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.00376450802742564</v>
+        <v>-0.00364308580968692</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05397746002711504</v>
+        <v>0.05310478485429515</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02760872474508419</v>
+        <v>0.02742589532302887</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.004628941898154362</v>
+        <v>-0.003331129506985464</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1271388510665432</v>
+        <v>0.127757633264152</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02795039458361941</v>
+        <v>0.02758216067722629</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.004130480590757622</v>
+        <v>-0.002432370779821732</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3057569523677919</v>
+        <v>0.3112264438152484</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02716397934511459</v>
+        <v>0.0269915845231727</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.001516534706366816</v>
+        <v>-0.001634540813171518</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4629765783459712</v>
+        <v>0.4679894346405629</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02663269973057348</v>
+        <v>0.02669497382289396</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.00376450802742564</v>
+        <v>-0.00364308580968692</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05447737518987689</v>
+        <v>0.05350508527015867</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02842074606111608</v>
+        <v>0.02823253930311795</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.004654936019428933</v>
+        <v>-0.003469027508163321</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1276753599785826</v>
+        <v>0.1285664161915695</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0287724650125494</v>
+        <v>0.02839340069714471</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.004167151142233519</v>
+        <v>-0.002721029221956352</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3075010730838202</v>
+        <v>0.3129133525237076</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02796291991408855</v>
+        <v>0.02778545465620719</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.001549308180337615</v>
+        <v>-0.00181037162163213</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4656472219711343</v>
+        <v>0.4701213893445443</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02741601442853153</v>
+        <v>0.02748012011180261</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.003719540268003185</v>
+        <v>-0.003644320955599402</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.05498023637919983</v>
+        <v>0.0539150489248654</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02923276737714797</v>
+        <v>0.02903918328320703</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.004654936019428933</v>
+        <v>-0.003469721313664954</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1282809725815442</v>
+        <v>0.1292636553688484</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02959453544147938</v>
+        <v>0.02920464071706313</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.004167151142233519</v>
+        <v>-0.002721029221956352</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3091930953705029</v>
+        <v>0.3147025533555729</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02876186048306251</v>
+        <v>0.02857932478924168</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.001549308180337615</v>
+        <v>-0.00181037162163213</v>
       </c>
       <c r="P121" t="n">
-        <v>0.468598797469212</v>
+        <v>0.4723917102060121</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02819932912648957</v>
+        <v>0.02826526640071125</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.003719540268003185</v>
+        <v>-0.003644320955599402</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05545318098813055</v>
+        <v>0.05430312949999327</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03004478869317986</v>
+        <v>0.02984582726329612</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.004654936019428933</v>
+        <v>-0.003469721313664954</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1288142486503687</v>
+        <v>0.1299928793429984</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03041660587040936</v>
+        <v>0.03001588073698155</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.004167151142233519</v>
+        <v>-0.002721029221956352</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3106966996819788</v>
+        <v>0.3163617959060481</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02956080105203647</v>
+        <v>0.02937319492227617</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.001549308180337615</v>
+        <v>-0.00181037162163213</v>
       </c>
       <c r="P122" t="n">
-        <v>0.471044816442721</v>
+        <v>0.4743710115089101</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.02898264382444761</v>
+        <v>0.0290504126896199</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.003719540268003185</v>
+        <v>-0.003644320955599402</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05593474326947737</v>
+        <v>0.05467662484767223</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03085681000921174</v>
+        <v>0.0306524712433852</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.004654936019428933</v>
+        <v>-0.003469374410914137</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1293651385059286</v>
+        <v>0.1307011555722962</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03123867629933934</v>
+        <v>0.03082712075689997</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.004167151142233519</v>
+        <v>-0.002721029221956352</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3123822295914268</v>
+        <v>0.317889487588503</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03035974162101042</v>
+        <v>0.03016706505531066</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.001549308180337615</v>
+        <v>-0.002069908455381447</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4738517028317782</v>
+        <v>0.4764239961149935</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.02976595852240566</v>
+        <v>0.02983555897852854</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.003719540268003185</v>
+        <v>-0.003645878895279937</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05640795369471885</v>
+        <v>0.05505885051694899</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03166883132524363</v>
+        <v>0.03145911522347429</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.004675420086421201</v>
+        <v>-0.003600052023818408</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1298627790161458</v>
+        <v>0.1314253921783238</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03206074672826933</v>
+        <v>0.03163836077681839</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.004199911815877008</v>
+        <v>-0.003054291162042744</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3137437133088478</v>
+        <v>0.3195657929115828</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03115868218998438</v>
+        <v>0.03096093518834515</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.001575383084984945</v>
+        <v>-0.002069908455381447</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4762279088859256</v>
+        <v>0.4785552199166816</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.0305492732203637</v>
+        <v>0.03062070526743719</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.003639022977890768</v>
+        <v>-0.003645878895279937</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05688791239662444</v>
+        <v>0.05543373381389785</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03248085264127552</v>
+        <v>0.03226575920356337</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.004675420086421201</v>
+        <v>-0.003599692090602669</v>
       </c>
       <c r="J125" t="n">
-        <v>0.130343705511672</v>
+        <v>0.1320937865973089</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03288281715719931</v>
+        <v>0.03244960079673681</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.004199911815877008</v>
+        <v>-0.003054291162042744</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3153387037657105</v>
+        <v>0.321109352846473</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03195762275895834</v>
+        <v>0.03175480532137964</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.001575383084984945</v>
+        <v>-0.002069908455381447</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4788282094955758</v>
+        <v>0.4804769975961418</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03133258791832175</v>
+        <v>0.03140585155634584</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.003639022977890768</v>
+        <v>-0.003645878895279937</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05733297529842964</v>
+        <v>0.05578490557427838</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03329287395730741</v>
+        <v>0.03307240318365246</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.004675420086421201</v>
+        <v>-0.003598972224171191</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1308629436242329</v>
+        <v>0.1327248369876901</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03370488758612929</v>
+        <v>0.03326084081665524</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.004199911815877008</v>
+        <v>-0.003054291162042744</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3167517088951231</v>
+        <v>0.3225659007992522</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03275656332793229</v>
+        <v>0.03254867545441413</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.001575383084984945</v>
+        <v>-0.002069908455381447</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4810733563107754</v>
+        <v>0.4821914995157968</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03211590261627979</v>
+        <v>0.03219099784525448</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.003639022977890768</v>
+        <v>-0.003645878895279937</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05778262387335784</v>
+        <v>0.05613590369987338</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0341048952733393</v>
+        <v>0.03387904716374154</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.004685132649620147</v>
+        <v>-0.003598972224171191</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1313310300071372</v>
+        <v>0.1333556520319986</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03452695801505928</v>
+        <v>0.03407208083657366</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.004199911815877008</v>
+        <v>-0.003054291162042744</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3180301787052345</v>
+        <v>0.3241240122007116</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03355550389690626</v>
+        <v>0.03334254558744863</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.001575383084984945</v>
+        <v>-0.002069908455381447</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4834032613414604</v>
+        <v>0.4840680016895348</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03289921731423783</v>
+        <v>0.03297614413416312</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.003639022977890768</v>
+        <v>-0.003645878895279937</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05819476790657407</v>
+        <v>0.05646225604888082</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03491691658937118</v>
+        <v>0.03468569114383063</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.004685132649620147</v>
+        <v>-0.003717085494191254</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1317666277663645</v>
+        <v>0.1339870477713862</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03534902844398926</v>
+        <v>0.03488332085649207</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.00422876465685023</v>
+        <v>-0.00339761836838961</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3193160414261453</v>
+        <v>0.3254515661020088</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03435444446588021</v>
+        <v>0.03413641572048311</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.001597880132276681</v>
+        <v>-0.002387046227035751</v>
       </c>
       <c r="P128" t="n">
-        <v>0.485748458108228</v>
+        <v>0.4857435262391437</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03368253201219588</v>
+        <v>0.03376129042307177</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.003535314021659576</v>
+        <v>-0.003647752793482461</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05862591049928222</v>
+        <v>0.05682013701079032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03572893790540307</v>
+        <v>0.03549233512391971</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.004685132649620147</v>
+        <v>-0.003717828911290092</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1321885929479377</v>
+        <v>0.1345644603445459</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03617109887291924</v>
+        <v>0.03569456087641049</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.00422876465685023</v>
+        <v>-0.00339761836838961</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3206116270389059</v>
+        <v>0.3267846995883119</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03515338503485417</v>
+        <v>0.0349302858535176</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.001597880132276681</v>
+        <v>-0.002387046227035751</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4878909466700273</v>
+        <v>0.4875891199525488</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03446584671015392</v>
+        <v>0.03454643671198041</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.003535314021659576</v>
+        <v>-0.003647752793482461</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05900880226939509</v>
+        <v>0.05712830041730507</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03654095922143496</v>
+        <v>0.03629897910400879</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.004685132649620147</v>
+        <v>-0.003717457202740673</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1326707504944883</v>
+        <v>0.1351437070807144</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03699316930184923</v>
+        <v>0.03650580089632891</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.00422876465685023</v>
+        <v>-0.00339761836838961</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3220136267391177</v>
+        <v>0.3282188764387659</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03595232560382813</v>
+        <v>0.0357241559865521</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.001597880132276681</v>
+        <v>-0.002387046227035751</v>
       </c>
       <c r="P130" t="n">
-        <v>0.4902021428465838</v>
+        <v>0.4890921901222668</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03524916140811196</v>
+        <v>0.03533158300088907</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.003535314021659576</v>
+        <v>-0.003647752793482461</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.0593920372026189</v>
+        <v>0.05745942573020485</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03735298053746685</v>
+        <v>0.03710562308409788</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.004685132649620147</v>
+        <v>-0.003717828911290092</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1330496251714222</v>
+        <v>0.1357070178487661</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03781523973077921</v>
+        <v>0.03731704091624734</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.00422876465685023</v>
+        <v>-0.00339761836838961</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3231938609580448</v>
+        <v>0.3294190517205163</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03675126617280209</v>
+        <v>0.03651802611958659</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.001597880132276681</v>
+        <v>-0.002387046227035751</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4922413659106782</v>
+        <v>0.4907726465477366</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03603247610607001</v>
+        <v>0.03611672928979771</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.003535314021659576</v>
+        <v>-0.003647752793482461</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05978312103283576</v>
+        <v>0.05774792600356793</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03816500185349874</v>
+        <v>0.03791226706418696</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.004690037436115817</v>
+        <v>-0.00381876572249038</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1334354401594228</v>
+        <v>0.1362550193826659</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03863731015970919</v>
+        <v>0.03812828093616576</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.004253711710315327</v>
+        <v>-0.003717431932989925</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3242950875271112</v>
+        <v>0.330719602888807</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03755020674177605</v>
+        <v>0.03731189625262108</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.0016199200341807</v>
+        <v>-0.002733330600894992</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4941582774528271</v>
+        <v>0.492486779168498</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03681579080402805</v>
+        <v>0.03690187557870635</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.003420771263880795</v>
+        <v>-0.00365066546798524</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06013062389501275</v>
+        <v>0.05804245411654221</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03897702316953063</v>
+        <v>0.03871891104427605</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.004690037436115817</v>
+        <v>-0.003818002045713559</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1338474720931062</v>
+        <v>0.1367696595825372</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03945938058863917</v>
+        <v>0.03893952095608418</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.004253711710315327</v>
+        <v>-0.003717431932989925</v>
       </c>
       <c r="M133" t="n">
-        <v>0.325509087950632</v>
+        <v>0.331928275537814</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03834914731075001</v>
+        <v>0.03810576638565557</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.0016199200341807</v>
+        <v>-0.002733330600894992</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4962534891277368</v>
+        <v>0.4939408118969455</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.0375991055019861</v>
+        <v>0.03768702186761499</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.003420771263880795</v>
+        <v>-0.00365066546798524</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06043310765270911</v>
+        <v>0.05831805256065176</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03978904448556251</v>
+        <v>0.03952555502436513</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.004690037436115817</v>
+        <v>-0.00381876572249038</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1342314521804954</v>
+        <v>0.1373263324440381</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04028145101756916</v>
+        <v>0.03975076097600259</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.004253711710315327</v>
+        <v>-0.003717431932989925</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3267434930826009</v>
+        <v>0.3331407284089315</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03914808787972397</v>
+        <v>0.03889963651869006</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.0016199200341807</v>
+        <v>-0.002733330600894992</v>
       </c>
       <c r="P134" t="n">
-        <v>0.498232216936407</v>
+        <v>0.4954348474696498</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03838242019994415</v>
+        <v>0.03847216815652364</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.003420771263880795</v>
+        <v>-0.00365066546798524</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06074866787461541</v>
+        <v>0.05859084710386431</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0406010658015944</v>
+        <v>0.04033219900445422</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.004690037436115817</v>
+        <v>-0.003818383884101969</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1346249537931431</v>
+        <v>0.1378322172626953</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04110352144649914</v>
+        <v>0.04056200099592102</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.004274755021434444</v>
+        <v>-0.003717431932989925</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3277138907429029</v>
+        <v>0.3342598577197023</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03994702844869793</v>
+        <v>0.03969350665172455</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.0016199200341807</v>
+        <v>-0.002733330600894992</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5003216209923794</v>
+        <v>0.4969726583632956</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03916573489790218</v>
+        <v>0.03925731444543229</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.003420771263880795</v>
+        <v>-0.00365066546798524</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06103389973035461</v>
+        <v>0.05886055776162669</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04141308711762628</v>
+        <v>0.0411388429845433</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.004695227011090083</v>
+        <v>-0.003898586926898284</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1349733623267907</v>
+        <v>0.1383252985028305</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04192559187542912</v>
+        <v>0.04137324101583944</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.004274755021434444</v>
+        <v>-0.00397974162317635</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3288036318104527</v>
+        <v>0.3353817875106521</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04074596901767188</v>
+        <v>0.04048737678475904</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.001644623502664876</v>
+        <v>-0.003083811408249206</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5022247157299587</v>
+        <v>0.4983335215682351</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.03994904959586023</v>
+        <v>0.04004246073434094</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.003307752569125611</v>
+        <v>-0.003653515259714573</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06129614662825542</v>
+        <v>0.05910189014281632</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04222510843365818</v>
+        <v>0.04194548696463238</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.004695227011090083</v>
+        <v>-0.003898197146161742</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1353513603557732</v>
+        <v>0.1387873242286592</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0427476623043591</v>
+        <v>0.04218448103575786</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.004274755021434444</v>
+        <v>-0.00397974162317635</v>
       </c>
       <c r="M137" t="n">
-        <v>0.3299676242032683</v>
+        <v>0.33640896627292</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04154490958664584</v>
+        <v>0.04128124691779354</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.001644623502664876</v>
+        <v>-0.003083811408249206</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5039430620467635</v>
+        <v>0.4998197750351512</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04073236429381827</v>
+        <v>0.04082760702324958</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.003307752569125611</v>
+        <v>-0.003653515259714573</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06152570477143263</v>
+        <v>0.05935613422289839</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04303712974969007</v>
+        <v>0.04275213094472147</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.004695227011090083</v>
+        <v>-0.003898586926898284</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1357042232918114</v>
+        <v>0.1392755574340882</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04356973273328909</v>
+        <v>0.04299572105567628</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.004274755021434444</v>
+        <v>-0.00397974162317635</v>
       </c>
       <c r="M138" t="n">
-        <v>0.331064124962023</v>
+        <v>0.3372917594784632</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0423438501556198</v>
+        <v>0.04207511705082802</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.001644623502664876</v>
+        <v>-0.003083811408249206</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5058561507893888</v>
+        <v>0.500984947450126</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04151567899177631</v>
+        <v>0.04161275331215823</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.003307752569125611</v>
+        <v>-0.003653515259714573</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06173858378674971</v>
+        <v>0.05956445981901939</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04384915106572195</v>
+        <v>0.04355877492481055</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.004695227011090083</v>
+        <v>-0.003897417584688656</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1360512158915568</v>
+        <v>0.1397529602202089</v>
       </c>
       <c r="K139" t="n">
-        <v>0.04439180316221907</v>
+        <v>0.0438069610755947</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.004274755021434444</v>
+        <v>-0.00397974162317635</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3319501331684275</v>
+        <v>0.3382731224331639</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04314279072459376</v>
+        <v>0.04286898718386251</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.001644623502664876</v>
+        <v>-0.003083811408249206</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5077410533590669</v>
+        <v>0.5024326565103665</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04229899368973435</v>
+        <v>0.04239789960106687</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.003307752569125611</v>
+        <v>-0.003653515259714573</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06193372198533952</v>
+        <v>0.05980187260746465</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04466117238175384</v>
+        <v>0.04436541890489964</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.004697624006488163</v>
+        <v>-0.003953823008941313</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1363931055754284</v>
+        <v>0.1402011399216476</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04521387359114905</v>
+        <v>0.04461820109551312</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.00429189663536972</v>
+        <v>-0.004150060116956011</v>
       </c>
       <c r="M140" t="n">
-        <v>0.333061057026027</v>
+        <v>0.3390598174330394</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04394173129356772</v>
+        <v>0.04366285731689701</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.001675111249697086</v>
+        <v>-0.003408136191473788</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5095245272630281</v>
+        <v>0.5037155947803343</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.0430823083876924</v>
+        <v>0.04318304588997552</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.003208615801965208</v>
+        <v>-0.003658853941333199</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06208812033714904</v>
+        <v>0.05999250820938098</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04547319369778573</v>
+        <v>0.04517206288498872</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.004697624006488163</v>
+        <v>-0.003953823008941313</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1367119885649886</v>
+        <v>0.140639649060893</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04603594402007903</v>
+        <v>0.04542944111543154</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.00429189663536972</v>
+        <v>-0.004150060116956011</v>
       </c>
       <c r="M141" t="n">
-        <v>0.334061519566214</v>
+        <v>0.3398954527414992</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04474067186254167</v>
+        <v>0.0444567274499315</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.001675111249697086</v>
+        <v>-0.003408136191473788</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5111326270997663</v>
+        <v>0.5052138430365584</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04386562308565044</v>
+        <v>0.04396819217888417</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.003208615801965208</v>
+        <v>-0.003658853941333199</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0622640198657331</v>
+        <v>0.06016109536710974</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04628521501381762</v>
+        <v>0.04597870686507781</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.004697624006488163</v>
+        <v>-0.003953823008941313</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1370459412830973</v>
+        <v>0.141069114497257</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04685801444900901</v>
+        <v>0.04624068113534996</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.00429189663536972</v>
+        <v>-0.004150060116956011</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3350013391460057</v>
+        <v>0.3406817863578981</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04553961243151563</v>
+        <v>0.04525059758296599</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.001675111249697086</v>
+        <v>-0.003408136191473788</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5128721610799654</v>
+        <v>0.5064023983296005</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04464893778360849</v>
+        <v>0.04475333846779282</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.003208615801965208</v>
+        <v>-0.003658853941333199</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06240349851784666</v>
+        <v>0.06033260164581183</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0470972363298495</v>
+        <v>0.04678535084516689</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.004697624006488163</v>
+        <v>-0.003953427666174695</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1374145690453515</v>
+        <v>0.1414518727155079</v>
       </c>
       <c r="K143" t="n">
-        <v>0.047680084877939</v>
+        <v>0.04705192115526838</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.0043051385972833</v>
+        <v>-0.004150060116956011</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3359793370577711</v>
+        <v>0.3414673678783793</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04633855300048959</v>
+        <v>0.04604446771600048</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.001714503987245205</v>
+        <v>-0.003408136191473788</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5147468759906543</v>
+        <v>0.5078892296603811</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04543225248156653</v>
+        <v>0.04553848475670146</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.003208615801965208</v>
+        <v>-0.003658853941333199</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06257575810156224</v>
+        <v>0.06050676809226196</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04790925764588139</v>
+        <v>0.04759199482525598</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.004652584768864584</v>
+        <v>-0.003981044347089124</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1377249835605538</v>
+        <v>0.1418650486888492</v>
       </c>
       <c r="K144" t="n">
-        <v>0.04850215530686899</v>
+        <v>0.0478631611751868</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.0043051385972833</v>
+        <v>-0.004198034026603194</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3369977255252153</v>
+        <v>0.3422025906269928</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04713749356946356</v>
+        <v>0.04683833784903497</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.001714503987245205</v>
+        <v>-0.003682716074606086</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5163007179836491</v>
+        <v>0.5092996889656232</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.04621556717952457</v>
+        <v>0.0463236310456101</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.003135718826970775</v>
+        <v>-0.003663385379799777</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06271134551406249</v>
+        <v>0.06064936287176359</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04872127896191328</v>
+        <v>0.04839863880534506</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.004652584768864584</v>
+        <v>-0.003981044347089124</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1380152631580263</v>
+        <v>0.1422528231414653</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04932422573579896</v>
+        <v>0.04867440119510522</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.0043051385972833</v>
+        <v>-0.004198034026603194</v>
       </c>
       <c r="M145" t="n">
-        <v>0.338009920939314</v>
+        <v>0.3427390056482835</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04793643413843751</v>
+        <v>0.04763220798206946</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.001714503987245205</v>
+        <v>-0.003682716074606086</v>
       </c>
       <c r="P145" t="n">
-        <v>0.518148744988596</v>
+        <v>0.5104085545545967</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04699888187748262</v>
+        <v>0.04710877733451875</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.003135718826970775</v>
+        <v>-0.003663385379799777</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06286228655309128</v>
+        <v>0.06076844029474102</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04953330027794517</v>
+        <v>0.04920528278543414</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.004652584768864584</v>
+        <v>-0.003980646242654416</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1383802579887641</v>
+        <v>0.1426569926614383</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05014629616472895</v>
+        <v>0.04948564121502364</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.0043051385972833</v>
+        <v>-0.004198034026603194</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3388711792386388</v>
+        <v>0.3434701725394649</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04873537470741147</v>
+        <v>0.04842607811510395</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.001714503987245205</v>
+        <v>-0.003682716074606086</v>
       </c>
       <c r="P146" t="n">
-        <v>0.5196029756582498</v>
+        <v>0.5119031855253933</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04778219657544067</v>
+        <v>0.04789392362342739</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.003135718826970775</v>
+        <v>-0.003663385379799777</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06302860847370759</v>
+        <v>0.06088422859953348</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05034532159397706</v>
+        <v>0.05001192676552323</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.004546939942054682</v>
+        <v>-0.003981442451523833</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1386701772240216</v>
+        <v>0.1431163627501157</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05096836659365894</v>
+        <v>0.05029688123494206</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.0043051385972833</v>
+        <v>-0.004198034026603194</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3398274715556787</v>
+        <v>0.3439024193783564</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04953431527638543</v>
+        <v>0.04921994824813845</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.001714503987245205</v>
+        <v>-0.003682716074606086</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5214349493707764</v>
+        <v>0.5131783824704813</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04856551127339871</v>
+        <v>0.04867906991233604</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.003135718826970775</v>
+        <v>-0.003663385379799777</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0631666286556848</v>
+        <v>0.06099609348086164</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05115734291000894</v>
+        <v>0.05081857074561232</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.004546939942054682</v>
+        <v>-0.003960445984434445</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1390366085252077</v>
+        <v>0.1434956816715302</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05179043702258892</v>
+        <v>0.05110812125486048</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.004314482952337327</v>
+        <v>-0.00411653390903227</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3407831340552072</v>
+        <v>0.3444793267821235</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05033325584535939</v>
+        <v>0.05001381838117294</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.001768958411589514</v>
+        <v>-0.003877704240112445</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5229541551501166</v>
+        <v>0.5146185198036695</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.04934882597135675</v>
+        <v>0.04946421620124469</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.003101419508713495</v>
+        <v>-0.003669298276437662</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06331117608958313</v>
+        <v>0.06111296177760647</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05196936422604084</v>
+        <v>0.0516252147257014</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.004546939942054682</v>
+        <v>-0.003960842029032889</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1393860407021709</v>
+        <v>0.1438524565674453</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05261250745151889</v>
+        <v>0.0519193612747789</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.004314482952337327</v>
+        <v>-0.00411653390903227</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3417442774175753</v>
+        <v>0.3448049949803381</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05113219641433334</v>
+        <v>0.05080768851420742</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.001768958411589514</v>
+        <v>-0.003877704240112445</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5247035802983365</v>
+        <v>0.5159979679886811</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.0501321406693148</v>
+        <v>0.05024936249015333</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.003101419508713495</v>
+        <v>-0.003669298276437662</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06345346066531894</v>
+        <v>0.06122642514108068</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05278138554207273</v>
+        <v>0.05243185870579048</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.004546939942054682</v>
+        <v>-0.003960842029032889</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1396812064125941</v>
+        <v>0.1442446728838296</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05343457788044888</v>
+        <v>0.05273060129469732</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.004314482952337327</v>
+        <v>-0.00411653390903227</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3427173045513622</v>
+        <v>0.3451259374975468</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0519311369833073</v>
+        <v>0.05160155864724192</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.001768958411589514</v>
+        <v>-0.003877704240112445</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5265325409444748</v>
+        <v>0.5173963688422272</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05091545536727284</v>
+        <v>0.05103450877906198</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.003101419508713495</v>
+        <v>-0.003669298276437662</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06361098737366665</v>
+        <v>0.06131947669404182</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05359340685810461</v>
+        <v>0.05323850268587957</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.004546939942054682</v>
+        <v>-0.003960842029032889</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1400365818901405</v>
+        <v>0.1446529236159426</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05425664830937886</v>
+        <v>0.05354184131461574</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.004314482952337327</v>
+        <v>-0.00411653390903227</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3437995109141841</v>
+        <v>0.3455903319264952</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05273007755228126</v>
+        <v>0.05239542878027641</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.001768958411589514</v>
+        <v>-0.003877704240112445</v>
       </c>
       <c r="P151" t="n">
-        <v>0.52822704956983</v>
+        <v>0.518817046342772</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05169877006523088</v>
+        <v>0.05181965506797062</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.003103429077206184</v>
+        <v>-0.003669298276437662</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06373098799314056</v>
+        <v>0.06141785959821976</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0544054281741365</v>
+        <v>0.05404514666596865</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.004391249451511424</v>
+        <v>-0.003863589556732731</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1403580595702413</v>
+        <v>0.1450771472983066</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05507871873830884</v>
+        <v>0.05435308133453416</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.004319931745693941</v>
+        <v>-0.003930473485597032</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3447426170889741</v>
+        <v>0.3458601718781574</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05352901812125522</v>
+        <v>0.0531892989133109</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.001918344478562173</v>
+        <v>-0.003978640787740249</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5298709620048844</v>
+        <v>0.5201092872076121</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05248208476318892</v>
+        <v>0.05260480135687927</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.003103429077206184</v>
+        <v>-0.003675487356929141</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06385729270060765</v>
+        <v>0.06150455877787722</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05521744949016839</v>
+        <v>0.05485179064605773</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.004391249451511424</v>
+        <v>-0.003863203236409091</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1407415527530348</v>
+        <v>0.1454586543231314</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05590078916723882</v>
+        <v>0.05516432135445258</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.004319931745693941</v>
+        <v>-0.003930473485597032</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3456433380337349</v>
+        <v>0.3460626490601145</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05432795869022918</v>
+        <v>0.05398316904634539</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.001918344478562173</v>
+        <v>-0.003978640787740249</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5316948502929648</v>
+        <v>0.5216613610626087</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05326539946114697</v>
+        <v>0.05338994764578792</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.003103429077206184</v>
+        <v>-0.003675487356929141</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06399870414082484</v>
+        <v>0.06161399045405329</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05602947080620027</v>
+        <v>0.05565843462614682</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.004391249451511424</v>
+        <v>-0.00386281691608545</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1410352995364522</v>
+        <v>0.1457970387839749</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05672285959616882</v>
+        <v>0.05597556137437101</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.004319931745693941</v>
+        <v>-0.003930473485597032</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3466985211414559</v>
+        <v>0.3463492907450121</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05512689925920313</v>
+        <v>0.05477703917937987</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.001918344478562173</v>
+        <v>-0.003978640787740249</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5333830802128005</v>
+        <v>0.5233232953772063</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05404871415910501</v>
+        <v>0.05417509393469656</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.003103429077206184</v>
+        <v>-0.003675487356929141</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06412872474138893</v>
+        <v>0.06169478128767777</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05684149212223216</v>
+        <v>0.0564650786062359</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.004391249451511424</v>
+        <v>-0.00386281691608545</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1413926644523502</v>
+        <v>0.146189984783924</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0575449300250988</v>
+        <v>0.05678680139428943</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.004319931745693941</v>
+        <v>-0.003930473485597032</v>
       </c>
       <c r="M155" t="n">
-        <v>0.347708460955774</v>
+        <v>0.3464728120283828</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05592583982817709</v>
+        <v>0.05557090931241437</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.001918344478562173</v>
+        <v>-0.004056779528738951</v>
       </c>
       <c r="P155" t="n">
-        <v>0.5350882389883008</v>
+        <v>0.52479119809252</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05483202885706306</v>
+        <v>0.05496024022360521</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.003103429077206184</v>
+        <v>-0.003675487356929141</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06426495302993336</v>
+        <v>0.06178136595232829</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05765351343826405</v>
+        <v>0.05727172258632499</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.00419112700511231</v>
+        <v>-0.003705363254058498</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1417763813821959</v>
+        <v>0.1465393802505738</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05836700045402878</v>
+        <v>0.05759804141420784</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.004319763440163834</v>
+        <v>-0.003664493445951264</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3486713263781833</v>
+        <v>0.3466325068219718</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05672478039715105</v>
+        <v>0.05636477944544886</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.002177630243259717</v>
+        <v>-0.004056779528738951</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5368069565929051</v>
+        <v>0.5263011292219102</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.0556153435550211</v>
+        <v>0.05574538651251386</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.003115331737088795</v>
+        <v>-0.003702124353123995</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0643719115474392</v>
+        <v>0.06185665541382247</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05846553475429593</v>
+        <v>0.05807836656641407</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.00419112700511231</v>
+        <v>-0.00370462232959258</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1421869754308204</v>
+        <v>0.146923589636174</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05918907088295876</v>
+        <v>0.05840928143412626</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.004319763440163834</v>
+        <v>-0.003664493445951264</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3497851790193949</v>
+        <v>0.3469286310740446</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05752372096612501</v>
+        <v>0.05715864957848335</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.002177630243259717</v>
+        <v>-0.004056779528738951</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5386936030667375</v>
+        <v>0.5278492632729923</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05639865825297915</v>
+        <v>0.05653053280142249</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.003115331737088795</v>
+        <v>-0.003702124353123995</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06449380182516623</v>
+        <v>0.06195520563688557</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05927755607032782</v>
+        <v>0.05888501054650316</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.00419112700511231</v>
+        <v>-0.003705363254058498</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1425445890639824</v>
+        <v>0.1472440213114084</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06001114131188874</v>
+        <v>0.05922052145404468</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.004319763440163834</v>
+        <v>-0.003664493445951264</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3508491034795591</v>
+        <v>0.3471633426446897</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05832266153509896</v>
+        <v>0.05795251971151785</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.002177630243259717</v>
+        <v>-0.004056779528738951</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5404296966630475</v>
+        <v>0.5295094600563968</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05718197295093718</v>
+        <v>0.05731567909033114</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.003115331737088795</v>
+        <v>-0.003702124353123995</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06463952067026901</v>
+        <v>0.06202543530937052</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06008957738635972</v>
+        <v>0.05969165452659225</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.00419112700511231</v>
+        <v>-0.003500657018819942</v>
       </c>
       <c r="J159" t="n">
-        <v>0.142924641458083</v>
+        <v>0.1476187485223577</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06083321174081872</v>
+        <v>0.06003176147396311</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.004319763440163834</v>
+        <v>-0.003664493445951264</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3518612669815331</v>
+        <v>0.3472876722808815</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05912160210407293</v>
+        <v>0.05874638984455233</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.002177630243259717</v>
+        <v>-0.004056779528738951</v>
       </c>
       <c r="P159" t="n">
-        <v>0.542248480620824</v>
+        <v>0.531434385115256</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05796528764889523</v>
+        <v>0.05810082537923979</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.003115331737088795</v>
+        <v>-0.003702124353123995</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06473792051980508</v>
+        <v>0.06209328252072706</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0609015987023916</v>
+        <v>0.06049829850668133</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.003976467150803256</v>
+        <v>-0.003501007049518754</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1432878831682989</v>
+        <v>0.1479687247067924</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06165528216974871</v>
+        <v>0.06084300149388153</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.004131342929797516</v>
+        <v>-0.003341683273575625</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3528701144708248</v>
+        <v>0.3475012928337483</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05992054267304688</v>
+        <v>0.05954025997758682</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.002520859180313127</v>
+        <v>-0.004129028604004593</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5442265501649187</v>
+        <v>0.5329950998602241</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.05874860234685327</v>
+        <v>0.05888597166814844</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.003134183266469597</v>
+        <v>-0.003802988065252335</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06484222512144326</v>
+        <v>0.06217613701087686</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06171362001842349</v>
+        <v>0.06130494248677041</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.003976467150803256</v>
+        <v>-0.003499956957422317</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1437109619803996</v>
+        <v>0.1482936678415629</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06247735259867868</v>
+        <v>0.06165424151379995</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.004131342929797516</v>
+        <v>-0.003341683273575625</v>
       </c>
       <c r="M161" t="n">
-        <v>0.353874117372392</v>
+        <v>0.3476060908574865</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06071948324202085</v>
+        <v>0.06033413011062132</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.002520859180313127</v>
+        <v>-0.004129028604004593</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5461228412666905</v>
+        <v>0.5348127151434348</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.05953191704481132</v>
+        <v>0.05967111795705709</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.003134183266469597</v>
+        <v>-0.003802988065252335</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0649702479060133</v>
+        <v>0.06223090476898663</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06252564133445537</v>
+        <v>0.06211158646685949</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.003976467150803256</v>
+        <v>-0.003501007049518754</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1440770840592397</v>
+        <v>0.1486330296389348</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06329942302760867</v>
+        <v>0.06246548153371836</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.004131342929797516</v>
+        <v>-0.003341683273575625</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3548717471111922</v>
+        <v>0.3476525599207307</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06151842381099481</v>
+        <v>0.06112800024365581</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.002520859180313127</v>
+        <v>-0.004129028604004593</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5478536648592899</v>
+        <v>0.5365701160215508</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06031523174276936</v>
+        <v>0.06045626424596572</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.003134183266469597</v>
+        <v>-0.003802988065252335</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06507736461779133</v>
+        <v>0.06230090692377505</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06333766265048726</v>
+        <v>0.06291823044694858</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.003976467150803256</v>
+        <v>-0.003501007049518754</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1444629740594622</v>
+        <v>0.1489668361961433</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06412149345653866</v>
+        <v>0.06327672155363678</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.003698472924236304</v>
+        <v>-0.003341683273575625</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3557603230475738</v>
+        <v>0.3478406106701828</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06231736437996876</v>
+        <v>0.0619218703766903</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.002520859180313127</v>
+        <v>-0.004129028604004593</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5495744870736028</v>
+        <v>0.5382626871354147</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06109854644072741</v>
+        <v>0.06124141053487437</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.003134183266469597</v>
+        <v>-0.003802988065252335</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06519027383301437</v>
+        <v>0.06238629141349243</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06414968396651916</v>
+        <v>0.06372487442703767</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.003733538856997812</v>
+        <v>-0.003271705856816425</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1448485589563793</v>
+        <v>0.1493547049354841</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06494356388546864</v>
+        <v>0.0640879615735552</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.003698472924236304</v>
+        <v>-0.002985397163192282</v>
       </c>
       <c r="M164" t="n">
-        <v>0.35674042471538</v>
+        <v>0.3479221929838385</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06311630494894273</v>
+        <v>0.06271574050972478</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.00292207476435338</v>
+        <v>-0.004195055274074377</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5515223545841478</v>
+        <v>0.5401228186907363</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06188186113868546</v>
+        <v>0.06202655682378302</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.003157949068231134</v>
+        <v>-0.003963174394969783</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06529103821028535</v>
+        <v>0.06244385791007052</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06496170528255103</v>
+        <v>0.06453151840712675</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.003733538856997812</v>
+        <v>-0.003271378686230744</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1451940902257391</v>
+        <v>0.1496769665806446</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06576563431439862</v>
+        <v>0.06489920159347362</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.003698472924236304</v>
+        <v>-0.002985397163192282</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3576587987296631</v>
+        <v>0.3481969015577715</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06391524551791668</v>
+        <v>0.06350961064275928</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.00292207476435338</v>
+        <v>-0.004195055274074377</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5532939342359423</v>
+        <v>0.5419891263569653</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06266517583664349</v>
+        <v>0.06281170311269167</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.003157949068231134</v>
+        <v>-0.003963174394969783</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06537060233785472</v>
+        <v>0.06251703146430439</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06577372659858292</v>
+        <v>0.06533816238721583</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.003733538856997812</v>
+        <v>-0.003272033027402107</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1456159902325595</v>
+        <v>0.1499531494387891</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0665877047433286</v>
+        <v>0.06571044161339205</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.003698472924236304</v>
+        <v>-0.002985397163192282</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3586662296919408</v>
+        <v>0.3481674781052651</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06471418608689064</v>
+        <v>0.06430348077579377</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.00292207476435338</v>
+        <v>-0.004195055274074377</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5548847981152931</v>
+        <v>0.5437781605179866</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06344849053460154</v>
+        <v>0.06359684940160032</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.003157949068231134</v>
+        <v>-0.003963174394969783</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06547370282714489</v>
+        <v>0.06256254655775272</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06658574791461482</v>
+        <v>0.06614480636730492</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.003733538856997812</v>
+        <v>-0.003035507540729252</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1460160226906864</v>
+        <v>0.1502629957170291</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06740977517225859</v>
+        <v>0.06652168163331047</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.003698472924236304</v>
+        <v>-0.002985397163192282</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3595579155742726</v>
+        <v>0.3483328567941319</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06551312665586459</v>
+        <v>0.06509735090882826</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.00292207476435338</v>
+        <v>-0.004195055274074377</v>
       </c>
       <c r="P167" t="n">
-        <v>0.5567745112495844</v>
+        <v>0.5455648365459815</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06423180523255957</v>
+        <v>0.06438199569050895</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.003157949068231134</v>
+        <v>-0.003963174394969783</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06556443862693445</v>
+        <v>0.06263258184562567</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06739776923064671</v>
+        <v>0.066951450347394</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.003495341527182644</v>
+        <v>-0.003034597070561067</v>
       </c>
       <c r="J168" t="n">
-        <v>0.146354096062699</v>
+        <v>0.1505664009595308</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06823184560118857</v>
+        <v>0.06733292165322889</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.00311606653766053</v>
+        <v>-0.002621916970874427</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3605359817271773</v>
+        <v>0.3483949219109451</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06631206722483855</v>
+        <v>0.06589122104186276</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.003355320470011457</v>
+        <v>-0.004254582434261111</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5582342823742962</v>
+        <v>0.5471059097432087</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.06501511993051762</v>
+        <v>0.0651671419794176</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.003184594545255947</v>
+        <v>-0.004162529848126128</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06566069737000696</v>
+        <v>0.06270990993106959</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0682097905466786</v>
+        <v>0.06775809432748309</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.003495341527182644</v>
+        <v>-0.003035507540729252</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1467472038236793</v>
+        <v>0.1508631881182953</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06905391603011855</v>
+        <v>0.06814416167314731</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.00311606653766053</v>
+        <v>-0.002621916970874427</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3615483064217716</v>
+        <v>0.3485039866409849</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06711100779381252</v>
+        <v>0.06668509117489725</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.003355320470011457</v>
+        <v>-0.004254582434261111</v>
       </c>
       <c r="P169" t="n">
-        <v>0.560068207479188</v>
+        <v>0.5489549671724597</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06579843462847566</v>
+        <v>0.06595228826832625</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.003184594545255947</v>
+        <v>-0.004162529848126128</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.06572645103837289</v>
+        <v>0.0627424543728313</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06902181186271049</v>
+        <v>0.06856473830757216</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.003495341527182644</v>
+        <v>-0.003035204050673191</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1471358459028034</v>
+        <v>0.1511531801453235</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06987598645904854</v>
+        <v>0.06895540169306573</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.00311606653766053</v>
+        <v>-0.002621916970874427</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3623374546659822</v>
+        <v>0.3486110310268135</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06790994836278648</v>
+        <v>0.06747896130793174</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.003355320470011457</v>
+        <v>-0.004254582434261111</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5615449454404895</v>
+        <v>0.5507096838025527</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.06658174932643371</v>
+        <v>0.0667374345572349</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.003184594545255947</v>
+        <v>-0.004162529848126128</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06582460139090746</v>
+        <v>0.06280858523907834</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06983383317874237</v>
+        <v>0.06937138228766125</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.003495341527182644</v>
+        <v>-0.003035507540729252</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1474403309643634</v>
+        <v>0.1514361999926164</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07069805688797852</v>
+        <v>0.06976664171298415</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.00311606653766053</v>
+        <v>-0.002621916970874427</v>
       </c>
       <c r="M171" t="n">
-        <v>0.363208765800752</v>
+        <v>0.3488166217456872</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06870888893176043</v>
+        <v>0.06827283144096623</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.003355320470011457</v>
+        <v>-0.004254582434261111</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5633910922755001</v>
+        <v>0.5525259345737072</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06736506402439175</v>
+        <v>0.06752258084614354</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.003184594545255947</v>
+        <v>-0.004382840269581707</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06589208725724241</v>
+        <v>0.06285620925151658</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07064585449477426</v>
+        <v>0.07017802626775034</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.003256147822320377</v>
+        <v>-0.002809046912441976</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1478375581805936</v>
+        <v>0.1517524130262975</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0715201273169085</v>
+        <v>0.07057788173290257</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.002479036884250518</v>
+        <v>-0.002272744413415746</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3640584223532487</v>
+        <v>0.3489719737385945</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06950782950073439</v>
+        <v>0.06906670157400072</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.003794639771918335</v>
+        <v>-0.004304791064440217</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5647908591845276</v>
+        <v>0.5543197293668285</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.0681483787223498</v>
+        <v>0.06830772713505218</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.003212085100426576</v>
+        <v>-0.004382840269581707</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06595583878599363</v>
+        <v>0.06292898299865</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07145787581080615</v>
+        <v>0.07098467024783943</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.003256147822320377</v>
+        <v>-0.002809608721824464</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1482084529426323</v>
+        <v>0.1520210110789915</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07234219774583849</v>
+        <v>0.07138912175282099</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.002479036884250518</v>
+        <v>-0.002272744413415746</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3649363845436894</v>
+        <v>0.3489780732087723</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07030677006970834</v>
+        <v>0.0698605717070352</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.003794639771918335</v>
+        <v>-0.004304791064440217</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5662283496698129</v>
+        <v>0.5559258028805901</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06893169342030785</v>
+        <v>0.06909287342396082</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.003212085100426576</v>
+        <v>-0.004382840269581707</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06600213517077802</v>
+        <v>0.06298345027130026</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07226989712683803</v>
+        <v>0.0717913142279285</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.003256147822320377</v>
+        <v>-0.002809046912441976</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1485124995682292</v>
+        <v>0.1522618801416908</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07316426817476847</v>
+        <v>0.0722003617727394</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.002479036884250518</v>
+        <v>-0.002272744413415746</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3657897959655961</v>
+        <v>0.3490851802108752</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0711057106386823</v>
+        <v>0.07065444184006969</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.003794639771918335</v>
+        <v>-0.004304791064440217</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5677006676132038</v>
+        <v>0.5574198140710125</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.06971500811826589</v>
+        <v>0.06987801971286949</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.003212085100426576</v>
+        <v>-0.004382840269581707</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06608092390047715</v>
+        <v>0.06304586725640673</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07308191844286992</v>
+        <v>0.07259795820801758</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.003256147822320377</v>
+        <v>-0.002809046912441976</v>
       </c>
       <c r="J175" t="n">
-        <v>0.148828227028706</v>
+        <v>0.1525355156277796</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07398633860369845</v>
+        <v>0.07301160179265782</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.002479036884250518</v>
+        <v>-0.002272744413415746</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3664105356050344</v>
+        <v>0.3491943337146265</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07190465120765627</v>
+        <v>0.07144831197310419</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.004214076144704999</v>
+        <v>-0.004346262083022524</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5692868100647656</v>
+        <v>0.5590399346170425</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07049832281622392</v>
+        <v>0.07066316600177813</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.003212085100426576</v>
+        <v>-0.004382840269581707</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.0661421454272199</v>
+        <v>0.06309015693426361</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07389393975890181</v>
+        <v>0.07340460218810668</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.00303587539795595</v>
+        <v>-0.002612514493520614</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1491550327673914</v>
+        <v>0.152760793905071</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07480840903262843</v>
+        <v>0.07382284181257626</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.001882297078186601</v>
+        <v>-0.001963012963468565</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3671582163590025</v>
+        <v>0.3494062083990349</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07270359177663022</v>
+        <v>0.07224218210613868</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.004214076144704999</v>
+        <v>-0.004346262083022524</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5704918892488209</v>
+        <v>0.5608641182855837</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07128163751418197</v>
+        <v>0.07144831229068678</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.003238386136625565</v>
+        <v>-0.004606059704388976</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.06620844071487969</v>
+        <v>0.0631338699934658</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0747059610749337</v>
+        <v>0.07421124616819576</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.00303587539795595</v>
+        <v>-0.002612775718847434</v>
       </c>
       <c r="J177" t="n">
-        <v>0.149492309104451</v>
+        <v>0.1529779886139873</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07563047946155842</v>
+        <v>0.07463408183249468</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.001882297078186601</v>
+        <v>-0.001963012963468565</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3679801897927389</v>
+        <v>0.3493720916620188</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07350253234560418</v>
+        <v>0.07303605223917317</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.004214076144704999</v>
+        <v>-0.004346262083022524</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5720506291327491</v>
+        <v>0.5622398695006928</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07206495221214002</v>
+        <v>0.07223345857959541</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.003238386136625565</v>
+        <v>-0.004606059704388976</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06627071144775168</v>
+        <v>0.06320334270104019</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07551798239096558</v>
+        <v>0.07501789014828485</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.00303587539795595</v>
+        <v>-0.002612253268193795</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1498194625828923</v>
+        <v>0.1532478873083322</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0764525498904884</v>
+        <v>0.07544532185241309</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.001882297078186601</v>
+        <v>-0.001963012963468565</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3687197555612171</v>
+        <v>0.3496421157730649</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07430147291457814</v>
+        <v>0.07382992237220767</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.004214076144704999</v>
+        <v>-0.004346262083022524</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5730561262700089</v>
+        <v>0.5636490602988289</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07284826691009806</v>
+        <v>0.07301860486850406</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.003238386136625565</v>
+        <v>-0.004606059704388976</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.0663288930902021</v>
+        <v>0.06325498477261085</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07633000370699748</v>
+        <v>0.07582453412837392</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.00303587539795595</v>
+        <v>-0.002612775718847434</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1500757555450777</v>
+        <v>0.1534484573520599</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07727462031941838</v>
+        <v>0.07625656187233151</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.001882297078186601</v>
+        <v>-0.001963012963468565</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3693232424199859</v>
+        <v>0.3496177141696774</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07510041348355211</v>
+        <v>0.07462379250524216</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.004214076144704999</v>
+        <v>-0.004346262083022524</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5742447134453632</v>
+        <v>0.5652510981809277</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07363158160805611</v>
+        <v>0.07380375115741271</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.003238386136625565</v>
+        <v>-0.004812389699104463</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06636480031403533</v>
+        <v>0.06329762484803594</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07714202502302936</v>
+        <v>0.07663117810846302</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.002847872882280186</v>
+        <v>-0.002462895164884428</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1504004888790562</v>
+        <v>0.1536607816520859</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07809669074834835</v>
+        <v>0.07706780189224993</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.001420760233649104</v>
+        <v>-0.0017155521631435</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3699966960282848</v>
+        <v>0.349749288166697</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07589935405252606</v>
+        <v>0.07541766263827665</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.004587673063002421</v>
+        <v>-0.004376136414611328</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5753664599413155</v>
+        <v>0.5664715696285132</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07441489630601415</v>
+        <v>0.07458889744632136</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.003261463056735455</v>
+        <v>-0.004812389699104463</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06640553746390027</v>
+        <v>0.06333135349831424</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07795404633906125</v>
+        <v>0.0774378220885521</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.002847872882280186</v>
+        <v>-0.002462895164884428</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1506528340404164</v>
+        <v>0.1538847468159224</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07891876117727833</v>
+        <v>0.07787904191216835</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.001420760233649104</v>
+        <v>-0.0017155521631435</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3704266628032827</v>
+        <v>0.3500377697648281</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07669829462150002</v>
+        <v>0.07621153277131114</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.004587673063002421</v>
+        <v>-0.004376136414611328</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5765833010461309</v>
+        <v>0.5680408517904276</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.0751982110039722</v>
+        <v>0.07537404373522999</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.003261463056735455</v>
+        <v>-0.004812389699104463</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06644198533341814</v>
+        <v>0.06339131708162225</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07876606765509314</v>
+        <v>0.07824446606864117</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.002847872882280186</v>
+        <v>-0.002462895164884428</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1508921177886586</v>
+        <v>0.1540386187225872</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07974083160620833</v>
+        <v>0.07869028193208677</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.001420760233649104</v>
+        <v>-0.0017155521631435</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3711319721410734</v>
+        <v>0.3500840366919946</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07749723519047397</v>
+        <v>0.07700540290434563</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.004587673063002421</v>
+        <v>-0.004376136414611328</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5774787193992289</v>
+        <v>0.5691376471836516</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07598152570193024</v>
+        <v>0.07615919002413864</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.003261463056735455</v>
+        <v>-0.004812389699104463</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06648315191452192</v>
+        <v>0.06343382229205047</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07957808897112502</v>
+        <v>0.07905111004873026</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.002847872882280186</v>
+        <v>-0.002462895164884428</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1511779857970418</v>
+        <v>0.1542445850853992</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08056290203513831</v>
+        <v>0.07950152195200519</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.001189339464818353</v>
+        <v>-0.0017155521631435</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3716426646270072</v>
+        <v>0.3503388927229043</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07829617575944793</v>
+        <v>0.07779927303738012</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.004587673063002421</v>
+        <v>-0.004376136414611328</v>
       </c>
       <c r="P183" t="n">
-        <v>0.578297006933447</v>
+        <v>0.5704122823298002</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07676484039988829</v>
+        <v>0.07694433631304728</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.003279281263638788</v>
+        <v>-0.004812389699104463</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06649268587871211</v>
+        <v>0.06351158950637227</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08039011028715691</v>
+        <v>0.07985775402881934</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.00270748702188836</v>
+        <v>-0.002377689032005986</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1513891113104991</v>
+        <v>0.1544413128985173</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0813849724640683</v>
+        <v>0.08031276197192361</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.001189339464818353</v>
+        <v>-0.001555317699534992</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3720611544038935</v>
+        <v>0.3504530607057664</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07909511632842188</v>
+        <v>0.0785931431704146</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.004889474001441584</v>
+        <v>-0.004394587896011947</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5793665024911848</v>
+        <v>0.5713688494077532</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07754815509784632</v>
+        <v>0.07772948260195593</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.003279281263638788</v>
+        <v>-0.004981860348320371</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06652496007367115</v>
+        <v>0.06353699277122647</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0812021316031888</v>
+        <v>0.08066439800890844</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.00270748702188836</v>
+        <v>-0.002377451286877298</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1516455482250091</v>
+        <v>0.1546081655534764</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08220704289299828</v>
+        <v>0.08112400199184204</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.001189339464818353</v>
+        <v>-0.001555317699534992</v>
       </c>
       <c r="M185" t="n">
-        <v>0.3723857841743499</v>
+        <v>0.35052731871337</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07989405689739586</v>
+        <v>0.07938701330344911</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.004889474001441584</v>
+        <v>-0.004394587896011947</v>
       </c>
       <c r="P185" t="n">
-        <v>0.5798548127624483</v>
+        <v>0.572578044178503</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.07833146979580437</v>
+        <v>0.07851462889086458</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.003279281263638788</v>
+        <v>-0.004981860348320371</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.0665436176355825</v>
+        <v>0.06359789052046312</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08201415291922069</v>
+        <v>0.08147104198899752</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.00270748702188836</v>
+        <v>-0.002377213541748611</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1518256924370903</v>
+        <v>0.1547039710500865</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08302911332192826</v>
+        <v>0.08193524201176046</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.001189339464818353</v>
+        <v>-0.001555317699534992</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3729286169024604</v>
+        <v>0.3507627265053631</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08069299746636981</v>
+        <v>0.08018088343648359</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.004889474001441584</v>
+        <v>-0.004394587896011947</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5805048535014286</v>
+        <v>0.5734605613887759</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.07911478449376241</v>
+        <v>0.07929977517977323</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.003279281263638788</v>
+        <v>-0.004981860348320371</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06655766932403766</v>
+        <v>0.06366808800707266</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08282617423525257</v>
+        <v>0.08227768596908661</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.00270748702188836</v>
+        <v>-0.002377451286877298</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1519950221962244</v>
+        <v>0.1548923171210902</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08385118375085825</v>
+        <v>0.08274648203167888</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.001189339464818353</v>
+        <v>-0.001555317699534992</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3732178141335958</v>
+        <v>0.3510099799647509</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08149193803534377</v>
+        <v>0.08097475356951808</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.004889474001441584</v>
+        <v>-0.004394587896011947</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5812307291903722</v>
+        <v>0.5743412066847913</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.07989809919172046</v>
+        <v>0.08008492146868187</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.003279281263638788</v>
+        <v>-0.004981860348320371</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06657613242716152</v>
+        <v>0.06370369160098835</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08363819555128446</v>
+        <v>0.08308432994917568</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.002618353686286096</v>
+        <v>-0.00235640940374016</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1522199500327822</v>
+        <v>0.1549887334625994</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08467325417978822</v>
+        <v>0.0835577220515973</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.001186535281597416</v>
+        <v>-0.001504912523104595</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3735131822667642</v>
+        <v>0.3511696622735682</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08229087860431773</v>
+        <v>0.08176862370255258</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.005093522434653466</v>
+        <v>-0.004399301682699895</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5815303864186906</v>
+        <v>0.5752161556597074</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08068141388967849</v>
+        <v>0.08087006775759052</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.003289806160218105</v>
+        <v>-0.005097460258930499</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06657170180609193</v>
+        <v>0.06375739624078934</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08445021686731635</v>
+        <v>0.08389097392926477</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.002618353686286096</v>
+        <v>-0.00235640940374016</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1523793714908274</v>
+        <v>0.1551164168461657</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0854953246087182</v>
+        <v>0.08436896207151572</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.001186535281597416</v>
+        <v>-0.001504912523104595</v>
       </c>
       <c r="M189" t="n">
-        <v>0.373813281328503</v>
+        <v>0.3513446960359106</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08308981917329168</v>
+        <v>0.08256249383558707</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.005093522434653466</v>
+        <v>-0.004399301682699895</v>
       </c>
       <c r="P189" t="n">
-        <v>0.5818991489131096</v>
+        <v>0.5758337800292249</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08146472858763654</v>
+        <v>0.08165521404649917</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.003289806160218105</v>
+        <v>-0.005097460258930499</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06658123124037843</v>
+        <v>0.06381157051748203</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08526223818334824</v>
+        <v>0.08469761790935386</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.002618353686286096</v>
+        <v>-0.002356645068246985</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1525542876435378</v>
+        <v>0.1553000545313585</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08631739503764818</v>
+        <v>0.08518020209143413</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.001186535281597416</v>
+        <v>-0.001504912523104595</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3739594703347107</v>
+        <v>0.3517036258046994</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08388875974226565</v>
+        <v>0.08335636396862156</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.005093522434653466</v>
+        <v>-0.004399301682699895</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5821674223088117</v>
+        <v>0.5763548879412514</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08224804328559458</v>
+        <v>0.08244036033540782</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.003289806160218105</v>
+        <v>-0.005097460258930499</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06655337145738373</v>
+        <v>0.06387497416888067</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08607425949938013</v>
+        <v>0.08550426188944293</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.002618353686286096</v>
+        <v>-0.002356645068246985</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1527043578204373</v>
+        <v>0.1553971386410919</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08713946546657818</v>
+        <v>0.08599144211135255</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.001186535281597416</v>
+        <v>-0.001504912523104595</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3741597389178513</v>
+        <v>0.3520485872091227</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08468770031123959</v>
+        <v>0.08415023410165605</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.005093522434653466</v>
+        <v>-0.004399301682699895</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5823318417638657</v>
+        <v>0.5771061972612747</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08303135798355263</v>
+        <v>0.08322550662431645</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.003289806160218105</v>
+        <v>-0.005097460258930499</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06657940512012313</v>
+        <v>0.06392993815094886</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08688628081541201</v>
+        <v>0.08631090586953202</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.00256790784375129</v>
+        <v>-0.002344052359638287</v>
       </c>
       <c r="J192" t="n">
-        <v>0.152890541045591</v>
+        <v>0.1554693410831413</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08796153589550816</v>
+        <v>0.08680268213127097</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.00122003731298999</v>
+        <v>-0.00151939830842242</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3742553863789945</v>
+        <v>0.3522771331246459</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08548664088021356</v>
+        <v>0.08494410423469054</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.005173861837269047</v>
+        <v>-0.004357254572593705</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5825693645144721</v>
+        <v>0.5775049919575259</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.08381467268151066</v>
+        <v>0.0840106529132251</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.003290378434832755</v>
+        <v>-0.005138215154503086</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06656852810404813</v>
+        <v>0.06397639428805527</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0876983021314439</v>
+        <v>0.0871175498496211</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.00256790784375129</v>
+        <v>-0.002343817954402323</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1530318705413177</v>
+        <v>0.1556401545936184</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08878360632443814</v>
+        <v>0.08761392215118939</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.00122003731298999</v>
+        <v>-0.00151939830842242</v>
       </c>
       <c r="M193" t="n">
-        <v>0.3741924363637881</v>
+        <v>0.352688617231422</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08628558144918752</v>
+        <v>0.08573797436772503</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.005173861837269047</v>
+        <v>-0.004357254572593705</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5824580822564676</v>
+        <v>0.5777127100078044</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08459798737946871</v>
+        <v>0.08479579920213375</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.003290378434832755</v>
+        <v>-0.005138215154503086</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06654799041041752</v>
+        <v>0.06404958623675691</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08851032344747579</v>
+        <v>0.0879241938297102</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.00256790784375129</v>
+        <v>-0.002343817954402323</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1532299929567895</v>
+        <v>0.1557453407468974</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08960567675336813</v>
+        <v>0.08842516217110781</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.00122003731298999</v>
+        <v>-0.00151939830842242</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3741405244435214</v>
+        <v>0.3530299446562362</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08708452201816148</v>
+        <v>0.08653184450075951</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.005173861837269047</v>
+        <v>-0.004357254572593705</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5825934572567968</v>
+        <v>0.5778660818799214</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08538130207742675</v>
+        <v>0.08558094549104239</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.003290378434832755</v>
+        <v>-0.005138215154503086</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06654503988540703</v>
+        <v>0.06407884379396579</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08932234476350769</v>
+        <v>0.08873083780979928</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.00256790784375129</v>
+        <v>-0.002335381807767769</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1533835239265728</v>
+        <v>0.155805550215298</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09042774718229811</v>
+        <v>0.08923640219102624</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.00122003731298999</v>
+        <v>-0.00151939830842242</v>
       </c>
       <c r="M195" t="n">
-        <v>0.3742391509525967</v>
+        <v>0.353449993177425</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08788346258713543</v>
+        <v>0.08732571463379402</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.005173861837269047</v>
+        <v>-0.004249545209786045</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5825593333502678</v>
+        <v>0.5781720397915195</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.0861646167753848</v>
+        <v>0.08636609177995104</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.003290378434832755</v>
+        <v>-0.005138215154503086</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06654152114216108</v>
+        <v>0.06416126235563052</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09013436607953956</v>
+        <v>0.08953748178988837</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.002529941018276145</v>
+        <v>-0.002334681333320328</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1535128683043598</v>
+        <v>0.1558826601691422</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09124981761122808</v>
+        <v>0.09004764221094466</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.001276027392984991</v>
+        <v>-0.001556019786433392</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3742805452493763</v>
+        <v>0.3538965852319664</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0886824031561094</v>
+        <v>0.0881195847668285</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.005142573765915189</v>
+        <v>-0.004249545209786045</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5827721454445346</v>
+        <v>0.5782171008971625</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08694793147334284</v>
+        <v>0.08715123806885967</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.00327378217283797</v>
+        <v>-0.005093705612902837</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06655559922574864</v>
+        <v>0.06420844325759045</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09094638739557145</v>
+        <v>0.09034412576997744</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.002529941018276145</v>
+        <v>-0.002335381807767769</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1536384938785797</v>
+        <v>0.1559974655259813</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09207188804015806</v>
+        <v>0.09085888223086308</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.001276027392984991</v>
+        <v>-0.001556019786433392</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3742648969743847</v>
+        <v>0.3543173703114693</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08948134372508335</v>
+        <v>0.08891345489986299</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.005142573765915189</v>
+        <v>-0.004249545209786045</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5826491399631029</v>
+        <v>0.5784987188569927</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08773124617130089</v>
+        <v>0.08793638435776834</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.00327378217283797</v>
+        <v>-0.005093705612902837</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06656004048204602</v>
+        <v>0.06425566908886438</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09175840871160335</v>
+        <v>0.09115076975006653</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.002529941018276145</v>
+        <v>-0.002335148316285288</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1538013056285796</v>
+        <v>0.1560677512570424</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09289395846908804</v>
+        <v>0.0916701222507815</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.001276027392984991</v>
+        <v>-0.001556019786433392</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3740875705825628</v>
+        <v>0.3549627173793847</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09028028429405731</v>
+        <v>0.08970732503289749</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.005142573765915189</v>
+        <v>-0.004249545209786045</v>
       </c>
       <c r="P198" t="n">
-        <v>0.582690049327072</v>
+        <v>0.5787690002934384</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.08851456086925893</v>
+        <v>0.08872153064667698</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.00327378217283797</v>
+        <v>-0.005093705612902837</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06653669530081846</v>
+        <v>0.06432060011777355</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09257043002763524</v>
+        <v>0.09195741373015562</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.002529941018276145</v>
+        <v>-0.002335381807767769</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1539403597229151</v>
+        <v>0.1561554813678896</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09371602889801803</v>
+        <v>0.09248136227069992</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.001276027392984991</v>
+        <v>-0.001556019786433392</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3742204798371207</v>
+        <v>0.3554775606159483</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09107922486303126</v>
+        <v>0.09050119516593198</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.005142573765915189</v>
+        <v>-0.004249545209786045</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5827284548562967</v>
+        <v>0.5787798200010723</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.08929787556721698</v>
+        <v>0.08950667693558563</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.003240012773961505</v>
+        <v>-0.004973425826361351</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06652188642412765</v>
+        <v>0.06436777193464173</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09338245134366713</v>
+        <v>0.09276405771024469</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.002500295085255176</v>
+        <v>-0.002326916698165553</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1540557621514776</v>
+        <v>0.156260846962573</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09453809932694802</v>
+        <v>0.09329260229061834</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.001350523109578255</v>
+        <v>-0.001609627339922817</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3741920865290224</v>
+        <v>0.3560112962528601</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09187816543200522</v>
+        <v>0.09129506529896647</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.00504479371745379</v>
+        <v>-0.00408898490763023</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5828477604219843</v>
+        <v>0.5790289795428942</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09008119026517503</v>
+        <v>0.09029182322449428</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.003240012773961505</v>
+        <v>-0.004973425826361351</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06651561841768312</v>
+        <v>0.06443256798320572</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09419447265969901</v>
+        <v>0.09357070169033378</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.002500295085255176</v>
+        <v>-0.002327382081505186</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1541680396679292</v>
+        <v>0.1563221345529101</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09536016975587801</v>
+        <v>0.09410384231053676</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.001350523109578255</v>
+        <v>-0.001609627339922817</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3740550094288436</v>
+        <v>0.3564100719642813</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09267710600097918</v>
+        <v>0.09208893543200096</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.00504479371745379</v>
+        <v>-0.00408898490763023</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5830480952468566</v>
+        <v>0.5791854884054692</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09086450496313306</v>
+        <v>0.09107696951340291</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.003240012773961505</v>
+        <v>-0.004973425826361351</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06652697212255024</v>
+        <v>0.06447060629469308</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0950064939757309</v>
+        <v>0.09437734567042287</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.002500295085255176</v>
+        <v>-0.002327382081505186</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1543590681559029</v>
+        <v>0.1564426715647683</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09618224018480799</v>
+        <v>0.09491508233045517</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.001350523109578255</v>
+        <v>-0.001609627339922817</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3739666635996769</v>
+        <v>0.3570770856477159</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09347604656995315</v>
+        <v>0.09288280556503545</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.00504479371745379</v>
+        <v>-0.00408898490763023</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5830797133263674</v>
+        <v>0.5792498364940621</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.0916478196610911</v>
+        <v>0.09186211580231156</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.003240012773961505</v>
+        <v>-0.004973425826361351</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06651056993214614</v>
+        <v>0.06454393330785246</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09581851529176279</v>
+        <v>0.09518398965051196</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.002500295085255176</v>
+        <v>-0.002321246804366053</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1544451478570846</v>
+        <v>0.1564781434617407</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09700431061373797</v>
+        <v>0.09572632235037359</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.001350523109578255</v>
+        <v>-0.001609627339922817</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3739796250468984</v>
+        <v>0.3577067164614059</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09427498713892711</v>
+        <v>0.09367667569806994</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.00504479371745379</v>
+        <v>-0.00408898490763023</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5831093033434986</v>
+        <v>0.5796372548233285</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09243113435904915</v>
+        <v>0.09264726209122021</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.003240012773961505</v>
+        <v>-0.004973425826361351</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06649364996354683</v>
+        <v>0.06458149308960728</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09663053660779468</v>
+        <v>0.09599063363060104</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.002470153004520644</v>
+        <v>-0.002320782601425474</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1545694362419834</v>
+        <v>0.1566145401950156</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09782638104266794</v>
+        <v>0.09653756237029203</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.001439542050765615</v>
+        <v>-0.001677237616044834</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3739368757903954</v>
+        <v>0.3581444220229679</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09507392770790106</v>
+        <v>0.09447054583110442</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.004890366355617418</v>
+        <v>-0.003888256263881753</v>
       </c>
       <c r="P204" t="n">
-        <v>0.5828870933120425</v>
+        <v>0.5796017976576215</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.0932144490570072</v>
+        <v>0.09343240838012885</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.003191020603530033</v>
+        <v>-0.004788012273253896</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06649436698644207</v>
+        <v>0.06464539319673425</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09744255792382656</v>
+        <v>0.09679727761069012</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.002470153004520644</v>
+        <v>-0.002321246804366053</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1546912173716452</v>
+        <v>0.1566248262216322</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09864845147159793</v>
+        <v>0.09734880239021045</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.001439542050765615</v>
+        <v>-0.001677237616044834</v>
       </c>
       <c r="M205" t="n">
-        <v>0.3739433945768053</v>
+        <v>0.358794607656136</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09587286827687502</v>
+        <v>0.09526441596413893</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.004890366355617418</v>
+        <v>-0.003888256263881753</v>
       </c>
       <c r="P205" t="n">
-        <v>0.5830795760865666</v>
+        <v>0.579724618001863</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.09399776375496524</v>
+        <v>0.0942175546690375</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.003191020603530033</v>
+        <v>-0.004788012273253896</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06647642851710615</v>
+        <v>0.06470005208406569</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09825457923985845</v>
+        <v>0.0976039215907792</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.002470153004520644</v>
+        <v>-0.002321478905836343</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1548106389480188</v>
+        <v>0.1567157537858702</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09947052190052791</v>
+        <v>0.09816004241012886</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.001439542050765615</v>
+        <v>-0.001677237616044834</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3738945860642087</v>
+        <v>0.3593504398836772</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09667180884584897</v>
+        <v>0.09605828609717341</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.004890366355617418</v>
+        <v>-0.003888256263881753</v>
       </c>
       <c r="P206" t="n">
-        <v>0.5831870963295906</v>
+        <v>0.5798403584955576</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09478107845292329</v>
+        <v>0.09500270095794613</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.003191020603530033</v>
+        <v>-0.004788012273253896</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06647613583958602</v>
+        <v>0.06474540167101879</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09906660055589034</v>
+        <v>0.09841056557086829</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.002470153004520644</v>
+        <v>-0.002321478905836343</v>
       </c>
       <c r="J207" t="n">
-        <v>0.154927848673053</v>
+        <v>0.156784179377773</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1002925923294579</v>
+        <v>0.09897128243004728</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.001439542050765615</v>
+        <v>-0.001677237616044834</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3737382735679714</v>
+        <v>0.3601156476450535</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09747074941482294</v>
+        <v>0.0968521562302079</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.004890366355617418</v>
+        <v>-0.003888256263881753</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5831264610905024</v>
+        <v>0.5799495560503196</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09556439315088133</v>
+        <v>0.09578784724685478</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.003191020603530033</v>
+        <v>-0.004788012273253896</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06645720355979462</v>
+        <v>0.06481699660768191</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09987862187192222</v>
+        <v>0.09921720955095738</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.002448346190336187</v>
+        <v>-0.002315371584764809</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1550634985481215</v>
+        <v>0.1568716174220353</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1011146627583879</v>
+        <v>0.0997825224499657</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.001539101804542909</v>
+        <v>-0.001753919488569158</v>
       </c>
       <c r="M208" t="n">
-        <v>0.3737889192379865</v>
+        <v>0.360731614509349</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09826968998379688</v>
+        <v>0.09764602636324241</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.004688975873279806</v>
+        <v>-0.003658681158112007</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5832310020748775</v>
+        <v>0.5801357528525214</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09634770784883938</v>
+        <v>0.09657299353576343</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.003128756026870232</v>
+        <v>-0.004551148753415161</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06646499587357058</v>
+        <v>0.06486136763034697</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1006906431879541</v>
+        <v>0.1000238535310465</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.002448346190336187</v>
+        <v>-0.002315834659081762</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1551357077545609</v>
+        <v>0.1569161774213428</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1019367331873179</v>
+        <v>0.1005937624698841</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.001539101804542909</v>
+        <v>-0.001753919488569158</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3736277004273003</v>
+        <v>0.3612469973806661</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09906863055277086</v>
+        <v>0.09843989649627689</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.004688975873279806</v>
+        <v>-0.003658681158112007</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5830010001740003</v>
+        <v>0.5801504699895043</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09713102254679741</v>
+        <v>0.09735813982467208</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.003128756026870232</v>
+        <v>-0.004551148753415161</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06646323202342623</v>
+        <v>0.06491408014691802</v>
       </c>
       <c r="G210" t="n">
-        <v>0.101502664503986</v>
+        <v>0.1008304975111355</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.002448346190336187</v>
+        <v>-0.002315834659081762</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1552882105279836</v>
+        <v>0.1570007774457226</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1027588036162479</v>
+        <v>0.1014050024898025</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.001539101804542909</v>
+        <v>-0.001753919488569158</v>
       </c>
       <c r="M210" t="n">
-        <v>0.373673771065813</v>
+        <v>0.3618130710697568</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09986757112174481</v>
+        <v>0.09923376662931138</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.004688975873279806</v>
+        <v>-0.003658681158112007</v>
       </c>
       <c r="P210" t="n">
-        <v>0.5830197238019581</v>
+        <v>0.580243260197156</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.09791433724475546</v>
+        <v>0.09814328611358074</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.003128756026870232</v>
+        <v>-0.004551148753415161</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06643378486169796</v>
+        <v>0.06496617685058519</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1023146858200179</v>
+        <v>0.1016371414912246</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.002448346190336187</v>
+        <v>-0.002311628300981359</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1554185986033923</v>
+        <v>0.157063507440811</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1035808740451778</v>
+        <v>0.102216242509721</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.001539101804542909</v>
+        <v>-0.001753919488569158</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3736654669462571</v>
+        <v>0.3625818510995109</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1006665116907188</v>
+        <v>0.1000276367623459</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.004688975873279806</v>
+        <v>-0.003658681158112007</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5832039968741189</v>
+        <v>0.5804146882778445</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.0986976519427135</v>
+        <v>0.09892843240248937</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.003128756026870232</v>
+        <v>-0.004551148753415161</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.06642200602247468</v>
+        <v>0.065017606053263</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1031267071360498</v>
+        <v>0.1024437854713137</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.00242803626745215</v>
+        <v>-0.002311628300981359</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1555064376852519</v>
+        <v>0.1571252238232131</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1044029444741078</v>
+        <v>0.1030274825296394</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.00164521995890597</v>
+        <v>-0.001837306819389778</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3736029934435722</v>
+        <v>0.3631416858895454</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1014654522596927</v>
+        <v>0.1008215068953804</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.004450306463314695</v>
+        <v>-0.003409504641690666</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5832206935507273</v>
+        <v>0.5803331500274863</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.09948096664067155</v>
+        <v>0.09971357869139802</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.003055169409308774</v>
+        <v>-0.004274217931938312</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06640069720438141</v>
+        <v>0.06507724770809808</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1039387284520817</v>
+        <v>0.1032504294514028</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.00242803626745215</v>
+        <v>-0.002311628300981359</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1555929294542656</v>
+        <v>0.1571446583168209</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1052250149030378</v>
+        <v>0.1038387225495578</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.00164521995890597</v>
+        <v>-0.001837306819389778</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3735389004757379</v>
+        <v>0.3636440390971455</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1022643928286667</v>
+        <v>0.1016153770284148</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.004450306463314695</v>
+        <v>-0.003409504641690666</v>
       </c>
       <c r="P213" t="n">
-        <v>0.583236553557591</v>
+        <v>0.5806635061930653</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1002642813386296</v>
+        <v>0.1004987249803067</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.003055169409308774</v>
+        <v>-0.004274217931938312</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06641519091929753</v>
+        <v>0.06513612847360006</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1047507497681135</v>
+        <v>0.1040570734314919</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.00242803626745215</v>
+        <v>-0.002312321858827438</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1556987918744913</v>
+        <v>0.1572669975006487</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1060470853319678</v>
+        <v>0.1046499625694762</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.00164521995890597</v>
+        <v>-0.001837306819389778</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3733687020794256</v>
+        <v>0.3643439661129162</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1030633333976406</v>
+        <v>0.1024092471614493</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.004450306463314695</v>
+        <v>-0.003409504641690666</v>
       </c>
       <c r="P214" t="n">
-        <v>0.5831683791757798</v>
+        <v>0.5807419523866083</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1010475960365876</v>
+        <v>0.1012838712692153</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.003055169409308774</v>
+        <v>-0.004274217931938312</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06637484563653263</v>
+        <v>0.06516737177450521</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1055627710841455</v>
+        <v>0.104863717411581</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.00242803626745215</v>
+        <v>-0.002312090672878745</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1558242044213742</v>
+        <v>0.1572852107618534</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1068691557608978</v>
+        <v>0.1054612025893946</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.00164521995890597</v>
+        <v>-0.001837306819389778</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3734066072529701</v>
+        <v>0.3648283598030616</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1038622739666146</v>
+        <v>0.1032031172944838</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.004450306463314695</v>
+        <v>-0.003154677212100513</v>
       </c>
       <c r="P215" t="n">
-        <v>0.5831829217458586</v>
+        <v>0.5806520200805898</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.1018309107345457</v>
+        <v>0.102069017558124</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.003055169409308774</v>
+        <v>-0.004274217931938312</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06637030996090146</v>
+        <v>0.06520666772133583</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1063747924001773</v>
+        <v>0.10567036139167</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002403776054203234</v>
+        <v>-0.002307719049654658</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1558869829522743</v>
+        <v>0.1573237803002641</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1076912261898277</v>
+        <v>0.1062724426093131</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.001753914101850635</v>
+        <v>-0.001922257795628778</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3732341357250657</v>
+        <v>0.3654038821533884</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1046612145355886</v>
+        <v>0.1039969874275183</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.004184042318595821</v>
+        <v>-0.003154677212100513</v>
       </c>
       <c r="P216" t="n">
-        <v>0.5833636244480905</v>
+        <v>0.5806434195583925</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1026142254325037</v>
+        <v>0.1028541638470326</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.002972211116172335</v>
+        <v>-0.003973334754646196</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.06636533181848923</v>
+        <v>0.0652718815714913</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1071868137162092</v>
+        <v>0.1064770053717591</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002403776054203234</v>
+        <v>-0.002307488300824576</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1559901874496183</v>
+        <v>0.1574451098680413</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1085132966187577</v>
+        <v>0.1070836826292315</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.001753914101850635</v>
+        <v>-0.001922257795628778</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3731131398577295</v>
+        <v>0.3661205663290715</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1054601551045625</v>
+        <v>0.1047908575605528</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.004184042318595821</v>
+        <v>-0.003154677212100513</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5833773303361609</v>
+        <v>0.5808828704909009</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1033975401304618</v>
+        <v>0.1036393101359412</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.002972211116172335</v>
+        <v>-0.003973334754646196</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06634179922199174</v>
+        <v>0.06532718068885907</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1079988350322411</v>
+        <v>0.1072836493518482</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002403776054203234</v>
+        <v>-0.002307488300824576</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1561340275590166</v>
+        <v>0.1575042112594017</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1093353670476877</v>
+        <v>0.1078949226491499</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.001753914101850635</v>
+        <v>-0.001922257795628778</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3730437870283851</v>
+        <v>0.3666153959151393</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1062590956735365</v>
+        <v>0.1055847276935873</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.004184042318595821</v>
+        <v>-0.003154677212100513</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5833074727102869</v>
+        <v>0.5809555391501039</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1041808548284198</v>
+        <v>0.1044244564248499</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.002972211116172335</v>
+        <v>-0.003973334754646196</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06631784210459148</v>
+        <v>0.06535457864512317</v>
       </c>
       <c r="G219" t="n">
-        <v>0.108810856348273</v>
+        <v>0.1080902933319373</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002403776054203234</v>
+        <v>-0.002307949798484741</v>
       </c>
       <c r="J219" t="n">
-        <v>0.156215604478365</v>
+        <v>0.1575011960596358</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1101574374766177</v>
+        <v>0.1087061626690683</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.001753914101850635</v>
+        <v>-0.001922257795628778</v>
       </c>
       <c r="M219" t="n">
-        <v>0.373130849417476</v>
+        <v>0.3670409347581282</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1070580362425104</v>
+        <v>0.1063785978266218</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.004184042318595821</v>
+        <v>-0.003154677212100513</v>
       </c>
       <c r="P219" t="n">
-        <v>0.5833208141974102</v>
+        <v>0.580945013298419</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1049641695263778</v>
+        <v>0.1052096027137585</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.002972211116172335</v>
+        <v>-0.00365741164740482</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06631157865075991</v>
+        <v>0.06540777175914028</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1096228776643049</v>
+        <v>0.1088969373120264</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002379782065837619</v>
+        <v>-0.002304353410822677</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1563381327634319</v>
+        <v>0.1576229988375134</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1109795079055477</v>
+        <v>0.1095174026889867</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.001861201821372738</v>
+        <v>-0.002005001070443201</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3729037911260156</v>
+        <v>0.3677056830053683</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1078569768114844</v>
+        <v>0.1071724679596563</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.003899867631996924</v>
+        <v>-0.002904251268805107</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5834174779304739</v>
+        <v>0.5809349098028209</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1057474842243359</v>
+        <v>0.1059947490026672</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.002881831512787589</v>
+        <v>-0.00365741164740482</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06629584248421698</v>
+        <v>0.06543293379882852</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1104348989803368</v>
+        <v>0.1097035812921155</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002379782065837619</v>
+        <v>-0.002303892632296218</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1564605373749452</v>
+        <v>0.1576830146549466</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1118015783344776</v>
+        <v>0.1103286427089052</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.001861201821372738</v>
+        <v>-0.002005001070443201</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3728335234945208</v>
+        <v>0.3680903814644727</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1086559173804584</v>
+        <v>0.1079663380926908</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.003899867631996924</v>
+        <v>-0.002904251268805107</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5832642813520009</v>
+        <v>0.5811750929315875</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1065307989222939</v>
+        <v>0.1067798952915758</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.002881831512787589</v>
+        <v>-0.00365741164740482</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.0662978027857223</v>
+        <v>0.06550176052889559</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1112469202963687</v>
+        <v>0.1105102252722046</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002379782065837619</v>
+        <v>-0.002303892632296218</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1565210097130431</v>
+        <v>0.1577021244868556</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1126236487634076</v>
+        <v>0.1111398827288236</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.001861201821372738</v>
+        <v>-0.002005001070443201</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3728156079312996</v>
+        <v>0.3686072425084023</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1094548579494323</v>
+        <v>0.1087602082257253</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.003899867631996924</v>
+        <v>-0.002904251268805107</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5832779703166812</v>
+        <v>0.5813337000910525</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.107314113620252</v>
+        <v>0.1075650415804845</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.002881831512787589</v>
+        <v>-0.00365741164740482</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06625409787713886</v>
+        <v>0.06552448942496691</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1120589416124005</v>
+        <v>0.1113168692522936</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002379782065837619</v>
+        <v>-0.002298553785189235</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1566022549899596</v>
+        <v>0.1577427853547601</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1134457191923376</v>
+        <v>0.111951122748742</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.001861201821372738</v>
+        <v>-0.002005001070443201</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3727456620409419</v>
+        <v>0.3689952653608691</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1102537985184063</v>
+        <v>0.1095540783587597</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.003899867631996924</v>
+        <v>-0.002904251268805107</v>
       </c>
       <c r="P223" t="n">
-        <v>0.583292013766038</v>
+        <v>0.5811618726094405</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.10809742831821</v>
+        <v>0.1083501878693931</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.002881831512787589</v>
+        <v>-0.00365741164740482</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.06623715450059141</v>
+        <v>0.065581839339743</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1128709629284324</v>
+        <v>0.1121235132323827</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002354402729732518</v>
+        <v>-0.002299013541921946</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1567457964445163</v>
+        <v>0.1578675280048488</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1142677896212676</v>
+        <v>0.1127623627686604</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.001963100705468117</v>
+        <v>-0.002081800076783135</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3726761621441945</v>
+        <v>0.3694081029102819</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1110527390873802</v>
+        <v>0.1103479484917942</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.00360746659639174</v>
+        <v>-0.00266974198015306</v>
       </c>
       <c r="P224" t="n">
-        <v>0.5833898614602285</v>
+        <v>0.5812419796678666</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1088807430161681</v>
+        <v>0.1091353341583018</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.002785980964481211</v>
+        <v>-0.003342161998208051</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06621982043990074</v>
+        <v>0.06560192501913836</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1136829842444643</v>
+        <v>0.1129301572124718</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002354402729732518</v>
+        <v>-0.002298783663555591</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1568277773662979</v>
+        <v>0.1578894925733059</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1150898600501976</v>
+        <v>0.1135736027885789</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.001963100705468117</v>
+        <v>-0.002081800076783135</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3726072959805965</v>
+        <v>0.3698959442874393</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1118516796563542</v>
+        <v>0.1111418186248287</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.00360746659639174</v>
+        <v>-0.00266974198015306</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5832383083830318</v>
+        <v>0.5815746303888908</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1096640577141261</v>
+        <v>0.1099204804472104</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002785980964481211</v>
+        <v>-0.003342161998208051</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.0662021018169321</v>
+        <v>0.06564757062680859</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1144950055604962</v>
+        <v>0.1137368011925609</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002354402729732518</v>
+        <v>-0.002298553785189235</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1569724114912183</v>
+        <v>0.1579543157763743</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1159119304791276</v>
+        <v>0.1143848428084973</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.001963100705468117</v>
+        <v>-0.002081800076783135</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3726437591399452</v>
+        <v>0.3700929860730678</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1126506202253282</v>
+        <v>0.1119356887578632</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.00360746659639174</v>
+        <v>-0.00266974198015306</v>
       </c>
       <c r="P226" t="n">
-        <v>0.5835041295853491</v>
+        <v>0.581412094116589</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1104473724120842</v>
+        <v>0.1107056267361191</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.002785980964481211</v>
+        <v>-0.003342161998208051</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06620209298257528</v>
+        <v>0.06568278826579729</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1153070268765281</v>
+        <v>0.11454344517265</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002354402729732518</v>
+        <v>-0.002298553785189235</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1570350153936614</v>
+        <v>0.1580622013233168</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1167340009080576</v>
+        <v>0.1151960828284157</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.001963100705468117</v>
+        <v>-0.002081800076783135</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3724722158110058</v>
+        <v>0.3705172797545142</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1134495607943021</v>
+        <v>0.1127295588908977</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.00360746659639174</v>
+        <v>-0.00266974198015306</v>
       </c>
       <c r="P227" t="n">
-        <v>0.5833541145517563</v>
+        <v>0.5816694924895027</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1112306871100422</v>
+        <v>0.1114907730250277</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.002785980964481211</v>
+        <v>-0.003342161998208051</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06618361990640062</v>
+        <v>0.06571651124497757</v>
       </c>
       <c r="G228" t="n">
-        <v>0.11611904819256</v>
+        <v>0.1153500891527391</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002330631279529021</v>
+        <v>-0.002294016305903689</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1571606093802868</v>
+        <v>0.1581301193385234</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1175560713369875</v>
+        <v>0.1160073228483341</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002055628342132605</v>
+        <v>-0.002149165936984789</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3725108585595482</v>
+        <v>0.3707507701367769</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1142485013632761</v>
+        <v>0.1135234290239322</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.003316523404654007</v>
+        <v>-0.002463391533522781</v>
       </c>
       <c r="P228" t="n">
-        <v>0.5832883798589369</v>
+        <v>0.5815989880606264</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1120140018080003</v>
+        <v>0.1122759193139363</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.002686609836579877</v>
+        <v>-0.003037447382828704</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.066155740176654</v>
+        <v>0.06573069031402567</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1169310695085919</v>
+        <v>0.1161567331328281</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002330631279529021</v>
+        <v>-0.002293328238625373</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1572665375606668</v>
+        <v>0.1581790096811043</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1183781417659175</v>
+        <v>0.1168185628682525</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002055628342132605</v>
+        <v>-0.002149165936984789</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3722896892561386</v>
+        <v>0.3711038975017126</v>
       </c>
       <c r="N229" t="n">
-        <v>0.11504744193225</v>
+        <v>0.1143172991569667</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.003316523404654007</v>
+        <v>-0.002463391533522781</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5835570667143848</v>
+        <v>0.5818664261377594</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.1127973165059583</v>
+        <v>0.113061065602845</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.002686609836579877</v>
+        <v>-0.003037447382828704</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06613654260346868</v>
+        <v>0.06577026461480859</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1177430908246238</v>
+        <v>0.1169633771129172</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002330631279529021</v>
+        <v>-0.002293328238625373</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1573529158614737</v>
+        <v>0.1582090156729619</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1192002121948475</v>
+        <v>0.1176298028881709</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002055628342132605</v>
+        <v>-0.002149165936984789</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3722268141395165</v>
+        <v>0.3711579807696008</v>
       </c>
       <c r="N230" t="n">
-        <v>0.115846382501224</v>
+        <v>0.1151111692900012</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.003316523404654007</v>
+        <v>-0.002463391533522781</v>
       </c>
       <c r="P230" t="n">
-        <v>0.5834102484768855</v>
+        <v>0.5820565234069796</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1135806312039163</v>
+        <v>0.1138462118917536</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.002686609836579877</v>
+        <v>-0.003037447382828704</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.0661169910419328</v>
+        <v>0.06581720001980627</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1185551121406556</v>
+        <v>0.1177700210930063</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002330631279529021</v>
+        <v>-0.002294016305903689</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1575028440093587</v>
+        <v>0.1583036008059088</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1200222826237775</v>
+        <v>0.1184410429080894</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002055628342132605</v>
+        <v>-0.002149165936984789</v>
       </c>
       <c r="M231" t="n">
-        <v>0.372322364393505</v>
+        <v>0.3713279310549243</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1166453230701979</v>
+        <v>0.1159050394230357</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.003316523404654007</v>
+        <v>-0.002295610526892956</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5835981019415316</v>
+        <v>0.5820033858826463</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1143639459018744</v>
+        <v>0.1146313581806623</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.002686609836579877</v>
+        <v>-0.003037447382828704</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06610612613331077</v>
+        <v>0.06583542269852793</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1193671334566875</v>
+        <v>0.1185766650730954</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002294208276882602</v>
+        <v>-0.002285704806489616</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1575712683139295</v>
+        <v>0.1584213210203645</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1208443530527075</v>
+        <v>0.1192522829280078</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002134802319362037</v>
+        <v>-0.002202552774976718</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3721065316101407</v>
+        <v>0.3714555349121048</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1174442636391719</v>
+        <v>0.1166989095560702</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.003036722249657462</v>
+        <v>-0.002295610526892956</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5835373546892061</v>
+        <v>0.5822899309400671</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1151472605998324</v>
+        <v>0.1154165044695709</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.00258566849441026</v>
+        <v>-0.002757934157910278</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06607685044371936</v>
+        <v>0.06586089697985127</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1201791547727194</v>
+        <v>0.1193833090531845</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002294208276882602</v>
+        <v>-0.002286161947450914</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1577243498508357</v>
+        <v>0.1584789821091542</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1216664234816374</v>
+        <v>0.1200635229479262</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002134802319362037</v>
+        <v>-0.002202552774976718</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3720494996389173</v>
+        <v>0.3716300851054505</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1182432042081459</v>
+        <v>0.1174927796891047</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.003036722249657462</v>
+        <v>-0.002295610526892956</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5835614962884409</v>
+        <v>0.5822510433580378</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1159305752977905</v>
+        <v>0.1162016507584796</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.00258566849441026</v>
+        <v>-0.002757934157910278</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06607433452597809</v>
+        <v>0.06588456644184032</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1209911760887513</v>
+        <v>0.1201899530332736</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002294208276882602</v>
+        <v>-0.002285933376970265</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1578376935905785</v>
+        <v>0.1585183852769083</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1224884939105674</v>
+        <v>0.1208747629678446</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002134802319362037</v>
+        <v>-0.002202552774976718</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3720992002234623</v>
+        <v>0.3717325376604043</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1190421447771198</v>
+        <v>0.1182866498221392</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.003036722249657462</v>
+        <v>-0.002295610526892956</v>
       </c>
       <c r="P234" t="n">
-        <v>0.5836706531118895</v>
+        <v>0.582303295498501</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1167138899957485</v>
+        <v>0.1169867970473882</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.00258566849441026</v>
+        <v>-0.002757934157910278</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06603536736183369</v>
+        <v>0.06590637939124072</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1218031974047832</v>
+        <v>0.1209965970133627</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002294208276882602</v>
+        <v>-0.002285933376970265</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1579113792424611</v>
+        <v>0.1586439809015012</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1233105643394974</v>
+        <v>0.1216860029877631</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002134802319362037</v>
+        <v>-0.002202552774976718</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3720991913249364</v>
+        <v>0.3716728469785969</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1198410853460938</v>
+        <v>0.1190805199551736</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.003036722249657462</v>
+        <v>-0.002295610526892956</v>
       </c>
       <c r="P235" t="n">
-        <v>0.5836148930928424</v>
+        <v>0.582530515532069</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1174972046937065</v>
+        <v>0.1177719433362969</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.00258566849441026</v>
+        <v>-0.002757934157910278</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06603219014249753</v>
+        <v>0.06591726759841289</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1226152187208151</v>
+        <v>0.1218032409934517</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.00224830082908594</v>
+        <v>-0.002276842460094362</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1580078927568305</v>
+        <v>0.1587099392443506</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1241326347684274</v>
+        <v>0.1224972430076815</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002196640225152249</v>
+        <v>-0.002238023693246716</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3718930935482894</v>
+        <v>0.3715246095578527</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1206400259150677</v>
+        <v>0.1198743900882081</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002777747324275844</v>
+        <v>-0.002166693171581762</v>
       </c>
       <c r="P236" t="n">
-        <v>0.5836443865359827</v>
+        <v>0.5828500611149929</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1182805193916646</v>
+        <v>0.1185570896252055</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.002485107303299037</v>
+        <v>-0.00251611839120484</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06600109382405037</v>
+        <v>0.06592619231787777</v>
       </c>
       <c r="G237" t="n">
-        <v>0.123427240036847</v>
+        <v>0.1226098849735408</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.00224830082908594</v>
+        <v>-0.002276614775848352</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1581274163943288</v>
+        <v>0.1587789859607435</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1249547051973574</v>
+        <v>0.1233084830275999</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002196640225152249</v>
+        <v>-0.002238023693246716</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3718464805283114</v>
+        <v>0.3714972587676445</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1214389664840417</v>
+        <v>0.1206682602212426</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002777747324275844</v>
+        <v>-0.002166693171581762</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5836759021650654</v>
+        <v>0.5827628130878865</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1190638340896226</v>
+        <v>0.1193422359141142</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.002485107303299037</v>
+        <v>-0.00251611839120484</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06598325207583158</v>
+        <v>0.06596016223136704</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1242392613528789</v>
+        <v>0.1234165289536299</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.00224830082908594</v>
+        <v>-0.002277297828586381</v>
       </c>
       <c r="J238" t="n">
-        <v>0.158290960730954</v>
+        <v>0.1588721741746414</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1257767756262874</v>
+        <v>0.1241197230475183</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002196640225152249</v>
+        <v>-0.002238023693246716</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3718029415480578</v>
+        <v>0.3713303468350146</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1222379070530157</v>
+        <v>0.1214621303542771</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002777747324275844</v>
+        <v>-0.002166693171581762</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5836261964794296</v>
+        <v>0.5830187723063197</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1198471487875807</v>
+        <v>0.1201273822030228</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.002485107303299037</v>
+        <v>-0.00251611839120484</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06594184406267427</v>
+        <v>0.06596501088715565</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1250512826689107</v>
+        <v>0.124223172933719</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.00224830082908594</v>
+        <v>-0.002276614775848352</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1584153902838199</v>
+        <v>0.1590105955973519</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1265988460552173</v>
+        <v>0.1249309630674367</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002196640225152249</v>
+        <v>-0.002238023693246716</v>
       </c>
       <c r="M239" t="n">
-        <v>0.371762664328294</v>
+        <v>0.3713370183107745</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1230368476219896</v>
+        <v>0.1222560004873116</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.00254928282138289</v>
+        <v>-0.002166693171581762</v>
       </c>
       <c r="P239" t="n">
-        <v>0.583745476457006</v>
+        <v>0.5833687255647453</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1206304634855387</v>
+        <v>0.1209125284919314</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.002485107303299037</v>
+        <v>-0.00251611839120484</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06590404465670574</v>
+        <v>0.06597676469941699</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1258633039849426</v>
+        <v>0.1250298169138081</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002194361128378281</v>
+        <v>-0.002266287919489585</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1585216302528638</v>
+        <v>0.1591108391628386</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1274209164841473</v>
+        <v>0.1257422030873551</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002237159647499078</v>
+        <v>-0.002252779358240514</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3718823699941025</v>
+        <v>0.3711005492049932</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1238357881909636</v>
+        <v>0.1230498706203461</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.00254928282138289</v>
+        <v>-0.002042161767249654</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5838671433981695</v>
+        <v>0.5833965731334588</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1214137781834968</v>
+        <v>0.1216976747808401</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.00238687662857288</v>
+        <v>-0.002323151822583924</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06586094340778563</v>
+        <v>0.06597732861137832</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1266753253009745</v>
+        <v>0.1258364608938972</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002194361128378281</v>
+        <v>-0.002265834752539077</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1586515196919112</v>
+        <v>0.159226575360008</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1282429869130773</v>
+        <v>0.1265534431072736</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002237159647499078</v>
+        <v>-0.002252779358240514</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3717448205353501</v>
+        <v>0.3709339944358305</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1246347287599375</v>
+        <v>0.1238437407533806</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.00254928282138289</v>
+        <v>-0.002042161767249654</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5836578206815993</v>
+        <v>0.5837694937297987</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1221970928814548</v>
+        <v>0.1224828210697487</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.00238687662857288</v>
+        <v>-0.002323151822583924</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06582165637056814</v>
+        <v>0.06598469708769499</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1274873466170064</v>
+        <v>0.1266431048739862</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002194361128378281</v>
+        <v>-0.002265608169063823</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1587634884111434</v>
+        <v>0.1593226373176293</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1290650573420073</v>
+        <v>0.127364683127192</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002237159647499078</v>
+        <v>-0.002252779358240514</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3717154519847919</v>
+        <v>0.3706813651093049</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1254336693289115</v>
+        <v>0.1246376108864151</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.00254928282138289</v>
+        <v>-0.002042161767249654</v>
       </c>
       <c r="P242" t="n">
-        <v>0.5838679822641587</v>
+        <v>0.5838212221844448</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1229804075794129</v>
+        <v>0.1232679673586574</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.00238687662857288</v>
+        <v>-0.002323151822583924</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.0657412792277329</v>
+        <v>0.06600213517077802</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1282993679330383</v>
+        <v>0.1274497488540753</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002194361128378281</v>
+        <v>-0.002265834752539077</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1589621034864481</v>
+        <v>0.1594338188820261</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1298871277709373</v>
+        <v>0.1281759231471104</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002237159647499078</v>
+        <v>-0.002252779358240514</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3717422654887368</v>
+        <v>0.3702390043991286</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1262326098978855</v>
+        <v>0.1254314810194496</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.00254928282138289</v>
+        <v>-0.002042161767249654</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5838307494326785</v>
+        <v>0.5840335948508929</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.1237637222773709</v>
+        <v>0.124053113647566</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.00238687662857288</v>
+        <v>-0.002323151822583924</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06569194340361544</v>
+        <v>0.06600159851291788</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1291113892490702</v>
+        <v>0.1282563928341644</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002127988513052589</v>
+        <v>-0.002251678362592381</v>
       </c>
       <c r="J244" t="n">
-        <v>0.159080431070578</v>
+        <v>0.159569261784664</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1307091981998673</v>
+        <v>0.1289871631670288</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002252378174398357</v>
+        <v>-0.002244612362344466</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3716689417577803</v>
+        <v>0.3700754998747803</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1270315504668594</v>
+        <v>0.1262253511524841</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.002361012933852338</v>
+        <v>-0.001921986243649994</v>
       </c>
       <c r="P244" t="n">
-        <v>0.5838797507948564</v>
+        <v>0.5843264640374981</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1245470369753289</v>
+        <v>0.1248382599364747</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002292926835558465</v>
+        <v>-0.002184036329037613</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06564672527573637</v>
+        <v>0.06601936193347639</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1299234105651021</v>
+        <v>0.1290630368142535</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002127988513052589</v>
+        <v>-0.002251453217270654</v>
       </c>
       <c r="J245" t="n">
-        <v>0.159226575360008</v>
+        <v>0.1596660497678484</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1315312686287972</v>
+        <v>0.1297984031869472</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002252378174398357</v>
+        <v>-0.002244612362344466</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3716521755604054</v>
+        <v>0.3696189914471449</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1278304910358334</v>
+        <v>0.1270192212855186</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.002361012933852338</v>
+        <v>-0.001921986243649994</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5838483338246887</v>
+        <v>0.5848301361677478</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.125330351673287</v>
+        <v>0.1256234062253833</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002292926835558465</v>
+        <v>-0.002184036329037613</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06555182855270086</v>
+        <v>0.06599794871644965</v>
       </c>
       <c r="G246" t="n">
-        <v>0.130735431881134</v>
+        <v>0.1298696807943426</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002127988513052589</v>
+        <v>-0.002251678362592381</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1593475475739924</v>
+        <v>0.1597450297863956</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1323533390577272</v>
+        <v>0.1306096432068657</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002252378174398357</v>
+        <v>-0.002244612362344466</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3715878216279407</v>
+        <v>0.3692857400787987</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1286294316048073</v>
+        <v>0.127813091418553</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.002361012933852338</v>
+        <v>-0.001921986243649994</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5841535945067802</v>
+        <v>0.5852282903197691</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.126113666371245</v>
+        <v>0.126408552514292</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002292926835558465</v>
+        <v>-0.002184036329037613</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.06550618014908204</v>
+        <v>0.0659800068097232</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1315474531971658</v>
+        <v>0.1306763247744317</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002127988513052589</v>
+        <v>-0.002251228071948927</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1594944539633338</v>
+        <v>0.1598900616515411</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1331754094866572</v>
+        <v>0.1314208832267841</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002252378174398357</v>
+        <v>-0.002244612362344466</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3716847229515828</v>
+        <v>0.3687644252671395</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1294283721737813</v>
+        <v>0.1286069615515875</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.002220897417797217</v>
+        <v>-0.001921986243649994</v>
       </c>
       <c r="P247" t="n">
-        <v>0.5840335948508929</v>
+        <v>0.5854355763505359</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1268969810692031</v>
+        <v>0.1271936988032006</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002203449344526979</v>
+        <v>-0.002184036329037613</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.0654021651730603</v>
+        <v>0.06593885548958987</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1323594745131977</v>
+        <v>0.1314829687545208</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002054598859314926</v>
+        <v>-0.002217073731491936</v>
       </c>
       <c r="J248" t="n">
-        <v>0.159663761495682</v>
+        <v>0.1600381947271478</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1339974799155872</v>
+        <v>0.1322321232467025</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.002234849686174742</v>
+        <v>-0.00221755326960755</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3716300851054505</v>
+        <v>0.3683667876234579</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1302273127427552</v>
+        <v>0.129400831684622</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.002220897417797217</v>
+        <v>-0.001805036163829353</v>
       </c>
       <c r="P248" t="n">
-        <v>0.5840850279894582</v>
+        <v>0.5861187982586563</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1276802957671611</v>
+        <v>0.1279788450921092</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002203449344526979</v>
+        <v>-0.002055717825388707</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.0653475304924737</v>
+        <v>0.06588390884085002</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1331714958292296</v>
+        <v>0.1322896127346098</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.002054598859314926</v>
+        <v>-0.002217073731491936</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1598345119967933</v>
+        <v>0.1601263276767151</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1348195503445172</v>
+        <v>0.1330433632666209</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.002234849686174742</v>
+        <v>-0.00221755326960755</v>
       </c>
       <c r="M249" t="n">
-        <v>0.371693989501882</v>
+        <v>0.3679373730066712</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1310262533117292</v>
+        <v>0.1301947018176565</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.002220897417797217</v>
+        <v>-0.001805036163829353</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5844616297074116</v>
+        <v>0.5867752396897602</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1284636104651191</v>
+        <v>0.1287639913810179</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002203449344526979</v>
+        <v>-0.002055717825388707</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06523484612674936</v>
+        <v>0.06578854355286554</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1339835171452615</v>
+        <v>0.1330962567146989</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.002054598859314926</v>
+        <v>-0.002216630361082678</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1599856876677506</v>
+        <v>0.1602804518158727</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1356416207734472</v>
+        <v>0.1338546032865394</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.002234849686174742</v>
+        <v>-0.00221755326960755</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3716238469685269</v>
+        <v>0.367476497550936</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1318251938807032</v>
+        <v>0.130988571950691</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.002220897417797217</v>
+        <v>-0.001805036163829353</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5846732298197821</v>
+        <v>0.5874031861265501</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1292469251630772</v>
+        <v>0.1295491376699266</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002203449344526979</v>
+        <v>-0.002055717825388707</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.0651448428742242</v>
+        <v>0.06571619822934778</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1347955384612934</v>
+        <v>0.133902900694788</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002054598859314926</v>
+        <v>-0.002216852046287307</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1600752000748215</v>
+        <v>0.1603954215312831</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1364636912023771</v>
+        <v>0.1346658433064578</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.002234849686174742</v>
+        <v>-0.00221755326960755</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3716798102148559</v>
+        <v>0.3668811116348999</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1326241344496771</v>
+        <v>0.1317824420837255</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.002220897417797217</v>
+        <v>-0.001805036163829353</v>
       </c>
       <c r="P251" t="n">
-        <v>0.5852178479304649</v>
+        <v>0.5878333062617536</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1300302398610352</v>
+        <v>0.1303342839588352</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002203449344526979</v>
+        <v>-0.002055717825388707</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06505075827978948</v>
+        <v>0.06563121371743193</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1356075597773253</v>
+        <v>0.1347095446748771</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.001962959396976188</v>
+        <v>-0.002152864757660253</v>
       </c>
       <c r="J252" t="n">
-        <v>0.160229036937604</v>
+        <v>0.1605763739829898</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1372857616313071</v>
+        <v>0.1354770833263762</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.002181250647006499</v>
+        <v>-0.002172739476136688</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3717568796900147</v>
+        <v>0.3662551272594903</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1334230750186511</v>
+        <v>0.13257631221676</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.002099289418473081</v>
+        <v>-0.001693981080270699</v>
       </c>
       <c r="P252" t="n">
-        <v>0.5854247440224203</v>
+        <v>0.5885665706554803</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1308135545589933</v>
+        <v>0.1311194302477439</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.002110978587082726</v>
+        <v>-0.001932362735204859</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06496162417374073</v>
+        <v>0.06551602378928581</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1364195810933572</v>
+        <v>0.1355161886549662</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.001962959396976188</v>
+        <v>-0.002152864757660253</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1603841913030283</v>
+        <v>0.1606758898955493</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1381078320602371</v>
+        <v>0.1362883233462946</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.002181250647006499</v>
+        <v>-0.002172739476136688</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3719065748656998</v>
+        <v>0.365650444222937</v>
       </c>
       <c r="N253" t="n">
-        <v>0.134222015587625</v>
+        <v>0.1333701823497945</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.002099289418473081</v>
+        <v>-0.001693981080270699</v>
       </c>
       <c r="P253" t="n">
-        <v>0.5860428802210539</v>
+        <v>0.5893502493564979</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1315968692569513</v>
+        <v>0.1319045765366525</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.002110978587082726</v>
+        <v>-0.001932362735204859</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06487752083686177</v>
+        <v>0.06538901523879377</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1372316024093891</v>
+        <v>0.1363228326350553</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.001962959396976188</v>
+        <v>-0.002152434227761711</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1605616954972526</v>
+        <v>0.1608202444208409</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1389299024891671</v>
+        <v>0.137099563366213</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.002181250647006499</v>
+        <v>-0.002172739476136688</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3721282597401517</v>
+        <v>0.3649642035860672</v>
       </c>
       <c r="N254" t="n">
-        <v>0.135020956156599</v>
+        <v>0.134164052482829</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.002099289418473081</v>
+        <v>-0.001693981080270699</v>
       </c>
       <c r="P254" t="n">
-        <v>0.5867355381919503</v>
+        <v>0.5902668098162485</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1323801839549094</v>
+        <v>0.1326897228255612</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.002110978587082726</v>
+        <v>-0.001932362735204859</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06477182566400305</v>
+        <v>0.06526848516110466</v>
       </c>
       <c r="G255" t="n">
-        <v>0.138043623725421</v>
+        <v>0.1371294766151443</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.001962959396976188</v>
+        <v>-0.002153080022609524</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1607194291111476</v>
+        <v>0.1609883672927123</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1397519729180971</v>
+        <v>0.1379108033861315</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.002181250647006499</v>
+        <v>-0.002172739476136688</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3722124456764985</v>
+        <v>0.3642998005110762</v>
       </c>
       <c r="N255" t="n">
-        <v>0.135819896725573</v>
+        <v>0.1349579226158635</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.001983092851266903</v>
+        <v>-0.001693981080270699</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5872488190817523</v>
+        <v>0.5911467274349914</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1331634986528674</v>
+        <v>0.1334748691144698</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.002110978587082726</v>
+        <v>-0.001932362735204859</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06466249149076365</v>
+        <v>0.06513686764063001</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1388556450414529</v>
+        <v>0.1379361205952334</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.001868102141642317</v>
+        <v>-0.002062774526629235</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1608784088221199</v>
+        <v>0.1611591315653371</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1405740433470271</v>
+        <v>0.1387220434060499</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.002095010516384793</v>
+        <v>-0.002111934168298331</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3723150276659098</v>
+        <v>0.3637087269674424</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1366188372945469</v>
+        <v>0.135751792748898</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001983092851266903</v>
+        <v>-0.001587356468503646</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5882498137918249</v>
+        <v>0.5922408007237759</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1339468133508255</v>
+        <v>0.1342600154033785</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.002014667359844894</v>
+        <v>-0.001815295273727701</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06454075121171016</v>
+        <v>0.06496778230160109</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1396676663574847</v>
+        <v>0.1387427645753225</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.001868102141642317</v>
+        <v>-0.002062774526629235</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1610808185065504</v>
+        <v>0.1612902219212456</v>
       </c>
       <c r="K257" t="n">
-        <v>0.141396113775957</v>
+        <v>0.1395332834259683</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.002095010516384793</v>
+        <v>-0.002111934168298331</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3725398265111477</v>
+        <v>0.3628831140800812</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1374177778635209</v>
+        <v>0.1365456628819325</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001983092851266903</v>
+        <v>-0.001587356468503646</v>
       </c>
       <c r="P257" t="n">
-        <v>0.5889819769937661</v>
+        <v>0.59295792264269</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1347301280487835</v>
+        <v>0.1350451616922871</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.002014667359844894</v>
+        <v>-0.001815295273727701</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06440675059523049</v>
+        <v>0.06482410602642416</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1404796876735166</v>
+        <v>0.1395494085554116</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.001868102141642317</v>
+        <v>-0.002062568249176572</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1612211311533076</v>
+        <v>0.1614660662129434</v>
       </c>
       <c r="K258" t="n">
-        <v>0.142218184204887</v>
+        <v>0.1403445234458867</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.002095010516384793</v>
+        <v>-0.002111934168298331</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3726772086630052</v>
+        <v>0.3621314818073861</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1382167184324948</v>
+        <v>0.1373395330149669</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001983092851266903</v>
+        <v>-0.001587356468503646</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5897775009693575</v>
+        <v>0.5940546899060634</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1355134427467416</v>
+        <v>0.1358303079811957</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.002014667359844894</v>
+        <v>-0.001815295273727701</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.0642960550536347</v>
+        <v>0.06465269427812055</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1412917089895485</v>
+        <v>0.1403560525355007</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001868102141642317</v>
+        <v>-0.001950524594612998</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1613837223383486</v>
+        <v>0.1616020591171419</v>
       </c>
       <c r="K259" t="n">
-        <v>0.143040254633817</v>
+        <v>0.1411557634658051</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.002095010516384793</v>
+        <v>-0.002111934168298331</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3729878257917212</v>
+        <v>0.3615048449881075</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1390156590014688</v>
+        <v>0.1381334031480014</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001983092851266903</v>
+        <v>-0.001587356468503646</v>
       </c>
       <c r="P259" t="n">
-        <v>0.5908858613831449</v>
+        <v>0.595277237626306</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1362967574446996</v>
+        <v>0.1366154542701044</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.002014667359844894</v>
+        <v>-0.001815295273727701</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06416445620588915</v>
+        <v>0.06445404015903761</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1421037303055804</v>
+        <v>0.1411626965155897</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001765062582486921</v>
+        <v>-0.001950524594612998</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1615051590900901</v>
+        <v>0.161740399907755</v>
       </c>
       <c r="K260" t="n">
-        <v>0.143862325062747</v>
+        <v>0.1419670034857236</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.001979567699582076</v>
+        <v>-0.002036207116991989</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3732096489427069</v>
+        <v>0.360696445153759</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1398145995704427</v>
+        <v>0.1389272732810359</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.00187342841337451</v>
+        <v>-0.001487471588026832</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5916318453283052</v>
+        <v>0.5962858658356077</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.1370800721426576</v>
+        <v>0.137400600559013</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001914807022185731</v>
+        <v>-0.001704991654260693</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06403862815563896</v>
+        <v>0.06426405641637266</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1429157516216123</v>
+        <v>0.1419693404956789</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001765062582486921</v>
+        <v>-0.001950524594612998</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1617335024638273</v>
+        <v>0.1619446068618863</v>
       </c>
       <c r="K261" t="n">
-        <v>0.144684395491677</v>
+        <v>0.142778243505642</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.001979567699582076</v>
+        <v>-0.002036207116991989</v>
       </c>
       <c r="M261" t="n">
-        <v>0.37328953960839</v>
+        <v>0.3597583110914717</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1406135401394167</v>
+        <v>0.1397211434140704</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.00187342841337451</v>
+        <v>-0.001487471588026832</v>
       </c>
       <c r="P261" t="n">
-        <v>0.5926854004071754</v>
+        <v>0.5972474864823971</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1378633868406157</v>
+        <v>0.1381857468479216</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001914807022185731</v>
+        <v>-0.001704991654260693</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06393627736808835</v>
+        <v>0.06406535493543927</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1437277729376442</v>
+        <v>0.1427759844757679</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001765062582486921</v>
+        <v>-0.001951109810512972</v>
       </c>
       <c r="J262" t="n">
-        <v>0.161899491187074</v>
+        <v>0.1621087251890082</v>
       </c>
       <c r="K262" t="n">
-        <v>0.145506465920607</v>
+        <v>0.1435894835255604</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.001979567699582076</v>
+        <v>-0.002036207116991989</v>
       </c>
       <c r="M262" t="n">
-        <v>0.373645474776474</v>
+        <v>0.3588948444583359</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1414124807083907</v>
+        <v>0.1405150135471049</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.00187342841337451</v>
+        <v>-0.001487471588026832</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5939603659064453</v>
+        <v>0.5986692784933398</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1386467015385737</v>
+        <v>0.1389708931368303</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001914807022185731</v>
+        <v>-0.001704991654260693</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.0638045751545618</v>
+        <v>0.06388476055194749</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1445397942536761</v>
+        <v>0.143582628455857</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001765062582486921</v>
+        <v>-0.001950524594612998</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1620453568873544</v>
+        <v>0.162232598388779</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1463285363495369</v>
+        <v>0.1444007235454788</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.001979567699582076</v>
+        <v>-0.002036207116991989</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3739104674998469</v>
+        <v>0.3579534515381093</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1422114212773646</v>
+        <v>0.1413088836801394</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.00187342841337451</v>
+        <v>-0.001487471588026832</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5952012053051676</v>
+        <v>0.5998717032979184</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.1394300162365318</v>
+        <v>0.139756039425739</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001914807022185731</v>
+        <v>-0.001704991654260693</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06366133100904244</v>
+        <v>0.06366972989492568</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1453518155697079</v>
+        <v>0.1443892724359461</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001653291745292695</v>
+        <v>-0.001820381077643597</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1621710252871112</v>
+        <v>0.1624222784768135</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1471506067784669</v>
+        <v>0.1452119635653972</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001838360601870801</v>
+        <v>-0.001945831884075218</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3741361012231047</v>
+        <v>0.3570361504946745</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1430103618463386</v>
+        <v>0.1421027538131739</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001771416801991732</v>
+        <v>-0.001394287168432254</v>
       </c>
       <c r="P264" t="n">
-        <v>0.5963202417413634</v>
+        <v>0.6011074008646894</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1402133309344898</v>
+        <v>0.1405411857146476</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001811688933477484</v>
+        <v>-0.001604221196593541</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06352424965724825</v>
+        <v>0.06343838226099838</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1461638368857398</v>
+        <v>0.1451959164160352</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001653291745292695</v>
+        <v>-0.001820927246583784</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1623826021729146</v>
+        <v>0.1625715632270899</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1479726772073969</v>
+        <v>0.1460232035853156</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001838360601870801</v>
+        <v>-0.001945831884075218</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3744789454565735</v>
+        <v>0.3562442202827454</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1438093024153125</v>
+        <v>0.1428966239462084</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001771416801991732</v>
+        <v>-0.001394287168432254</v>
       </c>
       <c r="P265" t="n">
-        <v>0.5975682637368984</v>
+        <v>0.6022043706221734</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1409966456324478</v>
+        <v>0.1413263320035563</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001811688933477484</v>
+        <v>-0.001604221196593541</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06338463847316612</v>
+        <v>0.06320866654426267</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1469758582017717</v>
+        <v>0.1460025603961243</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001653291745292695</v>
+        <v>-0.001820745190270388</v>
       </c>
       <c r="J266" t="n">
-        <v>0.162552748349897</v>
+        <v>0.1628079509033068</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1487947476363269</v>
+        <v>0.1468344436052341</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001838360601870801</v>
+        <v>-0.001945831884075218</v>
       </c>
       <c r="M266" t="n">
-        <v>0.374833560911364</v>
+        <v>0.3552234923464704</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1446082429842865</v>
+        <v>0.1436904940792429</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001771416801991732</v>
+        <v>-0.001394287168432254</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5988580469340917</v>
+        <v>0.6034163249928406</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1417799603304059</v>
+        <v>0.1421114782924649</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001811688933477484</v>
+        <v>-0.001604221196593541</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.063233860141583</v>
+        <v>0.06296346190793529</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1477878795178036</v>
+        <v>0.1468092043762134</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001653291745292695</v>
+        <v>-0.001820927246583784</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1627451486796161</v>
+        <v>0.1629399463750215</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1496168180652569</v>
+        <v>0.1476456836251525</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001838360601870801</v>
+        <v>-0.001945831884075218</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3750417671162898</v>
+        <v>0.3541267171349904</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1454071835532604</v>
+        <v>0.1444843642122774</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001771416801991732</v>
+        <v>-0.001394287168432254</v>
       </c>
       <c r="P267" t="n">
-        <v>0.6001018600091481</v>
+        <v>0.6048275676510769</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1425632750283639</v>
+        <v>0.1428966245813736</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001811688933477484</v>
+        <v>-0.001604221196593541</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.06310700389310638</v>
+        <v>0.062729322163108</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1485999008338355</v>
+        <v>0.1476158483563024</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001536147885632223</v>
+        <v>-0.001675094483579763</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1629172559995702</v>
+        <v>0.1631377217591951</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1504388884941869</v>
+        <v>0.1484569236450709</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.001674827628523423</v>
+        <v>-0.00184233715635748</v>
       </c>
       <c r="M268" t="n">
-        <v>0.3753652873372675</v>
+        <v>0.3532061122368152</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1462061241222344</v>
+        <v>0.1452782343453119</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.0016781787143144</v>
+        <v>-0.001308049196767341</v>
       </c>
       <c r="P268" t="n">
-        <v>0.6016371590688456</v>
+        <v>0.6061804887088568</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.143346589726322</v>
+        <v>0.1436817708702822</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001705604453092397</v>
+        <v>-0.001513018154352934</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06293429650908271</v>
+        <v>0.06247180219612999</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1494119221498674</v>
+        <v>0.1484224923363915</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001536147885632223</v>
+        <v>-0.001675261976278851</v>
       </c>
       <c r="J269" t="n">
-        <v>0.163026385301713</v>
+        <v>0.1632734015351308</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1512609589231168</v>
+        <v>0.1492681636649894</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.001674827628523423</v>
+        <v>-0.00184233715635748</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3757510744488037</v>
+        <v>0.3521092860492002</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1470050646912084</v>
+        <v>0.1460721044783463</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.0016781787143144</v>
+        <v>-0.001308049196767341</v>
       </c>
       <c r="P269" t="n">
-        <v>0.6028654658110976</v>
+        <v>0.6076446348361134</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.14412990442428</v>
+        <v>0.1444669171591908</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001705604453092397</v>
+        <v>-0.001513018154352934</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06279440877198667</v>
+        <v>0.06221738292807746</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1502239434658993</v>
+        <v>0.1492291363164806</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001536147885632223</v>
+        <v>-0.001675094483579763</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1632642556565631</v>
+        <v>0.1634535035150706</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1520830293520468</v>
+        <v>0.1500794036849078</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.001674827628523423</v>
+        <v>-0.00184233715635748</v>
       </c>
       <c r="M270" t="n">
-        <v>0.376093351721368</v>
+        <v>0.3509878248059792</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1478040052601823</v>
+        <v>0.1468659746113808</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.0016781787143144</v>
+        <v>-0.001308049196767341</v>
       </c>
       <c r="P270" t="n">
-        <v>0.6044657984775115</v>
+        <v>0.6088752828657862</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1449132191222381</v>
+        <v>0.1452520634480995</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001705604453092397</v>
+        <v>-0.001513018154352934</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.06266120507566031</v>
+        <v>0.0619491372060038</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1510359647819312</v>
+        <v>0.1500357802965697</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001536147885632223</v>
+        <v>-0.001674926990880675</v>
       </c>
       <c r="J271" t="n">
-        <v>0.163375081366209</v>
+        <v>0.1636994433914142</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1529050997809768</v>
+        <v>0.1508906437048262</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.001674827628523423</v>
+        <v>-0.00184233715635748</v>
       </c>
       <c r="M271" t="n">
-        <v>0.3763387060946073</v>
+        <v>0.350042038290254</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1486029458291563</v>
+        <v>0.1476598447444153</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.0016781787143144</v>
+        <v>-0.001230327689682539</v>
       </c>
       <c r="P271" t="n">
-        <v>0.6057525658655472</v>
+        <v>0.6104718680127195</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1456965338201961</v>
+        <v>0.1460372097370081</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001705604453092397</v>
+        <v>-0.001513018154352934</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06248270629921331</v>
+        <v>0.06168472294940081</v>
       </c>
       <c r="G272" t="n">
-        <v>0.151847986097963</v>
+        <v>0.1508424242766588</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001412741821472559</v>
+        <v>-0.001519073154016972</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1636148096660344</v>
+        <v>0.1638616401353482</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1537271702099068</v>
+        <v>0.1517018837247446</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001492407184812393</v>
+        <v>-0.001727001857224263</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3768549760182277</v>
+        <v>0.3489217398628222</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1494018863981302</v>
+        <v>0.1484537148774498</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001594834847538341</v>
+        <v>-0.001230327689682539</v>
       </c>
       <c r="P272" t="n">
-        <v>0.6071499005107829</v>
+        <v>0.6118312709010172</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1464798485181542</v>
+        <v>0.1468223560259168</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.00159684494040272</v>
+        <v>-0.001433991189012448</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.0623458388363593</v>
+        <v>0.06141588387593233</v>
       </c>
       <c r="G273" t="n">
-        <v>0.152660007413995</v>
+        <v>0.1516490682567478</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001412741821472559</v>
+        <v>-0.001519225046143161</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1637913599265867</v>
+        <v>0.1640254251373732</v>
       </c>
       <c r="K273" t="n">
-        <v>0.1545492406388368</v>
+        <v>0.152513123744663</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001492407184812393</v>
+        <v>-0.001727001857224263</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3771676304772227</v>
+        <v>0.3476780309354031</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1502008269671042</v>
+        <v>0.1492475850104843</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001594834847538341</v>
+        <v>-0.001230327689682539</v>
       </c>
       <c r="P273" t="n">
-        <v>0.60882726738616</v>
+        <v>0.6134686032007309</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1472631632161122</v>
+        <v>0.1476075023148254</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.00159684494040272</v>
+        <v>-0.001433991189012448</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06218133774592943</v>
+        <v>0.06114301025118044</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1534720287300269</v>
+        <v>0.1524557122368369</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001412741821472559</v>
+        <v>-0.001518769369764594</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1639045494410127</v>
+        <v>0.1642550035191339</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1553713110677667</v>
+        <v>0.1533243637645814</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001492407184812393</v>
+        <v>-0.001727001857224263</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3775393013084253</v>
+        <v>0.3466098439658845</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1509997675360781</v>
+        <v>0.1500414551435188</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001594834847538341</v>
+        <v>-0.001230327689682539</v>
       </c>
       <c r="P274" t="n">
-        <v>0.6102671525207747</v>
+        <v>0.6146918115480955</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1480464779140702</v>
+        <v>0.1483926486037341</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.00159684494040272</v>
+        <v>-0.001433991189012448</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06204121783981888</v>
+        <v>0.06086649234072718</v>
       </c>
       <c r="G275" t="n">
-        <v>0.1542840500460587</v>
+        <v>0.153262356216926</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001412741821472559</v>
+        <v>-0.001355391440796536</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1640826564865309</v>
+        <v>0.1644004059133713</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1561933814966967</v>
+        <v>0.1541356037844999</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001492407184812393</v>
+        <v>-0.001727001857224263</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3778110694580165</v>
+        <v>0.3454188977750318</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1517987081050521</v>
+        <v>0.1508353252765533</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001594834847538341</v>
+        <v>-0.001230327689682539</v>
       </c>
       <c r="P275" t="n">
-        <v>0.6118963620474037</v>
+        <v>0.6164500029603756</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1488297926120283</v>
+        <v>0.1491777948926427</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.00159684494040272</v>
+        <v>-0.001367318878153953</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06186516822390151</v>
+        <v>0.06059520474025416</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1550960713620906</v>
+        <v>0.1540690001970151</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001282674627500512</v>
+        <v>-0.001355255928754864</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1643043892288751</v>
+        <v>0.1646330195920561</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1570154519256267</v>
+        <v>0.1549468438044183</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001294537676010165</v>
+        <v>-0.001600574272872891</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3782461573037312</v>
+        <v>0.3442050536083588</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1525976486740261</v>
+        <v>0.1516291954095878</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001522505898859384</v>
+        <v>-0.001160858014850288</v>
       </c>
       <c r="P276" t="n">
-        <v>0.6134540946824968</v>
+        <v>0.6178765383038437</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1496131073099863</v>
+        <v>0.1499629411815514</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001485701754780697</v>
+        <v>-0.001367318878153953</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06172225363517791</v>
+        <v>0.06032945291615799</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1559080926781225</v>
+        <v>0.1548756441771042</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001282674627500512</v>
+        <v>-0.001354984904671522</v>
       </c>
       <c r="J277" t="n">
-        <v>0.164484046568156</v>
+        <v>0.1648026681360337</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1578375223545567</v>
+        <v>0.1557580838243367</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001294537676010165</v>
+        <v>-0.001600574272872891</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3787385123377917</v>
+        <v>0.3428700630925736</v>
       </c>
       <c r="N277" t="n">
-        <v>0.153396589243</v>
+        <v>0.1524230655426223</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001522505898859384</v>
+        <v>-0.001160858014850288</v>
       </c>
       <c r="P277" t="n">
-        <v>0.61511014971974</v>
+        <v>0.6193157651427285</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.1503964220079444</v>
+        <v>0.15074808747046</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001485701754780697</v>
+        <v>-0.001367318878153953</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06155233782098558</v>
+        <v>0.06004425820078689</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1567201139941544</v>
+        <v>0.1556822881571933</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001282674627500512</v>
+        <v>-0.001355391440796536</v>
       </c>
       <c r="J278" t="n">
-        <v>0.1646858897657089</v>
+        <v>0.165016607926887</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1586595927834867</v>
+        <v>0.1565693238442551</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001294537676010165</v>
+        <v>-0.001600574272872891</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3791288746354023</v>
+        <v>0.3416116515745436</v>
       </c>
       <c r="N278" t="n">
-        <v>0.154195529811974</v>
+        <v>0.1532169356756568</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001522505898859384</v>
+        <v>-0.001160858014850288</v>
       </c>
       <c r="P278" t="n">
-        <v>0.6164290217379923</v>
+        <v>0.620940290990395</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1511797367059024</v>
+        <v>0.1515332337593686</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001485701754780697</v>
+        <v>-0.001367318878153953</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.06139849188220063</v>
+        <v>0.05974018198136612</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1575321353101863</v>
+        <v>0.1564889321372823</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001282674627500512</v>
+        <v>-0.001355255928754864</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1648240196830528</v>
+        <v>0.1651457963570798</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1594816632124167</v>
+        <v>0.1573805638641735</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.00108465750738919</v>
+        <v>-0.001600574272872891</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3795222220408578</v>
+        <v>0.3403313233820081</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1549944703809479</v>
+        <v>0.1540108058086913</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001522505898859384</v>
+        <v>-0.001160858014850288</v>
       </c>
       <c r="P279" t="n">
-        <v>0.6181873801521287</v>
+        <v>0.6225750016280369</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1519630514038605</v>
+        <v>0.1523183800482773</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001485701754780697</v>
+        <v>-0.001367318878153953</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.06123508915386955</v>
+        <v>0.05944289779831385</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1583441566262182</v>
+        <v>0.1572955761173715</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.00114976716570806</v>
+        <v>-0.00118821845680591</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1650057519910852</v>
+        <v>0.1653406954013009</v>
       </c>
       <c r="K280" t="n">
-        <v>0.1603037336413466</v>
+        <v>0.158191803884092</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.00108465750738919</v>
+        <v>-0.001464052176509775</v>
       </c>
       <c r="M280" t="n">
-        <v>0.3797589395907572</v>
+        <v>0.339029404089179</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1557934109499219</v>
+        <v>0.1548046759417257</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.00146231256547336</v>
+        <v>-0.001100996504795735</v>
       </c>
       <c r="P280" t="n">
-        <v>0.6198630696173218</v>
+        <v>0.623956153318963</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1527463661018185</v>
+        <v>0.1531035263371859</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001372466255598576</v>
+        <v>-0.001315089502677892</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.06106228952743517</v>
+        <v>0.05917773249495238</v>
       </c>
       <c r="G281" t="n">
-        <v>0.15915617794225</v>
+        <v>0.1581022200974605</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.00114976716570806</v>
+        <v>-0.001187980860633783</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1651881342517953</v>
+        <v>0.1656014224296279</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1611258040702766</v>
+        <v>0.1590030439040104</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.00108465750738919</v>
+        <v>-0.001464052176509775</v>
       </c>
       <c r="M281" t="n">
-        <v>0.380315186626639</v>
+        <v>0.3376574486483411</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1565923515188959</v>
+        <v>0.1555985460747602</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.00146231256547336</v>
+        <v>-0.001100996504795735</v>
       </c>
       <c r="P281" t="n">
-        <v>0.6213657653909016</v>
+        <v>0.6256936453783768</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1535296807997766</v>
+        <v>0.1538886726260946</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001372466255598576</v>
+        <v>-0.001315089502677892</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.06088876707842335</v>
+        <v>0.05886160927681211</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1599681992582819</v>
+        <v>0.1589088640775496</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.00114976716570806</v>
+        <v>-0.001187980860633783</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1654142168479311</v>
+        <v>0.1657770680216735</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1619478744992066</v>
+        <v>0.1598142839239288</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.00108465750738919</v>
+        <v>-0.001464052176509775</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3806073395647191</v>
+        <v>0.3363134582900373</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1573912920878698</v>
+        <v>0.1563924162077947</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.00146231256547336</v>
+        <v>-0.001100996504795735</v>
       </c>
       <c r="P282" t="n">
-        <v>0.6230409397112547</v>
+        <v>0.6269984185787747</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1543129954977346</v>
+        <v>0.1546738189150032</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001372466255598576</v>
+        <v>-0.001315089502677892</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.06072313001441457</v>
+        <v>0.05857826927825648</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1607802205743138</v>
+        <v>0.1597155080576387</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.001048754749212201</v>
+        <v>-0.00106260293621388</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1655547532481449</v>
+        <v>0.1659537186943228</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1627699449281366</v>
+        <v>0.1606255239438472</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.000921433801089119</v>
+        <v>-0.001356134978553073</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3810058338310391</v>
+        <v>0.3349973553510482</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1581902326568438</v>
+        <v>0.1571862863408292</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.001425805732376694</v>
+        <v>-0.001062390458122256</v>
       </c>
       <c r="P283" t="n">
-        <v>0.6244495976577108</v>
+        <v>0.6286573504978382</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1550963101956926</v>
+        <v>0.1554589652039119</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001286341821310539</v>
+        <v>-0.001286599089674801</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.06057392003024356</v>
+        <v>0.05827823211113169</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1615922418903457</v>
+        <v>0.1605221520377278</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001048754749212201</v>
+        <v>-0.001062390458122256</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1657173683980031</v>
+        <v>0.1661745466813072</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1635920153570666</v>
+        <v>0.1614367639637656</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.000921433801089119</v>
+        <v>-0.001356134978553073</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3814039563437238</v>
+        <v>0.3337090498646427</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1589891732258177</v>
+        <v>0.1579801564738637</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.001425805732376694</v>
+        <v>-0.001062390458122256</v>
       </c>
       <c r="P284" t="n">
-        <v>0.6259380077596401</v>
+        <v>0.6303186752688189</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1558796248936507</v>
+        <v>0.1562441114928205</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001286341821310539</v>
+        <v>-0.001286599089674801</v>
       </c>
     </row>
   </sheetData>

--- a/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1068.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Трехосные_КД_ПП/1068.xlsx
@@ -7564,7 +7564,7 @@
         <v>0.09000000000000002</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0007777844712126107</v>
+        <v>0.0006707499109539946</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.0006832872924671534</v>
+        <v>0.0006897333989998625</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -7591,28 +7591,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0342178272234934</v>
+        <v>0.03410915086766102</v>
       </c>
       <c r="G87" t="n">
-        <v>0.001613287960178169</v>
+        <v>0.001591475667903134</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0605431669485344</v>
+        <v>0.0588153553141602</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001622480039836841</v>
+        <v>0.001572190588202732</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.161177962040253</v>
+        <v>0.1858150425527252</v>
       </c>
       <c r="N87" t="n">
-        <v>0.001587740266068982</v>
+        <v>0.001831559983187197</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7621,7 +7621,7 @@
         <v>0.2920167974254464</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001759308826145863</v>
+        <v>0.001775906079222711</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -7643,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03586929997445092</v>
+        <v>0.03566054167886901</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002419931940267253</v>
+        <v>0.002387213501854701</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.002011784522967699</v>
+        <v>-0.002873374183936041</v>
       </c>
       <c r="J88" t="n">
         <v>0.07961328768000402</v>
@@ -7658,25 +7658,25 @@
         <v>0.002566100070163902</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.001362064830568399</v>
+        <v>-0.0008391664521446965</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1858150425527252</v>
+        <v>0.1919398211369535</v>
       </c>
       <c r="N88" t="n">
-        <v>0.00212383019327026</v>
+        <v>0.002357436925660132</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.003082818929719582</v>
+        <v>-0.003173063463092081</v>
       </c>
       <c r="P88" t="n">
-        <v>0.3037294170286443</v>
+        <v>0.3037309685911376</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.002355438866725937</v>
+        <v>0.002377501368846352</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.003856637103119873</v>
+        <v>-0.002589707365693117</v>
       </c>
     </row>
     <row r="89">
@@ -7697,40 +7697,40 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0373811331656284</v>
+        <v>0.03708141666230272</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003226575920356337</v>
+        <v>0.003182951335806268</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.002011583384743048</v>
+        <v>-0.00287308690397364</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08301354011811389</v>
+        <v>0.08283873976861976</v>
       </c>
       <c r="K89" t="n">
-        <v>0.003244960079673681</v>
+        <v>0.003144381176405465</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.001362064830568399</v>
+        <v>-0.0008391664521446965</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1998205819628306</v>
+        <v>0.200495040145775</v>
       </c>
       <c r="N89" t="n">
-        <v>0.003175480532137964</v>
+        <v>0.003143249234213509</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.003082818929719582</v>
+        <v>-0.003173063463092081</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3178342355403617</v>
+        <v>0.3183632660106641</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.003140585155634583</v>
+        <v>0.00317000182512847</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.003856637103119873</v>
+        <v>-0.002589707365693117</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -7743,40 +7743,40 @@
         <v/>
       </c>
       <c r="F90" t="n">
-        <v>0.03873146506033741</v>
+        <v>0.03836099519092903</v>
       </c>
       <c r="G90" t="n">
-        <v>0.004033219900445422</v>
+        <v>0.003978689169757835</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.002011382246518396</v>
+        <v>-0.00287308690397364</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08674881072389047</v>
+        <v>0.0869129399383488</v>
       </c>
       <c r="K90" t="n">
-        <v>0.004056200099592101</v>
+        <v>0.003930476470506831</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.001362064830568399</v>
+        <v>-0.0008391664521446965</v>
       </c>
       <c r="M90" t="n">
-        <v>0.20954018402238</v>
+        <v>0.2083661889826868</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003969350665172455</v>
+        <v>0.003929061542766886</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.003082818929719582</v>
+        <v>-0.003173063463092081</v>
       </c>
       <c r="P90" t="n">
-        <v>0.3311819436017981</v>
+        <v>0.3316971731321939</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.003925731444543229</v>
+        <v>0.003962502281410587</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.003856637103119873</v>
+        <v>-0.002589707365693117</v>
       </c>
     </row>
     <row r="91">
@@ -7786,40 +7786,40 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.03996002395977248</v>
+        <v>0.03953166800475411</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004839863880534506</v>
+        <v>0.004774427003709402</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.002011382246518396</v>
+        <v>-0.002872512344048838</v>
       </c>
       <c r="J91" t="n">
-        <v>0.09017522699796647</v>
+        <v>0.09068328590847037</v>
       </c>
       <c r="K91" t="n">
-        <v>0.004867440119510522</v>
+        <v>0.004716571764608197</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.001362064830568399</v>
+        <v>-0.0008391664521446965</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2183992204046415</v>
+        <v>0.2156248965899633</v>
       </c>
       <c r="N91" t="n">
-        <v>0.004763220798206946</v>
+        <v>0.004714873851320263</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.003082818929719582</v>
+        <v>-0.003173063463092081</v>
       </c>
       <c r="P91" t="n">
-        <v>0.3433142265556293</v>
+        <v>0.3438362544029089</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004710877733451874</v>
+        <v>0.004755002737692704</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.003856637103119873</v>
+        <v>-0.002589707365693117</v>
       </c>
     </row>
     <row r="92">
@@ -7831,40 +7831,40 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04105673072748926</v>
+        <v>0.04057578713678445</v>
       </c>
       <c r="G92" t="n">
-        <v>0.00564650786062359</v>
+        <v>0.005570164837660969</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.002418510036599888</v>
+        <v>-0.003232181862164955</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09335018229743609</v>
+        <v>0.09416423266676945</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005678680139428943</v>
+        <v>0.005502667058709564</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.001494847308836823</v>
+        <v>-0.0009890225501698825</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2265784228957147</v>
+        <v>0.2222709958860914</v>
       </c>
       <c r="N92" t="n">
-        <v>0.005557090931241437</v>
+        <v>0.00550068615987364</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.002921568988265485</v>
+        <v>-0.003694529996739657</v>
       </c>
       <c r="P92" t="n">
-        <v>0.3544542389741014</v>
+        <v>0.355011485771454</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.005496024022360521</v>
+        <v>0.005547503193974822</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.003833184906891357</v>
+        <v>-0.003119332414533374</v>
       </c>
     </row>
     <row r="93">
@@ -7877,154 +7877,154 @@
         <v/>
       </c>
       <c r="F93" t="n">
-        <v>0.04203669553263878</v>
+        <v>0.04152667780996115</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006453151840712675</v>
+        <v>0.006365902671612536</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.002418026382957932</v>
+        <v>-0.003231858676297325</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09627620557300161</v>
+        <v>0.09734076704762125</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006489920159347362</v>
+        <v>0.00628876235281093</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.001494847308836823</v>
+        <v>-0.0009890225501698825</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2341181580423342</v>
+        <v>0.2283015607300614</v>
       </c>
       <c r="N93" t="n">
-        <v>0.006350961064275928</v>
+        <v>0.006286498468427017</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.002921568988265485</v>
+        <v>-0.003694529996739657</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3646547681220688</v>
+        <v>0.3654673260727554</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.006281170311269167</v>
+        <v>0.00634000365025694</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.003833184906891357</v>
+        <v>-0.003119332414533374</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="n">
-        <v>0.04290201687809399</v>
+        <v>0.04237917140253285</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007259795820801758</v>
+        <v>0.007161640505564104</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.002418026382957932</v>
+        <v>-0.003232181862164955</v>
       </c>
       <c r="J94" t="n">
-        <v>0.09895445023183332</v>
+        <v>0.1002706627916311</v>
       </c>
       <c r="K94" t="n">
-        <v>0.007301160179265783</v>
+        <v>0.007074857646912296</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.001494847308836823</v>
+        <v>-0.0009890225501698825</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2408629422738667</v>
+        <v>0.233673113632735</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007144831197310419</v>
+        <v>0.007072310776980395</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.002921568988265485</v>
+        <v>-0.003694529996739657</v>
       </c>
       <c r="P94" t="n">
-        <v>0.3738438324978856</v>
+        <v>0.3747717026347437</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.007066316600177812</v>
+        <v>0.007132504106539057</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.003833184906891357</v>
+        <v>-0.003119332414533374</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="n">
-        <v>0.04366806739351529</v>
+        <v>0.04313412014242235</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008066439800890843</v>
+        <v>0.00795737833951567</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.002418026382957932</v>
+        <v>-0.003232505048032585</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1013546837594243</v>
+        <v>0.1029846306224553</v>
       </c>
       <c r="K95" t="n">
-        <v>0.008112400199184203</v>
+        <v>0.007860952941013662</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.001494847308836823</v>
+        <v>-0.0009890225501698825</v>
       </c>
       <c r="M95" t="n">
-        <v>0.2472004384555241</v>
+        <v>0.2386883343860584</v>
       </c>
       <c r="N95" t="n">
-        <v>0.007938701330344911</v>
+        <v>0.007858123085533773</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.002921568988265485</v>
+        <v>-0.003694529996739657</v>
       </c>
       <c r="P95" t="n">
-        <v>0.3824485256659044</v>
+        <v>0.3833497456187179</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.007851462889086459</v>
+        <v>0.007925004562821174</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.003833184906891357</v>
+        <v>-0.003119332414533374</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="n">
-        <v>0.04435740673589328</v>
+        <v>0.04379211071837744</v>
       </c>
       <c r="G96" t="n">
-        <v>0.008873083780979929</v>
+        <v>0.008753116173467237</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.002681773067848594</v>
+        <v>-0.003460600376479619</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1035976070763403</v>
+        <v>0.1054831273374373</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008923640219102623</v>
+        <v>0.008647048235115029</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.00162505398933506</v>
+        <v>-0.001301881501956292</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2529358960061311</v>
+        <v>0.243270172776881</v>
       </c>
       <c r="N96" t="n">
-        <v>0.008732571463379401</v>
+        <v>0.008643935394087148</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.00262738123232865</v>
+        <v>-0.004077394435884595</v>
       </c>
       <c r="P96" t="n">
-        <v>0.3899553227940623</v>
+        <v>0.3910702380490588</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.008636609177995103</v>
+        <v>0.008717505019103292</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.003793606667094634</v>
+        <v>-0.003515238056157818</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -8038,7160 +8038,7160 @@
         <v/>
       </c>
       <c r="F97" t="n">
-        <v>0.0449653919826084</v>
+        <v>0.04438099437873116</v>
       </c>
       <c r="G97" t="n">
-        <v>0.009679727761069012</v>
+        <v>0.009548854007418804</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.002682041245155379</v>
+        <v>-0.003460254316441971</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1056076496976999</v>
+        <v>0.1077023623809203</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009734880239021044</v>
+        <v>0.009433143529216394</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.00162505398933506</v>
+        <v>-0.001301881501956292</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2581053503500548</v>
+        <v>0.2473356063725259</v>
       </c>
       <c r="N97" t="n">
-        <v>0.009526441596413892</v>
+        <v>0.009429747702640526</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.00262738123232865</v>
+        <v>-0.004077394435884595</v>
       </c>
       <c r="P97" t="n">
-        <v>0.3971177973059669</v>
+        <v>0.3979870544166135</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009421755466903749</v>
+        <v>0.009510005475385408</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.003793606667094634</v>
+        <v>-0.003515238056157818</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04549383961620462</v>
+        <v>0.04492242090844324</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0104863717411581</v>
+        <v>0.01034459184137037</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.002682309422462163</v>
+        <v>-0.003461292496554915</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1074145955356614</v>
+        <v>0.1097500590724279</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01054612025893946</v>
+        <v>0.01021923882331776</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.00162505398933506</v>
+        <v>-0.001301881501956292</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2626626194239284</v>
+        <v>0.2509573582357401</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01032031172944838</v>
+        <v>0.0102155600111939</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.00262738123232865</v>
+        <v>-0.004077394435884595</v>
       </c>
       <c r="P98" t="n">
-        <v>0.4032167344554195</v>
+        <v>0.4042853452016124</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.0102069017558124</v>
+        <v>0.01030250593166753</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.003793606667094634</v>
+        <v>-0.003515238056157818</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0459514030957366</v>
+        <v>0.04538266682814475</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01129301572124718</v>
+        <v>0.01114032967532194</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.002682309422462163</v>
+        <v>-0.003599193815901839</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1090809203764488</v>
+        <v>0.1116257400598496</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01135736027885789</v>
+        <v>0.01100533411741913</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.00162505398933506</v>
+        <v>-0.001301881501956292</v>
       </c>
       <c r="M99" t="n">
-        <v>0.2670170497599225</v>
+        <v>0.2542503596751283</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01111418186248287</v>
+        <v>0.01100137231974728</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.00262738123232865</v>
+        <v>-0.004077394435884595</v>
       </c>
       <c r="P99" t="n">
-        <v>0.4090189858520332</v>
+        <v>0.4098252281310798</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01099204804472104</v>
+        <v>0.01109500638794964</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.003793606667094634</v>
+        <v>-0.003515238056157818</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04636089281509946</v>
+        <v>0.04580396570638537</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01209965970133627</v>
+        <v>0.01193606750927351</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.002846665970861584</v>
+        <v>-0.003599193815901839</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1105585953894261</v>
+        <v>0.1132953745668201</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01216860029877631</v>
+        <v>0.01179142941152049</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.001758278042438401</v>
+        <v>-0.001705370868956319</v>
       </c>
       <c r="M100" t="n">
-        <v>0.2707509706944057</v>
+        <v>0.2572099586906864</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01190805199551737</v>
+        <v>0.01178718462830066</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.002272316495928076</v>
+        <v>-0.004342889244067276</v>
       </c>
       <c r="P100" t="n">
-        <v>0.4140542599794333</v>
+        <v>0.4150588281108062</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01177719433362969</v>
+        <v>0.01188750684423176</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.003745820247010091</v>
+        <v>-0.003794575807592541</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04673124445167778</v>
+        <v>0.0461660040529888</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01290630368142535</v>
+        <v>0.01273180534322507</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.002846950608994857</v>
+        <v>-0.003599913726656094</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1118943989023348</v>
+        <v>0.114838379754192</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01297984031869472</v>
+        <v>0.01257752470562186</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.001758278042438401</v>
+        <v>-0.001705370868956319</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2741937182644243</v>
+        <v>0.2598302458733365</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01270192212855186</v>
+        <v>0.01257299693685403</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.002272316495928076</v>
+        <v>-0.004342889244067276</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4185714838457928</v>
+        <v>0.4195794426416146</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01256234062253833</v>
+        <v>0.01268000730051388</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.003745820247010091</v>
+        <v>-0.003794575807592541</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04705710951757094</v>
+        <v>0.04650448632313475</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01371294766151443</v>
+        <v>0.01352754317717664</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.002846665970861584</v>
+        <v>-0.003599913726656094</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1131199338486037</v>
+        <v>0.116186979832132</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01379108033861315</v>
+        <v>0.01336361999972323</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.001758278042438401</v>
+        <v>-0.001705370868956319</v>
       </c>
       <c r="M102" t="n">
-        <v>0.2773852711498593</v>
+        <v>0.2622280211102395</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01349579226158635</v>
+        <v>0.01335880924540741</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.002272316495928076</v>
+        <v>-0.004342889244067276</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4228254061689093</v>
+        <v>0.4238434848494969</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01334748691144698</v>
+        <v>0.013472507756796</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.003745820247010091</v>
+        <v>-0.003794575807592541</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04734004342048383</v>
+        <v>0.04680590543551023</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01451959164160352</v>
+        <v>0.01432328101112821</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.002846950608994857</v>
+        <v>-0.003599193815901839</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1142836679716234</v>
+        <v>0.117471680040787</v>
       </c>
       <c r="K103" t="n">
-        <v>0.01460232035853157</v>
+        <v>0.01414971529382459</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.001758278042438401</v>
+        <v>-0.001705370868956319</v>
       </c>
       <c r="M103" t="n">
-        <v>0.2801071549142472</v>
+        <v>0.2643561978219587</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01428966239462084</v>
+        <v>0.01414462155396079</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.002272316495928076</v>
+        <v>-0.004342889244067276</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4264663847148835</v>
+        <v>0.4275041584541691</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01413263320035562</v>
+        <v>0.01426500821307811</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.003745820247010091</v>
+        <v>-0.003794575807592541</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04761743877996671</v>
+        <v>0.04709205253728667</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0153262356216926</v>
+        <v>0.01511901884507977</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.002957370010374508</v>
+        <v>-0.003691484336732327</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1152695508480382</v>
+        <v>0.1186240707978897</v>
       </c>
       <c r="K104" t="n">
-        <v>0.01541356037844999</v>
+        <v>0.01493581058792596</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.001897972198115732</v>
+        <v>-0.002127029252999711</v>
       </c>
       <c r="M104" t="n">
-        <v>0.2827401856255283</v>
+        <v>0.266332527991728</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01508353252765533</v>
+        <v>0.01493043386251417</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.001930546101797184</v>
+        <v>-0.004509424457886103</v>
       </c>
       <c r="P104" t="n">
-        <v>0.4298158874671026</v>
+        <v>0.4308867241982646</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01491777948926427</v>
+        <v>0.01505750866936023</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.003699627424609912</v>
+        <v>-0.003976219661104356</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04787663529256506</v>
+        <v>0.04734198800373293</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01613287960178169</v>
+        <v>0.01591475667903134</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.002956482976778115</v>
+        <v>-0.003691115188298654</v>
       </c>
       <c r="J105" t="n">
-        <v>0.116191075706208</v>
+        <v>0.1196582316909183</v>
       </c>
       <c r="K105" t="n">
-        <v>0.01622480039836841</v>
+        <v>0.01572190588202732</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.001897972198115732</v>
+        <v>-0.002127029252999711</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2849337188571193</v>
+        <v>0.2682344939538618</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01587740266068982</v>
+        <v>0.01571624617106755</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.001930546101797184</v>
+        <v>-0.004509424457886103</v>
       </c>
       <c r="P105" t="n">
-        <v>0.4328594153220429</v>
+        <v>0.4338432190608676</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01570292577817292</v>
+        <v>0.01585000912564235</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.003699627424609912</v>
+        <v>-0.003976219661104356</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04815532324022503</v>
+        <v>0.04761338848552193</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01693952358187077</v>
+        <v>0.01671049451298291</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.002957074332509044</v>
+        <v>-0.003692222633599674</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1170972126245466</v>
+        <v>0.1205883060762174</v>
       </c>
       <c r="K106" t="n">
-        <v>0.01703604041828683</v>
+        <v>0.01650800117612869</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.001897972198115732</v>
+        <v>-0.002127029252999711</v>
       </c>
       <c r="M106" t="n">
-        <v>0.2870720338426376</v>
+        <v>0.2698462467050357</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01667127279372431</v>
+        <v>0.01650205847962092</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.001930546101797184</v>
+        <v>-0.004509424457886103</v>
       </c>
       <c r="P106" t="n">
-        <v>0.4356497449892162</v>
+        <v>0.4368401801835499</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01648807206708156</v>
+        <v>0.01664250958192447</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.003699627424609912</v>
+        <v>-0.003976219661104356</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04843348867640142</v>
+        <v>0.04785649692388096</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01774616756195986</v>
+        <v>0.01750623234693447</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.002956482976778115</v>
+        <v>-0.003691115188298654</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1179368056703193</v>
+        <v>0.1214799203162573</v>
       </c>
       <c r="K107" t="n">
-        <v>0.01784728043820525</v>
+        <v>0.01729409647023006</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.001897972198115732</v>
+        <v>-0.002127029252999711</v>
       </c>
       <c r="M107" t="n">
-        <v>0.2891071468600049</v>
+        <v>0.2714537684515501</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0174651429267588</v>
+        <v>0.0172878707881743</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.001930546101797184</v>
+        <v>-0.004509424457886103</v>
       </c>
       <c r="P107" t="n">
-        <v>0.4381708292128165</v>
+        <v>0.4394545053250848</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.01727321835599021</v>
+        <v>0.01743501003820658</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.003699627424609912</v>
+        <v>-0.003976219661104356</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04870527449915509</v>
+        <v>0.04812203797514074</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01855281154204894</v>
+        <v>0.01830197018088604</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.003057650683819915</v>
+        <v>-0.003777357846823543</v>
       </c>
       <c r="J108" t="n">
-        <v>0.118691107712106</v>
+        <v>0.1222963580241373</v>
       </c>
       <c r="K108" t="n">
-        <v>0.01865852045812367</v>
+        <v>0.01808019176433142</v>
       </c>
       <c r="L108" t="n">
-        <v>-0.002050258137501994</v>
+        <v>-0.002493467721270504</v>
       </c>
       <c r="M108" t="n">
-        <v>0.2910775242227743</v>
+        <v>0.2730930974184229</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01825901305979329</v>
+        <v>0.01807368309672767</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.001671983612275786</v>
+        <v>-0.004599359160310542</v>
       </c>
       <c r="P108" t="n">
-        <v>0.4407509847899695</v>
+        <v>0.4420860033345531</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01805836464489885</v>
+        <v>0.0182275104944887</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.003661850042465256</v>
+        <v>-0.004076448037003073</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04902317879681248</v>
+        <v>0.04840325860337831</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01935945552213802</v>
+        <v>0.01909770801483761</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.003058262213956679</v>
+        <v>-0.003777735544838424</v>
       </c>
       <c r="J109" t="n">
-        <v>0.119493294397543</v>
+        <v>0.1230172209552152</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01946976047804209</v>
+        <v>0.01886628705843279</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.002050258137501994</v>
+        <v>-0.002493467721270504</v>
       </c>
       <c r="M109" t="n">
-        <v>0.2928001893599219</v>
+        <v>0.2745454697317392</v>
       </c>
       <c r="N109" t="n">
-        <v>0.01905288319282778</v>
+        <v>0.01885949540528105</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.001671983612275786</v>
+        <v>-0.004599359160310542</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4429600090280582</v>
+        <v>0.4444451251204802</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.0188435109338075</v>
+        <v>0.01902001095077082</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.003661850042465256</v>
+        <v>-0.004076448037003073</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04935213929537766</v>
+        <v>0.0487004796085892</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02016609950222711</v>
+        <v>0.01989344584878917</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.003057344918751533</v>
+        <v>-0.003777735544838424</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1202403816586225</v>
+        <v>0.1237605617873683</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02028100049796051</v>
+        <v>0.01965238235253416</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.002050258137501994</v>
+        <v>-0.002493467721270504</v>
       </c>
       <c r="M110" t="n">
-        <v>0.294533183553379</v>
+        <v>0.2762276251874025</v>
       </c>
       <c r="N110" t="n">
-        <v>0.01984675332586228</v>
+        <v>0.01964530771383443</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.001671983612275786</v>
+        <v>-0.004599359160310542</v>
       </c>
       <c r="P110" t="n">
-        <v>0.4453346159704793</v>
+        <v>0.4470737150547843</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01962865722271614</v>
+        <v>0.01981251140705293</v>
       </c>
       <c r="R110" t="n">
-        <v>-0.003661850042465256</v>
+        <v>-0.004076448037003073</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04973762922639717</v>
+        <v>0.04905786239942771</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02097274348231619</v>
+        <v>0.02068918368274074</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.003057344918751533</v>
+        <v>-0.003777357846823543</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1210153278344344</v>
+        <v>0.1244891526010595</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02109224051787893</v>
+        <v>0.02043847764663552</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.002050258137501994</v>
+        <v>-0.002493467721270504</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2963149517217507</v>
+        <v>0.2778348168514952</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02064062345889677</v>
+        <v>0.02043112002238781</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.00156978140633192</v>
+        <v>-0.004599359160310542</v>
       </c>
       <c r="P111" t="n">
-        <v>0.4475808402809635</v>
+        <v>0.4494713463068701</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.02041380351162479</v>
+        <v>0.02060501186333505</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.003643373706886674</v>
+        <v>-0.004076448037003073</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05016597355792964</v>
+        <v>0.04941716182136299</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02177938746240527</v>
+        <v>0.02148492151669231</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.003190166475744738</v>
+        <v>-0.003901525080241733</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1217820785405972</v>
+        <v>0.1252524910419534</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02190348053779735</v>
+        <v>0.02122457294073689</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.002217989500899913</v>
+        <v>-0.002734164672369009</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2981391155058046</v>
+        <v>0.2794436095031946</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02143449359193126</v>
+        <v>0.02121693233094118</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.00156978140633192</v>
+        <v>-0.004631986516311856</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4500300567818207</v>
+        <v>0.4521826184859056</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.02119894980053344</v>
+        <v>0.02139751231961717</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.003643373706886674</v>
+        <v>-0.004114695779518339</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05061288920572141</v>
+        <v>0.04985208170109355</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02258603144249436</v>
+        <v>0.02228065935064388</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.003189847490995639</v>
+        <v>-0.003901135005748607</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1226762289098112</v>
+        <v>0.1259598867816785</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02271472055771577</v>
+        <v>0.02201066823483826</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.002217989500899913</v>
+        <v>-0.002734164672369009</v>
       </c>
       <c r="M113" t="n">
-        <v>0.300088585423787</v>
+        <v>0.2812173682824236</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02222836372496575</v>
+        <v>0.02200274463949456</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.00156978140633192</v>
+        <v>-0.004631986516311856</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4526662521503609</v>
+        <v>0.4551251501879487</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.02198409608944208</v>
+        <v>0.02219001277589929</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.003643373706886674</v>
+        <v>-0.004114695779518339</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05104148460133721</v>
+        <v>0.05032604079419177</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02339267542258345</v>
+        <v>0.02307639718459545</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.003190166475744738</v>
+        <v>-0.003901525080241733</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1235199103054477</v>
+        <v>0.1267638378627012</v>
       </c>
       <c r="K114" t="n">
-        <v>0.02352596057763419</v>
+        <v>0.02279676352893962</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.002217989500899913</v>
+        <v>-0.002734164672369009</v>
       </c>
       <c r="M114" t="n">
-        <v>0.3020298412354769</v>
+        <v>0.2832349915925809</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02302223385800024</v>
+        <v>0.02278855694804794</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.00156978140633192</v>
+        <v>-0.004631986516311856</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4551198749777166</v>
+        <v>0.4581436898765149</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.02276924237835073</v>
+        <v>0.02298251323218141</v>
       </c>
       <c r="R114" t="n">
-        <v>-0.003643373706886674</v>
+        <v>-0.004114695779518339</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="52" t="n"/>
       <c r="B115" s="52" t="n"/>
       <c r="F115" t="n">
-        <v>0.05145871149911042</v>
+        <v>0.05081948048254763</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02419931940267253</v>
+        <v>0.02387213501854701</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.003189847490995639</v>
+        <v>-0.003901135005748607</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1244482014413992</v>
+        <v>0.127477158897507</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02433720059755261</v>
+        <v>0.02358285882304099</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.002217989500899913</v>
+        <v>-0.002734164672369009</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3038925211871489</v>
+        <v>0.2854208498574367</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02381610399103473</v>
+        <v>0.02357436925660131</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.00156978140633192</v>
+        <v>-0.004631986516311856</v>
       </c>
       <c r="P115" t="n">
-        <v>0.457902947402851</v>
+        <v>0.4610415965555994</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.02355438866725938</v>
+        <v>0.02377501368846352</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.003643373706886674</v>
+        <v>-0.004114695779518339</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05188692007408321</v>
+        <v>0.05134472748628038</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02500596338276161</v>
+        <v>0.02466787285249858</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.003330130367961173</v>
+        <v>-0.004083380972103926</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1253164456132558</v>
+        <v>0.1281700774506012</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02514844061747103</v>
+        <v>0.02436895411714235</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.002432370779821732</v>
+        <v>-0.00287725427560619</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3057666280876425</v>
+        <v>0.2874892653366015</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02460997412406922</v>
+        <v>0.02436018156515469</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.001634540813171518</v>
+        <v>-0.004619174549241254</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4605924997394121</v>
+        <v>0.4641562362993907</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.02433953495616802</v>
+        <v>0.02456751414474564</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.00364308580968692</v>
+        <v>-0.004086043025970226</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05230303641664556</v>
+        <v>0.05189985560314639</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0258126073628507</v>
+        <v>0.02546361068645014</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.003331129506985464</v>
+        <v>-0.004082972634006716</v>
       </c>
       <c r="J117" t="n">
-        <v>0.126142362834179</v>
+        <v>0.1288608965547843</v>
       </c>
       <c r="K117" t="n">
-        <v>0.02595968063738945</v>
+        <v>0.02515504941124372</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.002432370779821732</v>
+        <v>-0.00287725427560619</v>
       </c>
       <c r="M117" t="n">
-        <v>0.3076063618121898</v>
+        <v>0.2893871015129615</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02540384425710371</v>
+        <v>0.02514599387370807</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.001634540813171518</v>
+        <v>-0.004619174549241254</v>
       </c>
       <c r="P117" t="n">
-        <v>0.4631205231604471</v>
+        <v>0.467277249771854</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.02512468124507667</v>
+        <v>0.02536001460102776</v>
       </c>
       <c r="R117" t="n">
-        <v>-0.00364308580968692</v>
+        <v>-0.004086043025970226</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="82" t="n"/>
       <c r="F118" t="n">
-        <v>0.05269887840626333</v>
+        <v>0.05243761513374812</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02661925134293978</v>
+        <v>0.02625934852040171</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.003330463414302603</v>
+        <v>-0.004084197648298347</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1269971187823009</v>
+        <v>0.1295502344042246</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02677092065730787</v>
+        <v>0.02594114470534509</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.002432370779821732</v>
+        <v>-0.00287725427560619</v>
       </c>
       <c r="M118" t="n">
-        <v>0.3094570709272389</v>
+        <v>0.2914215862186866</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0261977143901382</v>
+        <v>0.02593180618226145</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.001634540813171518</v>
+        <v>-0.004619174549241254</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4654895829808624</v>
+        <v>0.4699746114179636</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.02590982753398531</v>
+        <v>0.02615251505730988</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.00364308580968692</v>
+        <v>-0.004086043025970226</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05310478485429515</v>
+        <v>0.05297895431394929</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02742589532302887</v>
+        <v>0.02705508635435328</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.003331129506985464</v>
+        <v>-0.004082972634006716</v>
       </c>
       <c r="J119" t="n">
-        <v>0.127757633264152</v>
+        <v>0.1302206791503605</v>
       </c>
       <c r="K119" t="n">
-        <v>0.02758216067722629</v>
+        <v>0.02672723999944646</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002432370779821732</v>
+        <v>-0.003014378810654459</v>
       </c>
       <c r="M119" t="n">
-        <v>0.3112264438152484</v>
+        <v>0.2933290966444139</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0269915845231727</v>
+        <v>0.02671761849081482</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.001634540813171518</v>
+        <v>-0.004619174549241254</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4679894346405629</v>
+        <v>0.4728957636459512</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.02669497382289396</v>
+        <v>0.02694501551359199</v>
       </c>
       <c r="R119" t="n">
-        <v>-0.00364308580968692</v>
+        <v>-0.004086043025970226</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="82" t="n"/>
       <c r="F120" t="n">
-        <v>0.05350508527015867</v>
+        <v>0.05352214126447995</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02823253930311795</v>
+        <v>0.02785082418830484</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.003469027508163321</v>
+        <v>-0.004285158242619972</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1285664161915695</v>
+        <v>0.1308183905995579</v>
       </c>
       <c r="K120" t="n">
-        <v>0.02839340069714471</v>
+        <v>0.02751333529354782</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.002721029221956352</v>
+        <v>-0.003014378810654459</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3129133525237076</v>
+        <v>0.2953311407904315</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02778545465620719</v>
+        <v>0.0275034307993682</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.00181037162163213</v>
+        <v>-0.004553892529103787</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4701213893445443</v>
+        <v>0.4758275503187623</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.02748012011180261</v>
+        <v>0.02773751596987411</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.003644320955599402</v>
+        <v>-0.003963538752252893</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="82" t="n"/>
       <c r="F121" t="n">
-        <v>0.0539150489248654</v>
+        <v>0.05404195474183482</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02903918328320703</v>
+        <v>0.02864656202225642</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.003469721313664954</v>
+        <v>-0.004284729769643007</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1292636553688484</v>
+        <v>0.1314702240038222</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02920464071706313</v>
+        <v>0.02829943058764918</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.002721029221956352</v>
+        <v>-0.003014378810654459</v>
       </c>
       <c r="M121" t="n">
-        <v>0.3147025533555729</v>
+        <v>0.2972058609618063</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02857932478924168</v>
+        <v>0.02828924310792158</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.00181037162163213</v>
+        <v>-0.004553892529103787</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4723917102060121</v>
+        <v>0.4783348740078291</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.02826526640071125</v>
+        <v>0.02853001642615623</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.003644320955599402</v>
+        <v>-0.003963538752252893</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05430312949999327</v>
+        <v>0.05458347912165323</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02984582726329612</v>
+        <v>0.02944229985620798</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.003469721313664954</v>
+        <v>-0.004285158242619972</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1299928793429984</v>
+        <v>0.1320498961490237</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03001588073698155</v>
+        <v>0.02908552588175055</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.002721029221956352</v>
+        <v>-0.003014378810654459</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3163617959060481</v>
+        <v>0.2989521566409041</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02937319492227617</v>
+        <v>0.02907505541647495</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.00181037162163213</v>
+        <v>-0.004553892529103787</v>
       </c>
       <c r="P122" t="n">
-        <v>0.4743710115089101</v>
+        <v>0.4809997073240302</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.0290504126896199</v>
+        <v>0.02932251688243835</v>
       </c>
       <c r="R122" t="n">
-        <v>-0.003644320955599402</v>
+        <v>-0.003963538752252893</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05467662484767223</v>
+        <v>0.05512959440721681</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0306524712433852</v>
+        <v>0.03023803769015955</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.003469374410914137</v>
+        <v>-0.004284301296666043</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1307011555722962</v>
+        <v>0.1326485912107042</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03082712075689997</v>
+        <v>0.02987162117585192</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.002721029221956352</v>
+        <v>-0.003014378810654459</v>
       </c>
       <c r="M123" t="n">
-        <v>0.317889487588503</v>
+        <v>0.3008394502683703</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03016706505531066</v>
+        <v>0.02986086772502833</v>
       </c>
       <c r="O123" t="n">
-        <v>-0.002069908455381447</v>
+        <v>-0.004553892529103787</v>
       </c>
       <c r="P123" t="n">
-        <v>0.4764239961149935</v>
+        <v>0.4836788614441495</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.02983555897852854</v>
+        <v>0.03011501733872046</v>
       </c>
       <c r="R123" t="n">
-        <v>-0.003645878895279937</v>
+        <v>-0.003963538752252893</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="82" t="n"/>
       <c r="B124" s="82" t="n"/>
       <c r="F124" t="n">
-        <v>0.05505885051694899</v>
+        <v>0.05567872918449802</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03145911522347429</v>
+        <v>0.03103377552411111</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.003600052023818408</v>
+        <v>-0.004487971383190912</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1314253921783238</v>
+        <v>0.1331937931229402</v>
       </c>
       <c r="K124" t="n">
-        <v>0.03163836077681839</v>
+        <v>0.03065771646995328</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.003054291162042744</v>
+        <v>-0.003143629847630537</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3195657929115828</v>
+        <v>0.3025531125059839</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03096093518834515</v>
+        <v>0.03064668003358171</v>
       </c>
       <c r="O124" t="n">
-        <v>-0.002069908455381447</v>
+        <v>-0.004449164879920343</v>
       </c>
       <c r="P124" t="n">
-        <v>0.4785552199166816</v>
+        <v>0.4863742488255723</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.03062070526743719</v>
+        <v>0.03090751779500258</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.003645878895279937</v>
+        <v>-0.00376613227219169</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05543373381389785</v>
+        <v>0.05620517679762656</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03226575920356337</v>
+        <v>0.03182951335806268</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.003599692090602669</v>
+        <v>-0.004487971383190912</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1320937865973089</v>
+        <v>0.1337590686872303</v>
       </c>
       <c r="K125" t="n">
-        <v>0.03244960079673681</v>
+        <v>0.03144381176405465</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.003054291162042744</v>
+        <v>-0.003143629847630537</v>
       </c>
       <c r="M125" t="n">
-        <v>0.321109352846473</v>
+        <v>0.3042278782444887</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03175480532137964</v>
+        <v>0.03143249234213509</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.002069908455381447</v>
+        <v>-0.004449164879920343</v>
       </c>
       <c r="P125" t="n">
-        <v>0.4804769975961418</v>
+        <v>0.48864451683844</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.03140585155634584</v>
+        <v>0.0317000182512847</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.003645878895279937</v>
+        <v>-0.00376613227219169</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05578490557427838</v>
+        <v>0.05672308090546471</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03307240318365246</v>
+        <v>0.03262525119201425</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.003598972224171191</v>
+        <v>-0.004488869067235955</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1327248369876901</v>
+        <v>0.1342530256453008</v>
       </c>
       <c r="K126" t="n">
-        <v>0.03326084081665524</v>
+        <v>0.03222990705815602</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.003054291162042744</v>
+        <v>-0.003143629847630537</v>
       </c>
       <c r="M126" t="n">
-        <v>0.3225659007992522</v>
+        <v>0.3060005697403155</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03254867545441413</v>
+        <v>0.03221830465068846</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.002069908455381447</v>
+        <v>-0.004449164879920343</v>
       </c>
       <c r="P126" t="n">
-        <v>0.4821914995157968</v>
+        <v>0.4911541653310143</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03219099784525448</v>
+        <v>0.03249251870756682</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.003645878895279937</v>
+        <v>-0.00376613227219169</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="83" t="n"/>
       <c r="B127" s="83" t="n"/>
       <c r="F127" t="n">
-        <v>0.05613590369987338</v>
+        <v>0.05720627087472838</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03387904716374154</v>
+        <v>0.03342098902596582</v>
       </c>
       <c r="H127" t="n">
-        <v>-0.003598972224171191</v>
+        <v>-0.004489317909258476</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1333556520319986</v>
+        <v>0.1347679907514741</v>
       </c>
       <c r="K127" t="n">
-        <v>0.03407208083657366</v>
+        <v>0.03301600235225738</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.003054291162042744</v>
+        <v>-0.003143629847630537</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3241240122007116</v>
+        <v>0.3076439025282073</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03334254558744863</v>
+        <v>0.03300411695924184</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.002069908455381447</v>
+        <v>-0.004449164879920343</v>
       </c>
       <c r="P127" t="n">
-        <v>0.4840680016895348</v>
+        <v>0.493684188611914</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03297614413416312</v>
+        <v>0.03328501916384893</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.003645878895279937</v>
+        <v>-0.00376613227219169</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="83" t="n"/>
       <c r="B128" s="83" t="n"/>
       <c r="F128" t="n">
-        <v>0.05646225604888082</v>
+        <v>0.05770993948104297</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03468569114383063</v>
+        <v>0.03421672685991738</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.003717085494191254</v>
+        <v>-0.004681978313697748</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1339870477713862</v>
+        <v>0.1353046839743418</v>
       </c>
       <c r="K128" t="n">
-        <v>0.03488332085649207</v>
+        <v>0.03380209764635875</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.00339761836838961</v>
+        <v>-0.003261975224952858</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3254515661020088</v>
+        <v>0.3092946757596361</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03413641572048311</v>
+        <v>0.03378992926779521</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.002387046227035751</v>
+        <v>-0.004319721179845912</v>
       </c>
       <c r="P128" t="n">
-        <v>0.4857435262391437</v>
+        <v>0.4958634853607008</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.03376129042307177</v>
+        <v>0.03407751962013104</v>
       </c>
       <c r="R128" t="n">
-        <v>-0.003647752793482461</v>
+        <v>-0.003510203354751923</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05682013701079032</v>
+        <v>0.05818348145802894</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03549233512391971</v>
+        <v>0.03501246469386895</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.003717828911290092</v>
+        <v>-0.004681978313697748</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1345644603445459</v>
+        <v>0.1357895061141101</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03569456087641049</v>
+        <v>0.03458819294046012</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.00339761836838961</v>
+        <v>-0.003261975224952858</v>
       </c>
       <c r="M129" t="n">
-        <v>0.3267846995883119</v>
+        <v>0.3108612296984699</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0349302858535176</v>
+        <v>0.03457574157634859</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.002387046227035751</v>
+        <v>-0.004319721179845912</v>
       </c>
       <c r="P129" t="n">
-        <v>0.4875891199525488</v>
+        <v>0.498139324995888</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.03454643671198041</v>
+        <v>0.03487002007641317</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.003647752793482461</v>
+        <v>-0.003510203354751923</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="83" t="n"/>
       <c r="F130" t="n">
-        <v>0.05712830041730507</v>
+        <v>0.05864975285659683</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03629897910400879</v>
+        <v>0.03580820252782052</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.003717457202740673</v>
+        <v>-0.004681042011665212</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1351437070807144</v>
+        <v>0.1362039549852844</v>
       </c>
       <c r="K130" t="n">
-        <v>0.03650580089632891</v>
+        <v>0.03537428823456148</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.00339761836838961</v>
+        <v>-0.003261975224952858</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3282188764387659</v>
+        <v>0.3123893483682381</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0357241559865521</v>
+        <v>0.03536155388490198</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.002387046227035751</v>
+        <v>-0.004319721179845912</v>
       </c>
       <c r="P130" t="n">
-        <v>0.4890921901222668</v>
+        <v>0.500364148550776</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.03533158300088907</v>
+        <v>0.03566252053269529</v>
       </c>
       <c r="R130" t="n">
-        <v>-0.003647752793482461</v>
+        <v>-0.003510203354751923</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="83" t="n"/>
       <c r="B131" s="83" t="n"/>
       <c r="F131" t="n">
-        <v>0.05745942573020485</v>
+        <v>0.05911549756502178</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03710562308409788</v>
+        <v>0.03660394036177208</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.003717828911290092</v>
+        <v>-0.00468151016268148</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1357070178487661</v>
+        <v>0.1366973740262958</v>
       </c>
       <c r="K131" t="n">
-        <v>0.03731704091624734</v>
+        <v>0.03616038352866285</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.00339761836838961</v>
+        <v>-0.003261975224952858</v>
       </c>
       <c r="M131" t="n">
-        <v>0.3294190517205163</v>
+        <v>0.313786298718455</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03651802611958659</v>
+        <v>0.03614736619345535</v>
       </c>
       <c r="O131" t="n">
-        <v>-0.002387046227035751</v>
+        <v>-0.004319721179845912</v>
       </c>
       <c r="P131" t="n">
-        <v>0.4907726465477366</v>
+        <v>0.502463850244553</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.03611672928979771</v>
+        <v>0.0364550209889774</v>
       </c>
       <c r="R131" t="n">
-        <v>-0.003647752793482461</v>
+        <v>-0.003510203354751923</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05774792600356793</v>
+        <v>0.05954572815769096</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03791226706418696</v>
+        <v>0.03739967819572365</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.00381876572249038</v>
+        <v>-0.004848297381498065</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1362550193826659</v>
+        <v>0.1371585775190002</v>
       </c>
       <c r="K132" t="n">
-        <v>0.03812828093616576</v>
+        <v>0.03694647882276422</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.003717431932989925</v>
+        <v>-0.003368942680112338</v>
       </c>
       <c r="M132" t="n">
-        <v>0.330719602888807</v>
+        <v>0.3151908055388283</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03731189625262108</v>
+        <v>0.03693317850200872</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.002733330600894992</v>
+        <v>-0.00418035247650449</v>
       </c>
       <c r="P132" t="n">
-        <v>0.492486779168498</v>
+        <v>0.5046653399380692</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.03690187557870635</v>
+        <v>0.03724752144525952</v>
       </c>
       <c r="R132" t="n">
-        <v>-0.00365066546798524</v>
+        <v>-0.003216706998357414</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05804245411654221</v>
+        <v>0.0599468746593414</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03871891104427605</v>
+        <v>0.03819541602967522</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.003818002045713559</v>
+        <v>-0.004848297381498065</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1367696595825372</v>
+        <v>0.1375315745153874</v>
       </c>
       <c r="K133" t="n">
-        <v>0.03893952095608418</v>
+        <v>0.03773257411686558</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.003717431932989925</v>
+        <v>-0.003368942680112338</v>
       </c>
       <c r="M133" t="n">
-        <v>0.331928275537814</v>
+        <v>0.3166966698552439</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03810576638565557</v>
+        <v>0.0377189908105621</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.002733330600894992</v>
+        <v>-0.00418035247650449</v>
       </c>
       <c r="P133" t="n">
-        <v>0.4939408118969455</v>
+        <v>0.5068196784300845</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.03768702186761499</v>
+        <v>0.03804002190154163</v>
       </c>
       <c r="R133" t="n">
-        <v>-0.00365066546798524</v>
+        <v>-0.003216706998357414</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05831805256065176</v>
+        <v>0.06032554743475062</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03952555502436513</v>
+        <v>0.03899115386362678</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.00381876572249038</v>
+        <v>-0.004848297381498065</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1373263324440381</v>
+        <v>0.1379478491784416</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03975076097600259</v>
+        <v>0.03851866941096695</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.003717431932989925</v>
+        <v>-0.003368942680112338</v>
       </c>
       <c r="M134" t="n">
-        <v>0.3331407284089315</v>
+        <v>0.3181179545418155</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03889963651869006</v>
+        <v>0.03850480311911548</v>
       </c>
       <c r="O134" t="n">
-        <v>-0.002733330600894992</v>
+        <v>-0.00418035247650449</v>
       </c>
       <c r="P134" t="n">
-        <v>0.4954348474696498</v>
+        <v>0.5089279998083212</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.03847216815652364</v>
+        <v>0.03883252235782376</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.00365066546798524</v>
+        <v>-0.003216706998357414</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05859084710386431</v>
+        <v>0.06069701103693832</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04033219900445422</v>
+        <v>0.03978689169757835</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.003818383884101969</v>
+        <v>-0.00484926713795001</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1378322172626953</v>
+        <v>0.1383893501310478</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04056200099592102</v>
+        <v>0.03930476470506832</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.003717431932989925</v>
+        <v>-0.003368942680112338</v>
       </c>
       <c r="M135" t="n">
-        <v>0.3342598577197023</v>
+        <v>0.3193603879275406</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03969350665172455</v>
+        <v>0.03929061542766885</v>
       </c>
       <c r="O135" t="n">
-        <v>-0.002733330600894992</v>
+        <v>-0.00418035247650449</v>
       </c>
       <c r="P135" t="n">
-        <v>0.4969726583632956</v>
+        <v>0.5106871333358906</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.03925731444543229</v>
+        <v>0.03962502281410587</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.00365066546798524</v>
+        <v>-0.003216706998357414</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05886055776162669</v>
+        <v>0.06104268752792699</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0411388429845433</v>
+        <v>0.04058262953152992</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.003898586926898284</v>
+        <v>-0.004979824927766161</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1383252985028305</v>
+        <v>0.1387812184000471</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04137324101583944</v>
+        <v>0.04009085999916968</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.00397974162317635</v>
+        <v>-0.00346010761400522</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3353817875106521</v>
+        <v>0.3206110780117712</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04048737678475904</v>
+        <v>0.04007642773622224</v>
       </c>
       <c r="O136" t="n">
-        <v>-0.003083811408249206</v>
+        <v>-0.004048333962865744</v>
       </c>
       <c r="P136" t="n">
-        <v>0.4983335215682351</v>
+        <v>0.5127823180563709</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.04004246073434094</v>
+        <v>0.04041752327038799</v>
       </c>
       <c r="R136" t="n">
-        <v>-0.003653515259714573</v>
+        <v>-0.002903118610599681</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05910189014281632</v>
+        <v>0.06133515972675987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04194548696463238</v>
+        <v>0.04137836736548148</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.003898197146161742</v>
+        <v>-0.004979824927766161</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1387873242286592</v>
+        <v>0.1391614582630456</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04218448103575786</v>
+        <v>0.04087695529327105</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.00397974162317635</v>
+        <v>-0.00346010761400522</v>
       </c>
       <c r="M137" t="n">
-        <v>0.33640896627292</v>
+        <v>0.3219648333362953</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04128124691779354</v>
+        <v>0.04086224004477561</v>
       </c>
       <c r="O137" t="n">
-        <v>-0.003083811408249206</v>
+        <v>-0.004048333962865744</v>
       </c>
       <c r="P137" t="n">
-        <v>0.4998197750351512</v>
+        <v>0.5147588272545363</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.04082760702324958</v>
+        <v>0.0412100237266701</v>
       </c>
       <c r="R137" t="n">
-        <v>-0.003653515259714573</v>
+        <v>-0.002903118610599681</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05935613422289839</v>
+        <v>0.06162395832168945</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04275213094472147</v>
+        <v>0.04217410519943305</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.003898586926898284</v>
+        <v>-0.004979326995066654</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1392755574340882</v>
+        <v>0.1395304806684803</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04299572105567628</v>
+        <v>0.04166305058737241</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.00397974162317635</v>
+        <v>-0.00346010761400522</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3372917594784632</v>
+        <v>0.3230915914793737</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04207511705082802</v>
+        <v>0.04164805235332899</v>
       </c>
       <c r="O138" t="n">
-        <v>-0.003083811408249206</v>
+        <v>-0.004048333962865744</v>
       </c>
       <c r="P138" t="n">
-        <v>0.500984947450126</v>
+        <v>0.5165405800449128</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.04161275331215823</v>
+        <v>0.04200252418295223</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.003653515259714573</v>
+        <v>-0.002903118610599681</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05956445981901939</v>
+        <v>0.06189037025810065</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04355877492481055</v>
+        <v>0.04296984303338462</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.003897417584688656</v>
+        <v>-0.004979326995066654</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1397529602202089</v>
+        <v>0.1398697095938292</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0438069610755947</v>
+        <v>0.04244914588147378</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.00397974162317635</v>
+        <v>-0.00346010761400522</v>
       </c>
       <c r="M139" t="n">
-        <v>0.3382731224331639</v>
+        <v>0.324274527227946</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04286898718386251</v>
+        <v>0.04243386466188236</v>
       </c>
       <c r="O139" t="n">
-        <v>-0.003083811408249206</v>
+        <v>-0.004048333962865744</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5024326565103665</v>
+        <v>0.5182044501880756</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.04239789960106687</v>
+        <v>0.04279502463923434</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.003653515259714573</v>
+        <v>-0.002903118610599681</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05980187260746465</v>
+        <v>0.06208091667451852</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04436541890489964</v>
+        <v>0.04376558086733619</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.003953823008941313</v>
+        <v>-0.005056921317824726</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1402011399216476</v>
+        <v>0.1402365169004076</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04461820109551312</v>
+        <v>0.04323524117557515</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.004150060116956011</v>
+        <v>-0.00353575569306525</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3390598174330394</v>
+        <v>0.3255619213040762</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04366285731689701</v>
+        <v>0.04321967697043574</v>
       </c>
       <c r="O140" t="n">
-        <v>-0.003408136191473788</v>
+        <v>-0.003937543580595513</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5037155947803343</v>
+        <v>0.5202131000136433</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.04318304588997552</v>
+        <v>0.04358752509551646</v>
       </c>
       <c r="R140" t="n">
-        <v>-0.003658853941333199</v>
+        <v>-0.002590640407573337</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05999250820938098</v>
+        <v>0.06228874398461265</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04517206288498872</v>
+        <v>0.04456131870128775</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.003953823008941313</v>
+        <v>-0.005056415625692944</v>
       </c>
       <c r="J141" t="n">
-        <v>0.140639649060893</v>
+        <v>0.1405743526237745</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04542944111543154</v>
+        <v>0.04402133646967651</v>
       </c>
       <c r="L141" t="n">
-        <v>-0.004150060116956011</v>
+        <v>-0.00353575569306525</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3398954527414992</v>
+        <v>0.3266688498251518</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0444567274499315</v>
+        <v>0.04400548927898912</v>
       </c>
       <c r="O141" t="n">
-        <v>-0.003408136191473788</v>
+        <v>-0.003937543580595513</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5052138430365584</v>
+        <v>0.5219528711237262</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.04396819217888417</v>
+        <v>0.04438002555179858</v>
       </c>
       <c r="R141" t="n">
-        <v>-0.003658853941333199</v>
+        <v>-0.002590640407573337</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06016109536710974</v>
+        <v>0.0624277576060414</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04597870686507781</v>
+        <v>0.04535705653523932</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.003953823008941313</v>
+        <v>-0.005056921317824726</v>
       </c>
       <c r="J142" t="n">
-        <v>0.141069114497257</v>
+        <v>0.1408644379780607</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04624068113534996</v>
+        <v>0.04480743176377788</v>
       </c>
       <c r="L142" t="n">
-        <v>-0.004150060116956011</v>
+        <v>-0.00353575569306525</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3406817863578981</v>
+        <v>0.3276898693777412</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04525059758296599</v>
+        <v>0.0447913015875425</v>
       </c>
       <c r="O142" t="n">
-        <v>-0.003408136191473788</v>
+        <v>-0.003937543580595513</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5064023983296005</v>
+        <v>0.5236553962610488</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.04475333846779282</v>
+        <v>0.04517252600808069</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.003658853941333199</v>
+        <v>-0.002590640407573337</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06033260164581183</v>
+        <v>0.06257407607329629</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04678535084516689</v>
+        <v>0.04615279436919089</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.003953427666174695</v>
+        <v>-0.005056921317824726</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1414518727155079</v>
+        <v>0.1412408342868784</v>
       </c>
       <c r="K143" t="n">
-        <v>0.04705192115526838</v>
+        <v>0.04559352705787924</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.004150060116956011</v>
+        <v>-0.00353575569306525</v>
       </c>
       <c r="M143" t="n">
-        <v>0.3414673678783793</v>
+        <v>0.3287204295464237</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04604446771600048</v>
+        <v>0.04557711389609587</v>
       </c>
       <c r="O143" t="n">
-        <v>-0.003408136191473788</v>
+        <v>-0.003937543580595513</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5078892296603811</v>
+        <v>0.5253218237848406</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.04553848475670146</v>
+        <v>0.04596502646436281</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.003658853941333199</v>
+        <v>-0.002590640407573337</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06050676809226196</v>
+        <v>0.06268316833537226</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04759199482525598</v>
+        <v>0.04694853220314246</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.003981044347089124</v>
+        <v>-0.005091958404433198</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1418650486888492</v>
+        <v>0.1415512128957674</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0478631611751868</v>
+        <v>0.04637962235198061</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.004198034026603194</v>
+        <v>-0.003592063396793324</v>
       </c>
       <c r="M144" t="n">
-        <v>0.3422025906269928</v>
+        <v>0.3297128971845248</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04683833784903497</v>
+        <v>0.04636292620464925</v>
       </c>
       <c r="O144" t="n">
-        <v>-0.003682716074606086</v>
+        <v>-0.003862388595599335</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5092996889656232</v>
+        <v>0.5267202626715914</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.0463236310456101</v>
+        <v>0.04675752692064492</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.003663385379799777</v>
+        <v>-0.002296409853310396</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06064936287176359</v>
+        <v>0.06282450619656432</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04839863880534506</v>
+        <v>0.04774427003709402</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.003981044347089124</v>
+        <v>-0.005092467549359149</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1422528231414653</v>
+        <v>0.141853249852155</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04867440119510522</v>
+        <v>0.04716571764608198</v>
       </c>
       <c r="L145" t="n">
-        <v>-0.004198034026603194</v>
+        <v>-0.003592063396793324</v>
       </c>
       <c r="M145" t="n">
-        <v>0.3427390056482835</v>
+        <v>0.3305711726519672</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04763220798206946</v>
+        <v>0.04714873851320263</v>
       </c>
       <c r="O145" t="n">
-        <v>-0.003682716074606086</v>
+        <v>-0.003862388595599335</v>
       </c>
       <c r="P145" t="n">
-        <v>0.5104085545545967</v>
+        <v>0.5283953003686761</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.04710877733451875</v>
+        <v>0.04755002737692705</v>
       </c>
       <c r="R145" t="n">
-        <v>-0.003663385379799777</v>
+        <v>-0.002296409853310396</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06076844029474102</v>
+        <v>0.06296334062729887</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04920528278543414</v>
+        <v>0.04854000787104559</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.003980646242654416</v>
+        <v>-0.005091449259507248</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1426569926614383</v>
+        <v>0.1421281452521332</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04948564121502364</v>
+        <v>0.04795181294018334</v>
       </c>
       <c r="L146" t="n">
-        <v>-0.004198034026603194</v>
+        <v>-0.003592063396793324</v>
       </c>
       <c r="M146" t="n">
-        <v>0.3434701725394649</v>
+        <v>0.3315836516963335</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04842607811510395</v>
+        <v>0.047934550821756</v>
       </c>
       <c r="O146" t="n">
-        <v>-0.003682716074606086</v>
+        <v>-0.003862388595599335</v>
       </c>
       <c r="P146" t="n">
-        <v>0.5119031855253933</v>
+        <v>0.5299600122648737</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.04789392362342739</v>
+        <v>0.04834252783320916</v>
       </c>
       <c r="R146" t="n">
-        <v>-0.003663385379799777</v>
+        <v>-0.002296409853310396</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06088422859953348</v>
+        <v>0.06309091148453676</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05001192676552323</v>
+        <v>0.04933574570499716</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.003981442451523833</v>
+        <v>-0.005092467549359149</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1431163627501157</v>
+        <v>0.1423762241264357</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05029688123494206</v>
+        <v>0.04873790823428471</v>
       </c>
       <c r="L147" t="n">
-        <v>-0.004198034026603194</v>
+        <v>-0.003592063396793324</v>
       </c>
       <c r="M147" t="n">
-        <v>0.3439024193783564</v>
+        <v>0.3324619869837162</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04921994824813845</v>
+        <v>0.04872036313030938</v>
       </c>
       <c r="O147" t="n">
-        <v>-0.003682716074606086</v>
+        <v>-0.003862388595599335</v>
       </c>
       <c r="P147" t="n">
-        <v>0.5131783824704813</v>
+        <v>0.5315713756066623</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.04867906991233604</v>
+        <v>0.04913502828949128</v>
       </c>
       <c r="R147" t="n">
-        <v>-0.003663385379799777</v>
+        <v>-0.002296409853310396</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06099609348086164</v>
+        <v>0.06320715414946174</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05081857074561232</v>
+        <v>0.05013148353894872</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.003960445984434445</v>
+        <v>-0.005122754722966612</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1434956816715302</v>
+        <v>0.1426941532130162</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05110812125486048</v>
+        <v>0.04952400352838607</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.00411653390903227</v>
+        <v>-0.003628728052313243</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3444793267821235</v>
+        <v>0.3333506519679846</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05001381838117294</v>
+        <v>0.04950617543886277</v>
       </c>
       <c r="O148" t="n">
-        <v>-0.003877704240112445</v>
+        <v>-0.003838445599925958</v>
       </c>
       <c r="P148" t="n">
-        <v>0.5146185198036695</v>
+        <v>0.5329177909467052</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.04946421620124469</v>
+        <v>0.04992752874577339</v>
       </c>
       <c r="R148" t="n">
-        <v>-0.003669298276437662</v>
+        <v>-0.00204100976310967</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06111296177760647</v>
+        <v>0.06334703660490763</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0516252147257014</v>
+        <v>0.05092722137290029</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.003960842029032889</v>
+        <v>-0.005122242549928924</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1438524565674453</v>
+        <v>0.1429283166598238</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0519193612747789</v>
+        <v>0.05031009882248744</v>
       </c>
       <c r="L149" t="n">
-        <v>-0.00411653390903227</v>
+        <v>-0.003628728052313243</v>
       </c>
       <c r="M149" t="n">
-        <v>0.3448049949803381</v>
+        <v>0.3341070172949117</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05080768851420742</v>
+        <v>0.05029198774741614</v>
       </c>
       <c r="O149" t="n">
-        <v>-0.003877704240112445</v>
+        <v>-0.003838445599925958</v>
       </c>
       <c r="P149" t="n">
-        <v>0.5159979679886811</v>
+        <v>0.5344697532096577</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.05024936249015333</v>
+        <v>0.05072002920205552</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.003669298276437662</v>
+        <v>-0.00204100976310967</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06122642514108068</v>
+        <v>0.0634404831667003</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05243185870579048</v>
+        <v>0.05172295920685186</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.003960842029032889</v>
+        <v>-0.005122242549928924</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1442446728838296</v>
+        <v>0.1431947302645489</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05273060129469732</v>
+        <v>0.05109619411658881</v>
       </c>
       <c r="L150" t="n">
-        <v>-0.00411653390903227</v>
+        <v>-0.003628728052313243</v>
       </c>
       <c r="M150" t="n">
-        <v>0.3451259374975468</v>
+        <v>0.3348921713195058</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05160155864724192</v>
+        <v>0.05107780005596951</v>
       </c>
       <c r="O150" t="n">
-        <v>-0.003877704240112445</v>
+        <v>-0.003838445599925958</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5173963688422272</v>
+        <v>0.5360725454478035</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.05103450877906198</v>
+        <v>0.05151252965833764</v>
       </c>
       <c r="R150" t="n">
-        <v>-0.003669298276437662</v>
+        <v>-0.00204100976310967</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06131947669404182</v>
+        <v>0.06356632325860231</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05323850268587957</v>
+        <v>0.05251869704080342</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.003960842029032889</v>
+        <v>-0.005121730376891234</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1446529236159426</v>
+        <v>0.143513312301516</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05354184131461574</v>
+        <v>0.05188228941069017</v>
       </c>
       <c r="L151" t="n">
-        <v>-0.00411653390903227</v>
+        <v>-0.003628728052313243</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3455903319264952</v>
+        <v>0.3355640185035918</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05239542878027641</v>
+        <v>0.05186361236452289</v>
       </c>
       <c r="O151" t="n">
-        <v>-0.003877704240112445</v>
+        <v>-0.003838445599925958</v>
       </c>
       <c r="P151" t="n">
-        <v>0.518817046342772</v>
+        <v>0.5374915329956133</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.05181965506797062</v>
+        <v>0.05230503011461975</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.003669298276437662</v>
+        <v>-0.00204100976310967</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06141785959821976</v>
+        <v>0.0636807058010138</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05404514666596865</v>
+        <v>0.05331443487475499</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.003863589556732731</v>
+        <v>-0.005151141966440695</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1450771472983066</v>
+        <v>0.1437103464813406</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05435308133453416</v>
+        <v>0.05266838470479154</v>
       </c>
       <c r="L152" t="n">
-        <v>-0.003930473485597032</v>
+        <v>-0.003642222440541461</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3458601718781574</v>
+        <v>0.3363656218756891</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0531892989133109</v>
+        <v>0.05264942467307626</v>
       </c>
       <c r="O152" t="n">
-        <v>-0.003978640787740249</v>
+        <v>-0.003842781663341296</v>
       </c>
       <c r="P152" t="n">
-        <v>0.5201092872076121</v>
+        <v>0.5388058854616821</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.05260480135687927</v>
+        <v>0.05309753057090186</v>
       </c>
       <c r="R152" t="n">
-        <v>-0.003675487356929141</v>
+        <v>-0.001842248183910575</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06150455877787722</v>
+        <v>0.06380998227155096</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05485179064605773</v>
+        <v>0.05411017270870656</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.003863203236409091</v>
+        <v>-0.005150111841059945</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1454586543231314</v>
+        <v>0.1439991667796792</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05516432135445258</v>
+        <v>0.05345447999889291</v>
       </c>
       <c r="L153" t="n">
-        <v>-0.003930473485597032</v>
+        <v>-0.003642222440541461</v>
       </c>
       <c r="M153" t="n">
-        <v>0.3460626490601145</v>
+        <v>0.3372005659318843</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05398316904634539</v>
+        <v>0.05343523698162964</v>
       </c>
       <c r="O153" t="n">
-        <v>-0.003978640787740249</v>
+        <v>-0.003842781663341296</v>
       </c>
       <c r="P153" t="n">
-        <v>0.5216613610626087</v>
+        <v>0.540174359774044</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.05338994764578792</v>
+        <v>0.05389003102718398</v>
       </c>
       <c r="R153" t="n">
-        <v>-0.003675487356929141</v>
+        <v>-0.001842248183910575</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06161399045405329</v>
+        <v>0.06391011697639791</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05565843462614682</v>
+        <v>0.05490591054265812</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.00386281691608545</v>
+        <v>-0.005150111841059945</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1457970387839749</v>
+        <v>0.1442435825906043</v>
       </c>
       <c r="K154" t="n">
-        <v>0.05597556137437101</v>
+        <v>0.05424057529299427</v>
       </c>
       <c r="L154" t="n">
-        <v>-0.003930473485597032</v>
+        <v>-0.003642222440541461</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3463492907450121</v>
+        <v>0.3378254820526212</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05477703917937987</v>
+        <v>0.05422104929018303</v>
       </c>
       <c r="O154" t="n">
-        <v>-0.003978640787740249</v>
+        <v>-0.003842781663341296</v>
       </c>
       <c r="P154" t="n">
-        <v>0.5233232953772063</v>
+        <v>0.5413610827251479</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.05417509393469656</v>
+        <v>0.05468253148346611</v>
       </c>
       <c r="R154" t="n">
-        <v>-0.003675487356929141</v>
+        <v>-0.001842248183910575</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06169478128767777</v>
+        <v>0.06402511413879698</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0564650786062359</v>
+        <v>0.05570164837660969</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.00386281691608545</v>
+        <v>-0.00515062690375032</v>
       </c>
       <c r="J155" t="n">
-        <v>0.146189984783924</v>
+        <v>0.1444419251726773</v>
       </c>
       <c r="K155" t="n">
-        <v>0.05678680139428943</v>
+        <v>0.05502667058709564</v>
       </c>
       <c r="L155" t="n">
-        <v>-0.003930473485597032</v>
+        <v>-0.003642222440541461</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3464728120283828</v>
+        <v>0.3386306707275577</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05557090931241437</v>
+        <v>0.0550068615987364</v>
       </c>
       <c r="O155" t="n">
-        <v>-0.004056779528738951</v>
+        <v>-0.003842781663341296</v>
       </c>
       <c r="P155" t="n">
-        <v>0.52479119809252</v>
+        <v>0.5429213429745003</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.05496024022360521</v>
+        <v>0.05547503193974821</v>
       </c>
       <c r="R155" t="n">
-        <v>-0.003675487356929141</v>
+        <v>-0.001842248183910575</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06178136595232829</v>
+        <v>0.06412850258260472</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05727172258632499</v>
+        <v>0.05649738621056126</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.003705363254058498</v>
+        <v>-0.005177046810027292</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1465393802505738</v>
+        <v>0.144711105393975</v>
       </c>
       <c r="K156" t="n">
-        <v>0.05759804141420784</v>
+        <v>0.05581276588119701</v>
       </c>
       <c r="L156" t="n">
-        <v>-0.003664493445951264</v>
+        <v>-0.003641749705102882</v>
       </c>
       <c r="M156" t="n">
-        <v>0.3466325068219718</v>
+        <v>0.339177000966446</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05636477944544886</v>
+        <v>0.05579267390728978</v>
       </c>
       <c r="O156" t="n">
-        <v>-0.004056779528738951</v>
+        <v>-0.003854862317793612</v>
       </c>
       <c r="P156" t="n">
-        <v>0.5263011292219102</v>
+        <v>0.5439847829554697</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.05574538651251386</v>
+        <v>0.05626753239603034</v>
       </c>
       <c r="R156" t="n">
-        <v>-0.003702124353123995</v>
+        <v>-0.001719732106760085</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06185665541382247</v>
+        <v>0.06422022494346914</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05807836656641407</v>
+        <v>0.05729312404451283</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.00370462232959258</v>
+        <v>-0.005176011504195869</v>
       </c>
       <c r="J157" t="n">
-        <v>0.146923589636174</v>
+        <v>0.1449347192286995</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05840928143412626</v>
+        <v>0.05659886117529837</v>
       </c>
       <c r="L157" t="n">
-        <v>-0.003664493445951264</v>
+        <v>-0.003641749705102882</v>
       </c>
       <c r="M157" t="n">
-        <v>0.3469286310740446</v>
+        <v>0.3399536828037173</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05715864957848335</v>
+        <v>0.05657848621584316</v>
       </c>
       <c r="O157" t="n">
-        <v>-0.004056779528738951</v>
+        <v>-0.003854862317793612</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5278492632729923</v>
+        <v>0.5452660371942217</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.05653053280142249</v>
+        <v>0.05706003285231245</v>
       </c>
       <c r="R157" t="n">
-        <v>-0.003702124353123995</v>
+        <v>-0.001719732106760085</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06195520563688557</v>
+        <v>0.06432679270730923</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05888501054650316</v>
+        <v>0.05808886187846438</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.003705363254058498</v>
+        <v>-0.005177564462943003</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1472440213114084</v>
+        <v>0.1451519317481009</v>
       </c>
       <c r="K158" t="n">
-        <v>0.05922052145404468</v>
+        <v>0.05738495646939974</v>
       </c>
       <c r="L158" t="n">
-        <v>-0.003664493445951264</v>
+        <v>-0.003641749705102882</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3471633426446897</v>
+        <v>0.3406677163919203</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05795251971151785</v>
+        <v>0.05736429852439653</v>
       </c>
       <c r="O158" t="n">
-        <v>-0.004056779528738951</v>
+        <v>-0.003854862317793612</v>
       </c>
       <c r="P158" t="n">
-        <v>0.5295094600563968</v>
+        <v>0.5466080856769894</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.05731567909033114</v>
+        <v>0.05785253330859458</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.003702124353123995</v>
+        <v>-0.001719732106760085</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06202543530937052</v>
+        <v>0.06439504607263542</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05969165452659225</v>
+        <v>0.05888459971241596</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.003500657018819942</v>
+        <v>-0.005176011504195869</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1476187485223577</v>
+        <v>0.1453825500973075</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06003176147396311</v>
+        <v>0.0581710517635011</v>
       </c>
       <c r="L159" t="n">
-        <v>-0.003664493445951264</v>
+        <v>-0.003640616141784224</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3472876722808815</v>
+        <v>0.341220985979278</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05874638984455233</v>
+        <v>0.05815011083294991</v>
       </c>
       <c r="O159" t="n">
-        <v>-0.004056779528738951</v>
+        <v>-0.003854862317793612</v>
       </c>
       <c r="P159" t="n">
-        <v>0.531434385115256</v>
+        <v>0.5477730939928604</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.05810082537923979</v>
+        <v>0.0586450337648767</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.003702124353123995</v>
+        <v>-0.001719732106760085</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06209328252072706</v>
+        <v>0.06450471704320135</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06049829850668133</v>
+        <v>0.05968033754636753</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.003501007049518754</v>
+        <v>-0.005197795208932681</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1479687247067924</v>
+        <v>0.1455486891599709</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06084300149388153</v>
+        <v>0.05895714705760247</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.003341683273575625</v>
+        <v>-0.003640616141784224</v>
       </c>
       <c r="M160" t="n">
-        <v>0.3475012928337483</v>
+        <v>0.3419575467026625</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05954025997758682</v>
+        <v>0.05893592314150328</v>
       </c>
       <c r="O160" t="n">
-        <v>-0.004129028604004593</v>
+        <v>-0.003871328561424268</v>
       </c>
       <c r="P160" t="n">
-        <v>0.5329950998602241</v>
+        <v>0.5491610088024672</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.05888597166814844</v>
+        <v>0.05943753422115881</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.003802988065252335</v>
+        <v>-0.001700751458605811</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06217613701087686</v>
+        <v>0.0645937323427167</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06130494248677041</v>
+        <v>0.06047607538031909</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.003499956957422317</v>
+        <v>-0.005198315040436725</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1482936678415629</v>
+        <v>0.1457678893842475</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06165424151379995</v>
+        <v>0.05974324235170383</v>
       </c>
       <c r="L161" t="n">
-        <v>-0.003341683273575625</v>
+        <v>-0.003640616141784224</v>
       </c>
       <c r="M161" t="n">
-        <v>0.3476060908574865</v>
+        <v>0.3425829980465375</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06033413011062132</v>
+        <v>0.05972173545005666</v>
       </c>
       <c r="O161" t="n">
-        <v>-0.004129028604004593</v>
+        <v>-0.003871328561424268</v>
       </c>
       <c r="P161" t="n">
-        <v>0.5348127151434348</v>
+        <v>0.5503818032153965</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.05967111795705709</v>
+        <v>0.06023003467744092</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.003802988065252335</v>
+        <v>-0.001700751458605811</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06223090476898663</v>
+        <v>0.06467979601866612</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06211158646685949</v>
+        <v>0.06127181321427067</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.003501007049518754</v>
+        <v>-0.005198315040436725</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1486330296389348</v>
+        <v>0.1459426303492024</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06246548153371836</v>
+        <v>0.0605293376458052</v>
       </c>
       <c r="L162" t="n">
-        <v>-0.003341683273575625</v>
+        <v>-0.003640616141784224</v>
       </c>
       <c r="M162" t="n">
-        <v>0.3476525599207307</v>
+        <v>0.3431466065544678</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06112800024365581</v>
+        <v>0.06050754775861004</v>
       </c>
       <c r="O162" t="n">
-        <v>-0.004129028604004593</v>
+        <v>-0.003871328561424268</v>
       </c>
       <c r="P162" t="n">
-        <v>0.5365701160215508</v>
+        <v>0.5514423815400081</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.06045626424596572</v>
+        <v>0.06102253513372304</v>
       </c>
       <c r="R162" t="n">
-        <v>-0.003802988065252335</v>
+        <v>-0.001700751458605811</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06230090692377505</v>
+        <v>0.06475398150925224</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06291823044694858</v>
+        <v>0.06206755104822222</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.003501007049518754</v>
+        <v>-0.005198315040436725</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1489668361961433</v>
+        <v>0.1461122961279807</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06327672155363678</v>
+        <v>0.06131543293990657</v>
       </c>
       <c r="L163" t="n">
-        <v>-0.003341683273575625</v>
+        <v>-0.003640616141784224</v>
       </c>
       <c r="M163" t="n">
-        <v>0.3478406106701828</v>
+        <v>0.3437472637021607</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0619218703766903</v>
+        <v>0.06129336006716341</v>
       </c>
       <c r="O163" t="n">
-        <v>-0.004129028604004593</v>
+        <v>-0.003871328561424268</v>
       </c>
       <c r="P163" t="n">
-        <v>0.5382626871354147</v>
+        <v>0.5526610239161521</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.06124141053487437</v>
+        <v>0.06181503559000515</v>
       </c>
       <c r="R163" t="n">
-        <v>-0.003802988065252335</v>
+        <v>-0.001700751458605811</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06238629141349243</v>
+        <v>0.06483405486867092</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06372487442703767</v>
+        <v>0.0628632888821738</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.003271705856816425</v>
+        <v>-0.005216934094276928</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1493547049354841</v>
+        <v>0.1463360558740571</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0640879615735552</v>
+        <v>0.06210152823400793</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.002985397163192282</v>
+        <v>-0.003640308668522199</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3479221929838385</v>
+        <v>0.3442371957574681</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06271574050972478</v>
+        <v>0.06207917237571679</v>
       </c>
       <c r="O164" t="n">
-        <v>-0.004195055274074377</v>
+        <v>-0.003891512080598582</v>
       </c>
       <c r="P164" t="n">
-        <v>0.5401228186907363</v>
+        <v>0.5541167676886865</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.06202655682378302</v>
+        <v>0.06260753604628727</v>
       </c>
       <c r="R164" t="n">
-        <v>-0.003963174394969783</v>
+        <v>-0.001946951664837372</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06244385791007052</v>
+        <v>0.06492001376490901</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06453151840712675</v>
+        <v>0.06365902671612536</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.003271378686230744</v>
+        <v>-0.005216934094276928</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1496769665806446</v>
+        <v>0.1464767982122916</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06489920159347362</v>
+        <v>0.0628876235281093</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.002985397163192282</v>
+        <v>-0.003640308668522199</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3481969015577715</v>
+        <v>0.3449133067378923</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06350961064275928</v>
+        <v>0.06286498468427018</v>
       </c>
       <c r="O165" t="n">
-        <v>-0.004195055274074377</v>
+        <v>-0.003891512080598582</v>
       </c>
       <c r="P165" t="n">
-        <v>0.5419891263569653</v>
+        <v>0.5553255127292342</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.06281170311269167</v>
+        <v>0.0634000365025694</v>
       </c>
       <c r="R165" t="n">
-        <v>-0.003963174394969783</v>
+        <v>-0.001946951664837372</v>
       </c>
     </row>
     <row r="166">
       <c r="F166" t="n">
-        <v>0.06251703146430439</v>
+        <v>0.06497616077031643</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06533816238721583</v>
+        <v>0.06445476455007693</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.003272033027402107</v>
+        <v>-0.005217977481095783</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1499531494387891</v>
+        <v>0.1466919201902506</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06571044161339205</v>
+        <v>0.06367371882221066</v>
       </c>
       <c r="L166" t="n">
-        <v>-0.002985397163192282</v>
+        <v>-0.003640308668522199</v>
       </c>
       <c r="M166" t="n">
-        <v>0.3481674781052651</v>
+        <v>0.3454298137302586</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06430348077579377</v>
+        <v>0.06365079699282354</v>
       </c>
       <c r="O166" t="n">
-        <v>-0.004195055274074377</v>
+        <v>-0.003891512080598582</v>
       </c>
       <c r="P166" t="n">
-        <v>0.5437781605179866</v>
+        <v>0.5562840822913078</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.06359684940160032</v>
+        <v>0.06419253695885152</v>
       </c>
       <c r="R166" t="n">
-        <v>-0.003963174394969783</v>
+        <v>-0.001946951664837372</v>
       </c>
     </row>
     <row r="167">
       <c r="F167" t="n">
-        <v>0.06256254655775272</v>
+        <v>0.06504705683749017</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06614480636730492</v>
+        <v>0.06525050238402849</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.003035507540729252</v>
+        <v>-0.0052164124008675</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1502629957170291</v>
+        <v>0.1468244279137428</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06652168163331047</v>
+        <v>0.06445981411631203</v>
       </c>
       <c r="L167" t="n">
-        <v>-0.002985397163192282</v>
+        <v>-0.003640308668522199</v>
       </c>
       <c r="M167" t="n">
-        <v>0.3483328567941319</v>
+        <v>0.3460345350464202</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06509735090882826</v>
+        <v>0.06443660930137693</v>
       </c>
       <c r="O167" t="n">
-        <v>-0.004195055274074377</v>
+        <v>-0.003891512080598582</v>
       </c>
       <c r="P167" t="n">
-        <v>0.5455648365459815</v>
+        <v>0.5575546039807243</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.06438199569050895</v>
+        <v>0.06498503741513363</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.003963174394969783</v>
+        <v>-0.001946951664837372</v>
       </c>
     </row>
     <row r="168">
       <c r="F168" t="n">
-        <v>0.06263258184562567</v>
+        <v>0.06512378096658164</v>
       </c>
       <c r="G168" t="n">
-        <v>0.066951450347394</v>
+        <v>0.06604624021798006</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.003034597070561067</v>
+        <v>-0.005234399107384306</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1505664009595308</v>
+        <v>0.1469925974769813</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06733292165322889</v>
+        <v>0.06524590941041339</v>
       </c>
       <c r="L168" t="n">
-        <v>-0.002621916970874427</v>
+        <v>-0.003639380502987099</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3483949219109451</v>
+        <v>0.3465791737851086</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06589122104186276</v>
+        <v>0.0652224216099303</v>
       </c>
       <c r="O168" t="n">
-        <v>-0.004254582434261111</v>
+        <v>-0.003914367286942892</v>
       </c>
       <c r="P168" t="n">
-        <v>0.5471059097432087</v>
+        <v>0.5588129193880939</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.0651671419794176</v>
+        <v>0.06577753787141574</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.004162529848126128</v>
+        <v>-0.002446369218421516</v>
       </c>
     </row>
     <row r="169">
       <c r="F169" t="n">
-        <v>0.06270990993106959</v>
+        <v>0.06518843889918922</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06775809432748309</v>
+        <v>0.06684197805193164</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.003035507540729252</v>
+        <v>-0.005235445987205783</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1508631881182953</v>
+        <v>0.1472165202972713</v>
       </c>
       <c r="K169" t="n">
-        <v>0.06814416167314731</v>
+        <v>0.06603200470451476</v>
       </c>
       <c r="L169" t="n">
-        <v>-0.002621916970874427</v>
+        <v>-0.003639380502987099</v>
       </c>
       <c r="M169" t="n">
-        <v>0.3485039866409849</v>
+        <v>0.3471136049705471</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06668509117489725</v>
+        <v>0.06600823391848368</v>
       </c>
       <c r="O169" t="n">
-        <v>-0.004254582434261111</v>
+        <v>-0.003914367286942892</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5489549671724597</v>
+        <v>0.5600569350602392</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.06595228826832625</v>
+        <v>0.06657003832769787</v>
       </c>
       <c r="R169" t="n">
-        <v>-0.004162529848126128</v>
+        <v>-0.002446369218421516</v>
       </c>
     </row>
     <row r="170">
       <c r="F170" t="n">
-        <v>0.0627424543728313</v>
+        <v>0.06524993469227709</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06856473830757216</v>
+        <v>0.0676377158858832</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.003035204050673191</v>
+        <v>-0.005235445987205783</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1511531801453235</v>
+        <v>0.1473387436150164</v>
       </c>
       <c r="K170" t="n">
-        <v>0.06895540169306573</v>
+        <v>0.06681809999861614</v>
       </c>
       <c r="L170" t="n">
-        <v>-0.002621916970874427</v>
+        <v>-0.003639380502987099</v>
       </c>
       <c r="M170" t="n">
-        <v>0.3486110310268135</v>
+        <v>0.3475884018054054</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06747896130793174</v>
+        <v>0.06679404622703707</v>
       </c>
       <c r="O170" t="n">
-        <v>-0.004254582434261111</v>
+        <v>-0.003914367286942892</v>
       </c>
       <c r="P170" t="n">
-        <v>0.5507096838025527</v>
+        <v>0.5609601402105274</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.0667374345572349</v>
+        <v>0.06736253878397998</v>
       </c>
       <c r="R170" t="n">
-        <v>-0.004162529848126128</v>
+        <v>-0.002446369218421516</v>
       </c>
     </row>
     <row r="171">
       <c r="F171" t="n">
-        <v>0.06280858523907834</v>
+        <v>0.06529928636063459</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06937138228766125</v>
+        <v>0.06843345371983477</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.003035507540729252</v>
+        <v>-0.005246447801626098</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1514361999926164</v>
+        <v>0.1475370471902624</v>
       </c>
       <c r="K171" t="n">
-        <v>0.06976664171298415</v>
+        <v>0.06760419529271749</v>
       </c>
       <c r="L171" t="n">
-        <v>-0.002621916970874427</v>
+        <v>-0.003639380502987099</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3488166217456872</v>
+        <v>0.3480535521805724</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06827283144096623</v>
+        <v>0.06757985853559043</v>
       </c>
       <c r="O171" t="n">
-        <v>-0.004254582434261111</v>
+        <v>-0.003914367286942892</v>
       </c>
       <c r="P171" t="n">
-        <v>0.5525259345737072</v>
+        <v>0.5621688216788699</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.06752258084614354</v>
+        <v>0.06815503924026209</v>
       </c>
       <c r="R171" t="n">
-        <v>-0.004382840269581707</v>
+        <v>-0.002446369218421516</v>
       </c>
     </row>
     <row r="172">
       <c r="F172" t="n">
-        <v>0.06285620925151658</v>
+        <v>0.06535437331127966</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07017802626775034</v>
+        <v>0.06922919155378633</v>
       </c>
       <c r="H172" t="n">
-        <v>-0.002809046912441976</v>
+        <v>-0.005244874182009533</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1517524130262975</v>
+        <v>0.1476933006011055</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07057788173290257</v>
+        <v>0.06839029058681886</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.002272744413415746</v>
+        <v>-0.003638205393501794</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3489719737385945</v>
+        <v>0.3486091127245939</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06906670157400072</v>
+        <v>0.06836567084414381</v>
       </c>
       <c r="O172" t="n">
-        <v>-0.004304791064440217</v>
+        <v>-0.003936889469308589</v>
       </c>
       <c r="P172" t="n">
-        <v>0.5543197293668285</v>
+        <v>0.5632755987983395</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.06830772713505218</v>
+        <v>0.06894753969654421</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.004382840269581707</v>
+        <v>-0.003103351959557403</v>
       </c>
     </row>
     <row r="173">
       <c r="F173" t="n">
-        <v>0.06292898299865</v>
+        <v>0.06540621939236695</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07098467024783943</v>
+        <v>0.0700249293877379</v>
       </c>
       <c r="H173" t="n">
-        <v>-0.002809608721824464</v>
+        <v>-0.005245398721881721</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1520210110789915</v>
+        <v>0.147807682883957</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07138912175282099</v>
+        <v>0.06917638588092023</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.002272744413415746</v>
+        <v>-0.003638205393501794</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3489780732087723</v>
+        <v>0.3492058056352524</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0698605717070352</v>
+        <v>0.06915148315269719</v>
       </c>
       <c r="O173" t="n">
-        <v>-0.004304791064440217</v>
+        <v>-0.003936889469308589</v>
       </c>
       <c r="P173" t="n">
-        <v>0.5559258028805901</v>
+        <v>0.5643594863909569</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.06909287342396082</v>
+        <v>0.06974004015282634</v>
       </c>
       <c r="R173" t="n">
-        <v>-0.004382840269581707</v>
+        <v>-0.003103351959557403</v>
       </c>
     </row>
     <row r="174">
       <c r="F174" t="n">
-        <v>0.06298345027130026</v>
+        <v>0.06545479825514579</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0717913142279285</v>
+        <v>0.07082066722168946</v>
       </c>
       <c r="H174" t="n">
-        <v>-0.002809046912441976</v>
+        <v>-0.005246447801626098</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1522618801416908</v>
+        <v>0.1479595595609001</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0722003617727394</v>
+        <v>0.06996248117502159</v>
       </c>
       <c r="L174" t="n">
-        <v>-0.002272744413415746</v>
+        <v>-0.003638205393501794</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3490851802108752</v>
+        <v>0.3496942285297194</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07065444184006969</v>
+        <v>0.06993729546125056</v>
       </c>
       <c r="O174" t="n">
-        <v>-0.004304791064440217</v>
+        <v>-0.003936889469308589</v>
       </c>
       <c r="P174" t="n">
-        <v>0.5574198140710125</v>
+        <v>0.5654183951543098</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.06987801971286949</v>
+        <v>0.07053254060910845</v>
       </c>
       <c r="R174" t="n">
-        <v>-0.004382840269581707</v>
+        <v>-0.003103351959557403</v>
       </c>
     </row>
     <row r="175">
       <c r="F175" t="n">
-        <v>0.06304586725640673</v>
+        <v>0.06552701069752172</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07259795820801758</v>
+        <v>0.07161640505564104</v>
       </c>
       <c r="H175" t="n">
-        <v>-0.002809046912441976</v>
+        <v>-0.005244874182009533</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1525355156277796</v>
+        <v>0.1481294836149413</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07301160179265782</v>
+        <v>0.07074857646912296</v>
       </c>
       <c r="L175" t="n">
-        <v>-0.002272744413415746</v>
+        <v>-0.003638205393501794</v>
       </c>
       <c r="M175" t="n">
-        <v>0.3491943337146265</v>
+        <v>0.3501244278645486</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07144831197310419</v>
+        <v>0.07072310776980395</v>
       </c>
       <c r="O175" t="n">
-        <v>-0.004346262083022524</v>
+        <v>-0.003936889469308589</v>
       </c>
       <c r="P175" t="n">
-        <v>0.5590399346170425</v>
+        <v>0.5664502357859854</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.07066316600177813</v>
+        <v>0.07132504106539057</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.004382840269581707</v>
+        <v>-0.003103351959557403</v>
       </c>
     </row>
     <row r="176">
       <c r="F176" t="n">
-        <v>0.06309015693426361</v>
+        <v>0.06555102884328505</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07340460218810668</v>
+        <v>0.07241214288959259</v>
       </c>
       <c r="H176" t="n">
-        <v>-0.002612514493520614</v>
+        <v>-0.0052561380244197</v>
       </c>
       <c r="J176" t="n">
-        <v>0.152760793905071</v>
+        <v>0.14829794657298</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07382284181257626</v>
+        <v>0.07153467176322433</v>
       </c>
       <c r="L176" t="n">
-        <v>-0.001963012963468565</v>
+        <v>-0.003637156669664211</v>
       </c>
       <c r="M176" t="n">
-        <v>0.3494062083990349</v>
+        <v>0.3506467580419184</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07224218210613868</v>
+        <v>0.07150892007835732</v>
       </c>
       <c r="O176" t="n">
-        <v>-0.004346262083022524</v>
+        <v>-0.003960392783163107</v>
       </c>
       <c r="P176" t="n">
-        <v>0.5608641182855837</v>
+        <v>0.5676164095673677</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.07144831229068678</v>
+        <v>0.07211754152167268</v>
       </c>
       <c r="R176" t="n">
-        <v>-0.004606059704388976</v>
+        <v>-0.003824786522107607</v>
       </c>
     </row>
     <row r="177">
       <c r="F177" t="n">
-        <v>0.0631338699934658</v>
+        <v>0.06558965182093215</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07421124616819576</v>
+        <v>0.07320788072354416</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.002612775718847434</v>
+        <v>-0.005255612463173383</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1529779886139873</v>
+        <v>0.1484453802693994</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07463408183249468</v>
+        <v>0.07232076705732569</v>
       </c>
       <c r="L177" t="n">
-        <v>-0.001963012963468565</v>
+        <v>-0.003637156669664211</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3493720916620188</v>
+        <v>0.350961225413789</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07303605223917317</v>
+        <v>0.0722947323869107</v>
       </c>
       <c r="O177" t="n">
-        <v>-0.004346262083022524</v>
+        <v>-0.003960392783163107</v>
       </c>
       <c r="P177" t="n">
-        <v>0.5622398695006928</v>
+        <v>0.5683425130091097</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.07223345857959541</v>
+        <v>0.07291004197795481</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.004606059704388976</v>
+        <v>-0.003824786522107607</v>
       </c>
     </row>
     <row r="178">
       <c r="F178" t="n">
-        <v>0.06320334270104019</v>
+        <v>0.06562490184797298</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07501789014828485</v>
+        <v>0.07400361855749574</v>
       </c>
       <c r="H178" t="n">
-        <v>-0.002612253268193795</v>
+        <v>-0.005256663585666017</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1532478873083322</v>
+        <v>0.1485323028483099</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07544532185241309</v>
+        <v>0.07310686235142706</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.001963012963468565</v>
+        <v>-0.003637156669664211</v>
       </c>
       <c r="M178" t="n">
-        <v>0.3496421157730649</v>
+        <v>0.3514186390563658</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07382992237220767</v>
+        <v>0.07308054469546407</v>
       </c>
       <c r="O178" t="n">
-        <v>-0.004346262083022524</v>
+        <v>-0.003960392783163107</v>
       </c>
       <c r="P178" t="n">
-        <v>0.5636490602988289</v>
+        <v>0.5694443921124085</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.07301860486850406</v>
+        <v>0.07370254243423692</v>
       </c>
       <c r="R178" t="n">
-        <v>-0.004606059704388976</v>
+        <v>-0.003824786522107607</v>
       </c>
     </row>
     <row r="179">
       <c r="F179" t="n">
-        <v>0.06325498477261085</v>
+        <v>0.06567473354278723</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07582453412837392</v>
+        <v>0.0747993563914473</v>
       </c>
       <c r="H179" t="n">
-        <v>-0.002612775718847434</v>
+        <v>-0.005260235764175647</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1534484573520599</v>
+        <v>0.1486780746928882</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07625656187233151</v>
+        <v>0.07389295764552843</v>
       </c>
       <c r="L179" t="n">
-        <v>-0.001963012963468565</v>
+        <v>-0.003637156669664211</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3496177141696774</v>
+        <v>0.3519695508232605</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07462379250524216</v>
+        <v>0.07386635700401745</v>
       </c>
       <c r="O179" t="n">
-        <v>-0.004346262083022524</v>
+        <v>-0.003960392783163107</v>
       </c>
       <c r="P179" t="n">
-        <v>0.5652510981809277</v>
+        <v>0.570265130947662</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.07380375115741271</v>
+        <v>0.07449504289051903</v>
       </c>
       <c r="R179" t="n">
-        <v>-0.004812389699104463</v>
+        <v>-0.003824786522107607</v>
       </c>
     </row>
     <row r="180">
       <c r="F180" t="n">
-        <v>0.06329762484803594</v>
+        <v>0.06570316429947241</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07663117810846302</v>
+        <v>0.07559509422539885</v>
       </c>
       <c r="H180" t="n">
-        <v>-0.002462895164884428</v>
+        <v>-0.00526128791654372</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1536607816520859</v>
+        <v>0.1488632155020632</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07706780189224993</v>
+        <v>0.07467905293962979</v>
       </c>
       <c r="L180" t="n">
-        <v>-0.0017155521631435</v>
+        <v>-0.003635516459170517</v>
       </c>
       <c r="M180" t="n">
-        <v>0.349749288166697</v>
+        <v>0.3523131410755894</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07541766263827665</v>
+        <v>0.07465216931257083</v>
       </c>
       <c r="O180" t="n">
-        <v>-0.004376136414611328</v>
+        <v>-0.003981078004313879</v>
       </c>
       <c r="P180" t="n">
-        <v>0.5664715696285132</v>
+        <v>0.5712945174430384</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.07458889744632136</v>
+        <v>0.07528754334680116</v>
       </c>
       <c r="R180" t="n">
-        <v>-0.004812389699104463</v>
+        <v>-0.004514719176742</v>
       </c>
     </row>
     <row r="181">
       <c r="F181" t="n">
-        <v>0.06333135349831424</v>
+        <v>0.06571914653629632</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0774378220885521</v>
+        <v>0.07639083205935043</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.002462895164884428</v>
+        <v>-0.00526128791654372</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1538847468159224</v>
+        <v>0.1489885908786556</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07787904191216835</v>
+        <v>0.07546514823373116</v>
       </c>
       <c r="L181" t="n">
-        <v>-0.0017155521631435</v>
+        <v>-0.003635516459170517</v>
       </c>
       <c r="M181" t="n">
-        <v>0.3500377697648281</v>
+        <v>0.3528514536398379</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07621153277131114</v>
+        <v>0.07543798162112421</v>
       </c>
       <c r="O181" t="n">
-        <v>-0.004376136414611328</v>
+        <v>-0.003981078004313879</v>
       </c>
       <c r="P181" t="n">
-        <v>0.5680408517904276</v>
+        <v>0.5721202390452829</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.07537404373522999</v>
+        <v>0.07608004380308327</v>
       </c>
       <c r="R181" t="n">
-        <v>-0.004812389699104463</v>
+        <v>-0.004514719176742</v>
       </c>
     </row>
     <row r="182">
       <c r="F182" t="n">
-        <v>0.06339131708162225</v>
+        <v>0.06572264744818961</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07824446606864117</v>
+        <v>0.077186569893302</v>
       </c>
       <c r="H182" t="n">
-        <v>-0.002462895164884428</v>
+        <v>-0.005260235764175647</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1540386187225872</v>
+        <v>0.1491539097858146</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07869028193208677</v>
+        <v>0.07625124352783252</v>
       </c>
       <c r="L182" t="n">
-        <v>-0.0017155521631435</v>
+        <v>-0.003635516459170517</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3500840366919946</v>
+        <v>0.3532330792244857</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07700540290434563</v>
+        <v>0.07622379392967758</v>
       </c>
       <c r="O182" t="n">
-        <v>-0.004376136414611328</v>
+        <v>-0.003981078004313879</v>
       </c>
       <c r="P182" t="n">
-        <v>0.5691376471836516</v>
+        <v>0.5726574371469768</v>
       </c>
       <c r="Q182" t="n">
-        <v>0.07615919002413864</v>
+        <v>0.07687254425936539</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.004812389699104463</v>
+        <v>-0.004514719176742</v>
       </c>
     </row>
     <row r="183">
       <c r="F183" t="n">
-        <v>0.06343382229205047</v>
+        <v>0.06575863519874751</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07905111004873026</v>
+        <v>0.07798230772725356</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.002462895164884428</v>
+        <v>-0.005260761840359684</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1542445850853992</v>
+        <v>0.1492598924791724</v>
       </c>
       <c r="K183" t="n">
-        <v>0.07950152195200519</v>
+        <v>0.07703733882193389</v>
       </c>
       <c r="L183" t="n">
-        <v>-0.0017155521631435</v>
+        <v>-0.003635516459170517</v>
       </c>
       <c r="M183" t="n">
-        <v>0.3503388927229043</v>
+        <v>0.353709792471633</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07779927303738012</v>
+        <v>0.07700960623823096</v>
       </c>
       <c r="O183" t="n">
-        <v>-0.004376136414611328</v>
+        <v>-0.003981078004313879</v>
       </c>
       <c r="P183" t="n">
-        <v>0.5704122823298002</v>
+        <v>0.5734797918094909</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.07694433631304728</v>
+        <v>0.07766504471564752</v>
       </c>
       <c r="R183" t="n">
-        <v>-0.004812389699104463</v>
+        <v>-0.004514719176742</v>
       </c>
     </row>
     <row r="184">
       <c r="F184" t="n">
-        <v>0.06351158950637227</v>
+        <v>0.06576409436988051</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07985775402881934</v>
+        <v>0.07877804556120514</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.002377689032005986</v>
+        <v>-0.00526234016788131</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1544413128985173</v>
+        <v>0.149466221140669</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08031276197192361</v>
+        <v>0.07782343411603526</v>
       </c>
       <c r="L184" t="n">
-        <v>-0.001555317699534992</v>
+        <v>-0.003633658233823982</v>
       </c>
       <c r="M184" t="n">
-        <v>0.3504530607057664</v>
+        <v>0.3540805474456186</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0785931431704146</v>
+        <v>0.07779541854678435</v>
       </c>
       <c r="O184" t="n">
-        <v>-0.004394587896011947</v>
+        <v>-0.003997895670551685</v>
       </c>
       <c r="P184" t="n">
-        <v>0.5713688494077532</v>
+        <v>0.5740915832474374</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.07772948260195593</v>
+        <v>0.07845754517192963</v>
       </c>
       <c r="R184" t="n">
-        <v>-0.004981860348320371</v>
+        <v>-0.005077666488057421</v>
       </c>
     </row>
     <row r="185">
       <c r="F185" t="n">
-        <v>0.06353699277122647</v>
+        <v>0.0657930005223062</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08066439800890844</v>
+        <v>0.07957378339515669</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.002377451286877298</v>
+        <v>-0.005263392741172216</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1546081655534764</v>
+        <v>0.1495538580111752</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08112400199184204</v>
+        <v>0.07860952941013663</v>
       </c>
       <c r="L185" t="n">
-        <v>-0.001555317699534992</v>
+        <v>-0.003633658233823982</v>
       </c>
       <c r="M185" t="n">
-        <v>0.35052731871337</v>
+        <v>0.3545976733388471</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07938701330344911</v>
+        <v>0.07858123085533771</v>
       </c>
       <c r="O185" t="n">
-        <v>-0.004394587896011947</v>
+        <v>-0.003997895670551685</v>
       </c>
       <c r="P185" t="n">
-        <v>0.572578044178503</v>
+        <v>0.5749852123793759</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.07851462889086458</v>
+        <v>0.07925004562821174</v>
       </c>
       <c r="R185" t="n">
-        <v>-0.004981860348320371</v>
+        <v>-0.005077666488057421</v>
       </c>
     </row>
     <row r="186">
       <c r="F186" t="n">
-        <v>0.06359789052046312</v>
+        <v>0.06578311404407015</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08147104198899752</v>
+        <v>0.08036952122910827</v>
       </c>
       <c r="H186" t="n">
-        <v>-0.002377213541748611</v>
+        <v>-0.005263392741172216</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1547039710500865</v>
+        <v>0.1497225317885901</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08193524201176046</v>
+        <v>0.07939562470423799</v>
       </c>
       <c r="L186" t="n">
-        <v>-0.001555317699534992</v>
+        <v>-0.003633658233823982</v>
       </c>
       <c r="M186" t="n">
-        <v>0.3507627265053631</v>
+        <v>0.3550094198415554</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08018088343648359</v>
+        <v>0.07936704316389109</v>
       </c>
       <c r="O186" t="n">
-        <v>-0.004394587896011947</v>
+        <v>-0.003997895670551685</v>
       </c>
       <c r="P186" t="n">
-        <v>0.5734605613887759</v>
+        <v>0.5754989871982567</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.07929977517977323</v>
+        <v>0.08004254608449386</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.004981860348320371</v>
+        <v>-0.005077666488057421</v>
       </c>
     </row>
     <row r="187">
       <c r="F187" t="n">
-        <v>0.06366808800707266</v>
+        <v>0.06580892580813676</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08227768596908661</v>
+        <v>0.08116525906305984</v>
       </c>
       <c r="H187" t="n">
-        <v>-0.002377451286877298</v>
+        <v>-0.005234077704970178</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1548923171210902</v>
+        <v>0.1498527705550491</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08274648203167888</v>
+        <v>0.08018171999833935</v>
       </c>
       <c r="L187" t="n">
-        <v>-0.001555317699534992</v>
+        <v>-0.003633658233823982</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3510099799647509</v>
+        <v>0.3553664035520875</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08097475356951808</v>
+        <v>0.08015285547244448</v>
       </c>
       <c r="O187" t="n">
-        <v>-0.004394587896011947</v>
+        <v>-0.00400940499834815</v>
       </c>
       <c r="P187" t="n">
-        <v>0.5743412066847913</v>
+        <v>0.5758779069667622</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.08008492146868187</v>
+        <v>0.08083504654077597</v>
       </c>
       <c r="R187" t="n">
-        <v>-0.004981860348320371</v>
+        <v>-0.005077666488057421</v>
       </c>
     </row>
     <row r="188">
       <c r="F188" t="n">
-        <v>0.06370369160098835</v>
+        <v>0.06579858419729545</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08308432994917568</v>
+        <v>0.0819609968970114</v>
       </c>
       <c r="H188" t="n">
-        <v>-0.00235640940374016</v>
+        <v>-0.005233031098750428</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1549887334625994</v>
+        <v>0.1500047638125233</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0835577220515973</v>
+        <v>0.08096781529244072</v>
       </c>
       <c r="L188" t="n">
-        <v>-0.001504912523104595</v>
+        <v>-0.003631954767740729</v>
       </c>
       <c r="M188" t="n">
-        <v>0.3511696622735682</v>
+        <v>0.3557194074265989</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08176862370255258</v>
+        <v>0.08093866778099784</v>
       </c>
       <c r="O188" t="n">
-        <v>-0.004399301682699895</v>
+        <v>-0.00400940499834815</v>
       </c>
       <c r="P188" t="n">
-        <v>0.5752161556597074</v>
+        <v>0.5764503314173849</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.08087006775759052</v>
+        <v>0.0816275469970581</v>
       </c>
       <c r="R188" t="n">
-        <v>-0.005097460258930499</v>
+        <v>-0.005422439360408084</v>
       </c>
     </row>
     <row r="189">
       <c r="F189" t="n">
-        <v>0.06375739624078934</v>
+        <v>0.06581511782711824</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08389097392926477</v>
+        <v>0.08275673473096297</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.00235640940374016</v>
+        <v>-0.005233554401860303</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1551164168461657</v>
+        <v>0.1502188656992475</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08436896207151572</v>
+        <v>0.08175391058654209</v>
       </c>
       <c r="L189" t="n">
-        <v>-0.001504912523104595</v>
+        <v>-0.003631954767740729</v>
       </c>
       <c r="M189" t="n">
-        <v>0.3513446960359106</v>
+        <v>0.3561699884863522</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08256249383558707</v>
+        <v>0.08172448008955123</v>
       </c>
       <c r="O189" t="n">
-        <v>-0.004399301682699895</v>
+        <v>-0.00400940499834815</v>
       </c>
       <c r="P189" t="n">
-        <v>0.5758337800292249</v>
+        <v>0.577049218220542</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.08165521404649917</v>
+        <v>0.08242004745334021</v>
       </c>
       <c r="R189" t="n">
-        <v>-0.005097460258930499</v>
+        <v>-0.005422439360408084</v>
       </c>
     </row>
     <row r="190">
       <c r="F190" t="n">
-        <v>0.06381157051748203</v>
+        <v>0.06581350241830504</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08469761790935386</v>
+        <v>0.08355247256491453</v>
       </c>
       <c r="H190" t="n">
-        <v>-0.002356645068246985</v>
+        <v>-0.005233031098750428</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1553000545313585</v>
+        <v>0.1503352215328694</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08518020209143413</v>
+        <v>0.08254000588064346</v>
       </c>
       <c r="L190" t="n">
-        <v>-0.001504912523104595</v>
+        <v>-0.003631954767740729</v>
       </c>
       <c r="M190" t="n">
-        <v>0.3517036258046994</v>
+        <v>0.3565161113408359</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08335636396862156</v>
+        <v>0.08251029239810459</v>
       </c>
       <c r="O190" t="n">
-        <v>-0.004399301682699895</v>
+        <v>-0.00400940499834815</v>
       </c>
       <c r="P190" t="n">
-        <v>0.5763548879412514</v>
+        <v>0.5774243956080155</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08244036033540782</v>
+        <v>0.08321254790962233</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.005097460258930499</v>
+        <v>-0.005422439360408084</v>
       </c>
     </row>
     <row r="191">
       <c r="F191" t="n">
-        <v>0.06387497416888067</v>
+        <v>0.06583876778965894</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08550426188944293</v>
+        <v>0.0843482103988661</v>
       </c>
       <c r="H191" t="n">
-        <v>-0.002356645068246985</v>
+        <v>-0.005232507795640553</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1553971386410919</v>
+        <v>0.1504741644363033</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08599144211135255</v>
+        <v>0.08332610117474483</v>
       </c>
       <c r="L191" t="n">
-        <v>-0.001504912523104595</v>
+        <v>-0.003631954767740729</v>
       </c>
       <c r="M191" t="n">
-        <v>0.3520485872091227</v>
+        <v>0.3569606348070454</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08415023410165605</v>
+        <v>0.08329610470665798</v>
       </c>
       <c r="O191" t="n">
-        <v>-0.004399301682699895</v>
+        <v>-0.00400940499834815</v>
       </c>
       <c r="P191" t="n">
-        <v>0.5771061972612747</v>
+        <v>0.5775735492159723</v>
       </c>
       <c r="Q191" t="n">
-        <v>0.08322550662431645</v>
+        <v>0.08400504836590446</v>
       </c>
       <c r="R191" t="n">
-        <v>-0.005097460258930499</v>
+        <v>-0.005422439360408084</v>
       </c>
     </row>
     <row r="192">
       <c r="F192" t="n">
-        <v>0.06392993815094886</v>
+        <v>0.06582786699629946</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08631090586953202</v>
+        <v>0.08514394823281768</v>
       </c>
       <c r="H192" t="n">
-        <v>-0.002344052359638287</v>
+        <v>-0.005139502348845072</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1554693410831413</v>
+        <v>0.1506360140694631</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08680268213127097</v>
+        <v>0.08411219646884618</v>
       </c>
       <c r="L192" t="n">
-        <v>-0.00151939830842242</v>
+        <v>-0.003629179537528031</v>
       </c>
       <c r="M192" t="n">
-        <v>0.3522771331246459</v>
+        <v>0.3572504758532337</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08494410423469054</v>
+        <v>0.08408191701521135</v>
       </c>
       <c r="O192" t="n">
-        <v>-0.004357254572593705</v>
+        <v>-0.004015775318733306</v>
       </c>
       <c r="P192" t="n">
-        <v>0.5775049919575259</v>
+        <v>0.5777556174489522</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.0840106529132251</v>
+        <v>0.08479754882218656</v>
       </c>
       <c r="R192" t="n">
-        <v>-0.005138215154503086</v>
+        <v>-0.005471264557033879</v>
       </c>
     </row>
     <row r="193">
       <c r="F193" t="n">
-        <v>0.06397639428805527</v>
+        <v>0.06584384942828005</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0871175498496211</v>
+        <v>0.08593968606676924</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.002343817954402323</v>
+        <v>-0.005138474551155073</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1556401545936184</v>
+        <v>0.1508618420133544</v>
       </c>
       <c r="K193" t="n">
-        <v>0.08761392215118939</v>
+        <v>0.08489829176294755</v>
       </c>
       <c r="L193" t="n">
-        <v>-0.00151939830842242</v>
+        <v>-0.003629179537528031</v>
       </c>
       <c r="M193" t="n">
-        <v>0.352688617231422</v>
+        <v>0.3577917678799533</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08573797436772503</v>
+        <v>0.08486772932376473</v>
       </c>
       <c r="O193" t="n">
-        <v>-0.004357254572593705</v>
+        <v>-0.004015775318733306</v>
       </c>
       <c r="P193" t="n">
-        <v>0.5777127100078044</v>
+        <v>0.578095726626469</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.08479579920213375</v>
+        <v>0.08559004927846868</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.005138215154503086</v>
+        <v>-0.005471264557033879</v>
       </c>
     </row>
     <row r="194">
       <c r="F194" t="n">
-        <v>0.06404958623675691</v>
+        <v>0.06584167622047926</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0879241938297102</v>
+        <v>0.0867354239007208</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.002343817954402323</v>
+        <v>-0.005138474551155073</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1557453407468974</v>
+        <v>0.1509922665783697</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08842516217110781</v>
+        <v>0.08568438705704892</v>
       </c>
       <c r="L194" t="n">
-        <v>-0.00151939830842242</v>
+        <v>-0.003629179537528031</v>
       </c>
       <c r="M194" t="n">
-        <v>0.3530299446562362</v>
+        <v>0.3580773474027793</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08653184450075951</v>
+        <v>0.08565354163231811</v>
       </c>
       <c r="O194" t="n">
-        <v>-0.004357254572593705</v>
+        <v>-0.004015775318733306</v>
       </c>
       <c r="P194" t="n">
-        <v>0.5778660818799214</v>
+        <v>0.5785146162008118</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.08558094549104239</v>
+        <v>0.0863825497347508</v>
       </c>
       <c r="R194" t="n">
-        <v>-0.005138215154503086</v>
+        <v>-0.005471264557033879</v>
       </c>
     </row>
     <row r="195">
       <c r="F195" t="n">
-        <v>0.06407884379396579</v>
+        <v>0.06585738168709332</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08873083780979928</v>
+        <v>0.08753116173467237</v>
       </c>
       <c r="H195" t="n">
-        <v>-0.002335381807767769</v>
+        <v>-0.005139502348845072</v>
       </c>
       <c r="J195" t="n">
-        <v>0.155805550215298</v>
+        <v>0.1512078250984456</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08923640219102624</v>
+        <v>0.08647048235115029</v>
       </c>
       <c r="L195" t="n">
-        <v>-0.00151939830842242</v>
+        <v>-0.003629179537528031</v>
       </c>
       <c r="M195" t="n">
-        <v>0.353449993177425</v>
+        <v>0.3584145936799422</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08732571463379402</v>
+        <v>0.08643935394087149</v>
       </c>
       <c r="O195" t="n">
-        <v>-0.004249545209786045</v>
+        <v>-0.004015775318733306</v>
       </c>
       <c r="P195" t="n">
-        <v>0.5781720397915195</v>
+        <v>0.5785151066506009</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.08636609177995104</v>
+        <v>0.08717505019103292</v>
       </c>
       <c r="R195" t="n">
-        <v>-0.005138215154503086</v>
+        <v>-0.005471264557033879</v>
       </c>
     </row>
     <row r="196">
       <c r="F196" t="n">
-        <v>0.06416126235563052</v>
+        <v>0.0658729489849719</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08953748178988837</v>
+        <v>0.08832689956862394</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.002334681333320328</v>
+        <v>-0.004989065799760126</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1558826601691422</v>
+        <v>0.151327212127171</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09004764221094466</v>
+        <v>0.08725657764525166</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.001556019786433392</v>
+        <v>-0.003608768371573622</v>
       </c>
       <c r="M196" t="n">
-        <v>0.3538965852319664</v>
+        <v>0.3588589002773197</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0881195847668285</v>
+        <v>0.08722516624942486</v>
       </c>
       <c r="O196" t="n">
-        <v>-0.004249545209786045</v>
+        <v>-0.003999866908051247</v>
       </c>
       <c r="P196" t="n">
-        <v>0.5782171008971625</v>
+        <v>0.5788426925366009</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.08715123806885967</v>
+        <v>0.08796755064731503</v>
       </c>
       <c r="R196" t="n">
-        <v>-0.005093705612902837</v>
+        <v>-0.005353666721558632</v>
       </c>
     </row>
     <row r="197">
       <c r="F197" t="n">
-        <v>0.06420844325759045</v>
+        <v>0.06586134502597275</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09034412576997744</v>
+        <v>0.08912263740257551</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.002335381807767769</v>
+        <v>-0.004988566992941514</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1559974655259813</v>
+        <v>0.1515513797249712</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09085888223086308</v>
+        <v>0.08804267293935303</v>
       </c>
       <c r="L197" t="n">
-        <v>-0.001556019786433392</v>
+        <v>-0.003608768371573622</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3543173703114693</v>
+        <v>0.3592062447094432</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08891345489986299</v>
+        <v>0.08801097855797824</v>
       </c>
       <c r="O197" t="n">
-        <v>-0.004249545209786045</v>
+        <v>-0.003999866908051247</v>
       </c>
       <c r="P197" t="n">
-        <v>0.5784987188569927</v>
+        <v>0.5790830304825789</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.08793638435776834</v>
+        <v>0.08876005110359715</v>
       </c>
       <c r="R197" t="n">
-        <v>-0.005093705612902837</v>
+        <v>-0.005353666721558632</v>
       </c>
     </row>
     <row r="198">
       <c r="F198" t="n">
-        <v>0.06425566908886438</v>
+        <v>0.06588564490780094</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09115076975006653</v>
+        <v>0.08991837523652707</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.002335148316285288</v>
+        <v>-0.004988068186122902</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1560677512570424</v>
+        <v>0.1517189249802498</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0916701222507815</v>
+        <v>0.08882876823345438</v>
       </c>
       <c r="L198" t="n">
-        <v>-0.001556019786433392</v>
+        <v>-0.003608768371573622</v>
       </c>
       <c r="M198" t="n">
-        <v>0.3549627173793847</v>
+        <v>0.3596595938941636</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08970732503289749</v>
+        <v>0.08879679086653162</v>
       </c>
       <c r="O198" t="n">
-        <v>-0.004249545209786045</v>
+        <v>-0.003999866908051247</v>
       </c>
       <c r="P198" t="n">
-        <v>0.5787690002934384</v>
+        <v>0.5794018179767716</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.08872153064667698</v>
+        <v>0.08955255155987928</v>
       </c>
       <c r="R198" t="n">
-        <v>-0.005093705612902837</v>
+        <v>-0.005353666721558632</v>
       </c>
     </row>
     <row r="199">
       <c r="F199" t="n">
-        <v>0.06432060011777355</v>
+        <v>0.06586474619540486</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09195741373015562</v>
+        <v>0.09071411307047864</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.002335381807767769</v>
+        <v>-0.004988566992941514</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1561554813678896</v>
+        <v>0.1519505182016671</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09248136227069992</v>
+        <v>0.08961486352755575</v>
       </c>
       <c r="L199" t="n">
-        <v>-0.001556019786433392</v>
+        <v>-0.003608768371573622</v>
       </c>
       <c r="M199" t="n">
-        <v>0.3554775606159483</v>
+        <v>0.3600655139030531</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09050119516593198</v>
+        <v>0.089582603175085</v>
       </c>
       <c r="O199" t="n">
-        <v>-0.004249545209786045</v>
+        <v>-0.003999866908051247</v>
       </c>
       <c r="P199" t="n">
-        <v>0.5787798200010723</v>
+        <v>0.5794672101398203</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.08950667693558563</v>
+        <v>0.09034505201616139</v>
       </c>
       <c r="R199" t="n">
-        <v>-0.004973425826361351</v>
+        <v>-0.005353666721558632</v>
       </c>
     </row>
     <row r="200">
       <c r="F200" t="n">
-        <v>0.06436777193464173</v>
+        <v>0.06587975466213643</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09276405771024469</v>
+        <v>0.0915098509044302</v>
       </c>
       <c r="H200" t="n">
-        <v>-0.002326916698165553</v>
+        <v>-0.004791864775932981</v>
       </c>
       <c r="J200" t="n">
-        <v>0.156260846962573</v>
+        <v>0.1521247648190531</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09329260229061834</v>
+        <v>0.09040095882165711</v>
       </c>
       <c r="L200" t="n">
-        <v>-0.001609627339922817</v>
+        <v>-0.003563451585514246</v>
       </c>
       <c r="M200" t="n">
-        <v>0.3560112962528601</v>
+        <v>0.3605763685305897</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09129506529896647</v>
+        <v>0.09036841548363837</v>
       </c>
       <c r="O200" t="n">
-        <v>-0.00408898490763023</v>
+        <v>-0.003924360541380573</v>
       </c>
       <c r="P200" t="n">
-        <v>0.5790289795428942</v>
+        <v>0.5796937958127329</v>
       </c>
       <c r="Q200" t="n">
-        <v>0.09029182322449428</v>
+        <v>0.0911375524724435</v>
       </c>
       <c r="R200" t="n">
-        <v>-0.004973425826361351</v>
+        <v>-0.005129012348922927</v>
       </c>
     </row>
     <row r="201">
       <c r="F201" t="n">
-        <v>0.06443256798320572</v>
+        <v>0.06587659702348646</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09357070169033378</v>
+        <v>0.09230558873838178</v>
       </c>
       <c r="H201" t="n">
-        <v>-0.002327382081505186</v>
+        <v>-0.004791864775932981</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1563221345529101</v>
+        <v>0.1523018737265621</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09410384231053676</v>
+        <v>0.09118705411575849</v>
       </c>
       <c r="L201" t="n">
-        <v>-0.001609627339922817</v>
+        <v>-0.003563451585514246</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3564100719642813</v>
+        <v>0.3609873934785554</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09208893543200096</v>
+        <v>0.09115422779219175</v>
       </c>
       <c r="O201" t="n">
-        <v>-0.00408898490763023</v>
+        <v>-0.003924360541380573</v>
       </c>
       <c r="P201" t="n">
-        <v>0.5791854884054692</v>
+        <v>0.5801646166157626</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.09107696951340291</v>
+        <v>0.09193005292872562</v>
       </c>
       <c r="R201" t="n">
-        <v>-0.004973425826361351</v>
+        <v>-0.005129012348922927</v>
       </c>
     </row>
     <row r="202">
       <c r="F202" t="n">
-        <v>0.06447060629469308</v>
+        <v>0.06590033930522496</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09437734567042287</v>
+        <v>0.09310132657233333</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.002327382081505186</v>
+        <v>-0.004792823148888167</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1564426715647683</v>
+        <v>0.1525220386208713</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09491508233045517</v>
+        <v>0.09197314940985986</v>
       </c>
       <c r="L202" t="n">
-        <v>-0.001609627339922817</v>
+        <v>-0.003563451585514246</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3570770856477159</v>
+        <v>0.3613999449410751</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09288280556503545</v>
+        <v>0.09194004010074512</v>
       </c>
       <c r="O202" t="n">
-        <v>-0.00408898490763023</v>
+        <v>-0.003924360541380573</v>
       </c>
       <c r="P202" t="n">
-        <v>0.5792498364940621</v>
+        <v>0.5802156011662258</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.09186211580231156</v>
+        <v>0.09272255338500775</v>
       </c>
       <c r="R202" t="n">
-        <v>-0.004973425826361351</v>
+        <v>-0.005129012348922927</v>
       </c>
     </row>
     <row r="203">
       <c r="F203" t="n">
-        <v>0.06454393330785246</v>
+        <v>0.06590591385458305</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09518398965051196</v>
+        <v>0.09389706440628491</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.002321246804366053</v>
+        <v>-0.004792823148888167</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1564781434617407</v>
+        <v>0.1527039926887701</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09572632235037359</v>
+        <v>0.09275924470396121</v>
       </c>
       <c r="L203" t="n">
-        <v>-0.001609627339922817</v>
+        <v>-0.003563451585514246</v>
       </c>
       <c r="M203" t="n">
-        <v>0.3577067164614059</v>
+        <v>0.3617110238047332</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09367667569806994</v>
+        <v>0.09272585240929851</v>
       </c>
       <c r="O203" t="n">
-        <v>-0.00408898490763023</v>
+        <v>-0.003799508516948765</v>
       </c>
       <c r="P203" t="n">
-        <v>0.5796372548233285</v>
+        <v>0.5805106748778018</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.09264726209122021</v>
+        <v>0.09351505384128984</v>
       </c>
       <c r="R203" t="n">
-        <v>-0.004973425826361351</v>
+        <v>-0.005129012348922927</v>
       </c>
     </row>
     <row r="204">
       <c r="F204" t="n">
-        <v>0.06458149308960728</v>
+        <v>0.06592036224186024</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09599063363060104</v>
+        <v>0.09469280224023648</v>
       </c>
       <c r="H204" t="n">
-        <v>-0.002320782601425474</v>
+        <v>-0.004556995790042291</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1566145401950156</v>
+        <v>0.1529284714636145</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09653756237029203</v>
+        <v>0.09354533999806258</v>
       </c>
       <c r="L204" t="n">
-        <v>-0.001677237616044834</v>
+        <v>-0.003498858744470599</v>
       </c>
       <c r="M204" t="n">
-        <v>0.3581444220229679</v>
+        <v>0.3620733624026988</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09447054583110442</v>
+        <v>0.09351166471785188</v>
       </c>
       <c r="O204" t="n">
-        <v>-0.003888256263881753</v>
+        <v>-0.003799508516948765</v>
       </c>
       <c r="P204" t="n">
-        <v>0.5796017976576215</v>
+        <v>0.5807176790020154</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.09343240838012885</v>
+        <v>0.09430755429757197</v>
       </c>
       <c r="R204" t="n">
-        <v>-0.004788012273253896</v>
+        <v>-0.004821042864375504</v>
       </c>
     </row>
     <row r="205">
       <c r="F205" t="n">
-        <v>0.06464539319673425</v>
+        <v>0.06589860798070056</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09679727761069012</v>
+        <v>0.09548854007418804</v>
       </c>
       <c r="H205" t="n">
-        <v>-0.002321246804366053</v>
+        <v>-0.004557451489621295</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1566248262216322</v>
+        <v>0.1531140464911251</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09734880239021045</v>
+        <v>0.09433143529216395</v>
       </c>
       <c r="L205" t="n">
-        <v>-0.001677237616044834</v>
+        <v>-0.003498858744470599</v>
       </c>
       <c r="M205" t="n">
-        <v>0.358794607656136</v>
+        <v>0.3626401893294082</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09526441596413893</v>
+        <v>0.09429747702640526</v>
       </c>
       <c r="O205" t="n">
-        <v>-0.003888256263881753</v>
+        <v>-0.003799508516948765</v>
       </c>
       <c r="P205" t="n">
-        <v>0.579724618001863</v>
+        <v>0.580836457246822</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.0942175546690375</v>
+        <v>0.09510005475385409</v>
       </c>
       <c r="R205" t="n">
-        <v>-0.004788012273253896</v>
+        <v>-0.004821042864375504</v>
       </c>
     </row>
     <row r="206">
       <c r="F206" t="n">
-        <v>0.06470005208406569</v>
+        <v>0.06592178941764018</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0976039215907792</v>
+        <v>0.09628427790813961</v>
       </c>
       <c r="H206" t="n">
-        <v>-0.002321478905836343</v>
+        <v>-0.004557907189200299</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1567157537858702</v>
+        <v>0.153300952275814</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09816004241012886</v>
+        <v>0.09511753058626531</v>
       </c>
       <c r="L206" t="n">
-        <v>-0.001677237616044834</v>
+        <v>-0.003498858744470599</v>
       </c>
       <c r="M206" t="n">
-        <v>0.3593504398836772</v>
+        <v>0.3629496878260275</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09605828609717341</v>
+        <v>0.09508328933495865</v>
       </c>
       <c r="O206" t="n">
-        <v>-0.003888256263881753</v>
+        <v>-0.003799508516948765</v>
       </c>
       <c r="P206" t="n">
-        <v>0.5798403584955576</v>
+        <v>0.5810330630366555</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.09500270095794613</v>
+        <v>0.09589255521013622</v>
       </c>
       <c r="R206" t="n">
-        <v>-0.004788012273253896</v>
+        <v>-0.004821042864375504</v>
       </c>
     </row>
     <row r="207">
       <c r="F207" t="n">
-        <v>0.06474540167101879</v>
+        <v>0.06591778127632934</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09841056557086829</v>
+        <v>0.09708001574209117</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.002321478905836343</v>
+        <v>-0.004556540090463287</v>
       </c>
       <c r="J207" t="n">
-        <v>0.156784179377773</v>
+        <v>0.15350923560484</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09897128243004728</v>
+        <v>0.09590362588036667</v>
       </c>
       <c r="L207" t="n">
-        <v>-0.001677237616044834</v>
+        <v>-0.003498858744470599</v>
       </c>
       <c r="M207" t="n">
-        <v>0.3601156476450535</v>
+        <v>0.3634626081690557</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0968521562302079</v>
+        <v>0.09586910164351201</v>
       </c>
       <c r="O207" t="n">
-        <v>-0.003888256263881753</v>
+        <v>-0.003799508516948765</v>
       </c>
       <c r="P207" t="n">
-        <v>0.5799495560503196</v>
+        <v>0.5812243387129458</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.09578784724685478</v>
+        <v>0.09668505566641833</v>
       </c>
       <c r="R207" t="n">
-        <v>-0.004788012273253896</v>
+        <v>-0.004821042864375504</v>
       </c>
     </row>
     <row r="208">
       <c r="F208" t="n">
-        <v>0.06481699660768191</v>
+        <v>0.06592264717577441</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09921720955095738</v>
+        <v>0.09787575357604274</v>
       </c>
       <c r="H208" t="n">
-        <v>-0.002315371584764809</v>
+        <v>-0.004293555449078432</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1568716174220353</v>
+        <v>0.1537386531482096</v>
       </c>
       <c r="K208" t="n">
-        <v>0.0997825224499657</v>
+        <v>0.09668972117446806</v>
       </c>
       <c r="L208" t="n">
-        <v>-0.001753919488569158</v>
+        <v>-0.003414920978585732</v>
       </c>
       <c r="M208" t="n">
-        <v>0.360731614509349</v>
+        <v>0.3637677700831249</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09764602636324241</v>
+        <v>0.09665491395206539</v>
       </c>
       <c r="O208" t="n">
-        <v>-0.003658681158112007</v>
+        <v>-0.003636095980140597</v>
       </c>
       <c r="P208" t="n">
-        <v>0.5801357528525214</v>
+        <v>0.5814101900786757</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.09657299353576343</v>
+        <v>0.09747755612270044</v>
       </c>
       <c r="R208" t="n">
-        <v>-0.004551148753415161</v>
+        <v>-0.004452609171330832</v>
       </c>
     </row>
     <row r="209">
       <c r="F209" t="n">
-        <v>0.06486136763034697</v>
+        <v>0.06593638836187389</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1000238535310465</v>
+        <v>0.09867149140999432</v>
       </c>
       <c r="H209" t="n">
-        <v>-0.002315834659081762</v>
+        <v>-0.004292696823851139</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1569161774213428</v>
+        <v>0.1539277775193192</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1005937624698841</v>
+        <v>0.09747581646856941</v>
       </c>
       <c r="L209" t="n">
-        <v>-0.001753919488569158</v>
+        <v>-0.003414920978585732</v>
       </c>
       <c r="M209" t="n">
-        <v>0.3612469973806661</v>
+        <v>0.3642753672591948</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09843989649627689</v>
+        <v>0.09744072626061877</v>
       </c>
       <c r="O209" t="n">
-        <v>-0.003658681158112007</v>
+        <v>-0.003636095980140597</v>
       </c>
       <c r="P209" t="n">
-        <v>0.5801504699895043</v>
+        <v>0.5815073638845353</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.09735813982467208</v>
+        <v>0.09827005657898256</v>
       </c>
       <c r="R209" t="n">
-        <v>-0.004551148753415161</v>
+        <v>-0.004452609171330832</v>
       </c>
     </row>
     <row r="210">
       <c r="F210" t="n">
-        <v>0.06491408014691802</v>
+        <v>0.06593195198065691</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1008304975111355</v>
+        <v>0.09946722924394588</v>
       </c>
       <c r="H210" t="n">
-        <v>-0.002315834659081762</v>
+        <v>-0.004293555449078432</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1570007774457226</v>
+        <v>0.1541782560915154</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1014050024898025</v>
+        <v>0.09826191176267078</v>
       </c>
       <c r="L210" t="n">
-        <v>-0.001753919488569158</v>
+        <v>-0.003414920978585732</v>
       </c>
       <c r="M210" t="n">
-        <v>0.3618130710697568</v>
+        <v>0.3645221100563369</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09923376662931138</v>
+        <v>0.09822653856917214</v>
       </c>
       <c r="O210" t="n">
-        <v>-0.003658681158112007</v>
+        <v>-0.003636095980140597</v>
       </c>
       <c r="P210" t="n">
-        <v>0.580243260197156</v>
+        <v>0.5817652430903889</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.09814328611358074</v>
+        <v>0.09906255703526468</v>
       </c>
       <c r="R210" t="n">
-        <v>-0.004551148753415161</v>
+        <v>-0.004452609171330832</v>
       </c>
     </row>
     <row r="211">
       <c r="F211" t="n">
-        <v>0.06496617685058519</v>
+        <v>0.0659363904583945</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1016371414912246</v>
+        <v>0.1002629670778974</v>
       </c>
       <c r="H211" t="n">
-        <v>-0.002311628300981359</v>
+        <v>-0.004293126136464785</v>
       </c>
       <c r="J211" t="n">
-        <v>0.157063507440811</v>
+        <v>0.1543673512397638</v>
       </c>
       <c r="K211" t="n">
-        <v>0.102216242509721</v>
+        <v>0.09904800705677215</v>
       </c>
       <c r="L211" t="n">
-        <v>-0.001753919488569158</v>
+        <v>-0.003315484074312225</v>
       </c>
       <c r="M211" t="n">
-        <v>0.3625818510995109</v>
+        <v>0.3649187202653978</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1000276367623459</v>
+        <v>0.09901235087772553</v>
       </c>
       <c r="O211" t="n">
-        <v>-0.003658681158112007</v>
+        <v>-0.003636095980140597</v>
       </c>
       <c r="P211" t="n">
-        <v>0.5804146882778445</v>
+        <v>0.5818510629167046</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.09892843240248937</v>
+        <v>0.09985505749154679</v>
       </c>
       <c r="R211" t="n">
-        <v>-0.004551148753415161</v>
+        <v>-0.004452609171330832</v>
       </c>
     </row>
     <row r="212">
       <c r="F212" t="n">
-        <v>0.065017606053263</v>
+        <v>0.06594068603452971</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1024437854713137</v>
+        <v>0.101058704911849</v>
       </c>
       <c r="H212" t="n">
-        <v>-0.002311628300981359</v>
+        <v>-0.004010239124305066</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1571252238232131</v>
+        <v>0.1545763993121487</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1030274825296394</v>
+        <v>0.0998341023508735</v>
       </c>
       <c r="L212" t="n">
-        <v>-0.001837306819389778</v>
+        <v>-0.003315484074312225</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3631416858895454</v>
+        <v>0.3653618255974895</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1008215068953804</v>
+        <v>0.09979816318627889</v>
       </c>
       <c r="O212" t="n">
-        <v>-0.003409504641690666</v>
+        <v>-0.003443488012547225</v>
       </c>
       <c r="P212" t="n">
-        <v>0.5803331500274863</v>
+        <v>0.5822638879893614</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.09971357869139802</v>
+        <v>0.1006475579478289</v>
       </c>
       <c r="R212" t="n">
-        <v>-0.004274217931938312</v>
+        <v>-0.004050124260540451</v>
       </c>
     </row>
     <row r="213">
       <c r="F213" t="n">
-        <v>0.06507724770809808</v>
+        <v>0.06595385778868759</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1032504294514028</v>
+        <v>0.1018544427458006</v>
       </c>
       <c r="H213" t="n">
-        <v>-0.002311628300981359</v>
+        <v>-0.004009036293134009</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1571446583168209</v>
+        <v>0.1548051571712685</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1038387225495578</v>
+        <v>0.1006201976449749</v>
       </c>
       <c r="L213" t="n">
-        <v>-0.001837306819389778</v>
+        <v>-0.003315484074312225</v>
       </c>
       <c r="M213" t="n">
-        <v>0.3636440390971455</v>
+        <v>0.365696160793311</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1016153770284148</v>
+        <v>0.1005839754948323</v>
       </c>
       <c r="O213" t="n">
-        <v>-0.003409504641690666</v>
+        <v>-0.003443488012547225</v>
       </c>
       <c r="P213" t="n">
-        <v>0.5806635061930653</v>
+        <v>0.5822547853533424</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.1004987249803067</v>
+        <v>0.101440058404111</v>
       </c>
       <c r="R213" t="n">
-        <v>-0.004274217931938312</v>
+        <v>-0.004050124260540451</v>
       </c>
     </row>
     <row r="214">
       <c r="F214" t="n">
-        <v>0.06513612847360006</v>
+        <v>0.06594884762659334</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1040570734314919</v>
+        <v>0.1026501805797521</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.002312321858827438</v>
+        <v>-0.00400983818058138</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1572669975006487</v>
+        <v>0.1549713844039115</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1046499625694762</v>
+        <v>0.1014062929390763</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.001837306819389778</v>
+        <v>-0.003315484074312225</v>
       </c>
       <c r="M214" t="n">
-        <v>0.3643439661129162</v>
+        <v>0.3662305158760445</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1024092471614493</v>
+        <v>0.1013697878033857</v>
       </c>
       <c r="O214" t="n">
-        <v>-0.003409504641690666</v>
+        <v>-0.003443488012547225</v>
       </c>
       <c r="P214" t="n">
-        <v>0.5807419523866083</v>
+        <v>0.5824061127183628</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.1012838712692153</v>
+        <v>0.1022325588603931</v>
       </c>
       <c r="R214" t="n">
-        <v>-0.004274217931938312</v>
+        <v>-0.004050124260540451</v>
       </c>
     </row>
     <row r="215">
       <c r="F215" t="n">
-        <v>0.06516737177450521</v>
+        <v>0.06595271321482189</v>
       </c>
       <c r="G215" t="n">
-        <v>0.104863717411581</v>
+        <v>0.1034459184137037</v>
       </c>
       <c r="H215" t="n">
-        <v>-0.002312090672878745</v>
+        <v>-0.003716975040285007</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1572852107618534</v>
+        <v>0.1552387476991566</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1054612025893946</v>
+        <v>0.1021923882331776</v>
       </c>
       <c r="L215" t="n">
-        <v>-0.001837306819389778</v>
+        <v>-0.003315484074312225</v>
       </c>
       <c r="M215" t="n">
-        <v>0.3648283598030616</v>
+        <v>0.3664481833901322</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1032031172944838</v>
+        <v>0.102155600111939</v>
       </c>
       <c r="O215" t="n">
-        <v>-0.003154677212100513</v>
+        <v>-0.003443488012547225</v>
       </c>
       <c r="P215" t="n">
-        <v>0.5806520200805898</v>
+        <v>0.5827178666649856</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.102069017558124</v>
+        <v>0.1030250593166753</v>
       </c>
       <c r="R215" t="n">
-        <v>-0.004274217931938312</v>
+        <v>-0.004050124260540451</v>
       </c>
     </row>
     <row r="216">
       <c r="F216" t="n">
-        <v>0.06520666772133583</v>
+        <v>0.06595643504604837</v>
       </c>
       <c r="G216" t="n">
-        <v>0.10567036139167</v>
+        <v>0.1042416562476553</v>
       </c>
       <c r="H216" t="n">
-        <v>-0.002307719049654658</v>
+        <v>-0.003717346737789035</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1573237803002641</v>
+        <v>0.1554223867625777</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1062724426093131</v>
+        <v>0.102978483527279</v>
       </c>
       <c r="L216" t="n">
-        <v>-0.001922257795628778</v>
+        <v>-0.003204284756446949</v>
       </c>
       <c r="M216" t="n">
-        <v>0.3654038821533884</v>
+        <v>0.366968080597625</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1039969874275183</v>
+        <v>0.1029414124204924</v>
       </c>
       <c r="O216" t="n">
-        <v>-0.003154677212100513</v>
+        <v>-0.003233627954096892</v>
       </c>
       <c r="P216" t="n">
-        <v>0.5806434195583925</v>
+        <v>0.5828569602667943</v>
       </c>
       <c r="Q216" t="n">
-        <v>0.1028541638470326</v>
+        <v>0.1038175597729574</v>
       </c>
       <c r="R216" t="n">
-        <v>-0.003973334754646196</v>
+        <v>-0.00363429459862975</v>
       </c>
     </row>
     <row r="217">
       <c r="F217" t="n">
-        <v>0.0652718815714913</v>
+        <v>0.06596903371733891</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1064770053717591</v>
+        <v>0.1050373940816068</v>
       </c>
       <c r="H217" t="n">
-        <v>-0.002307488300824576</v>
+        <v>-0.003717346737789035</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1574451098680413</v>
+        <v>0.1556039930322139</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1070836826292315</v>
+        <v>0.1037645788213803</v>
       </c>
       <c r="L217" t="n">
-        <v>-0.001922257795628778</v>
+        <v>-0.003204284756446949</v>
       </c>
       <c r="M217" t="n">
-        <v>0.3661205663290715</v>
+        <v>0.3671695343628851</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1047908575605528</v>
+        <v>0.1037272247290458</v>
       </c>
       <c r="O217" t="n">
-        <v>-0.003154677212100513</v>
+        <v>-0.003233627954096892</v>
       </c>
       <c r="P217" t="n">
-        <v>0.5808828704909009</v>
+        <v>0.5827399335657104</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.1036393101359412</v>
+        <v>0.1046100602292395</v>
       </c>
       <c r="R217" t="n">
-        <v>-0.003973334754646196</v>
+        <v>-0.00363429459862975</v>
       </c>
     </row>
     <row r="218">
       <c r="F218" t="n">
-        <v>0.06532718068885907</v>
+        <v>0.06597246773637896</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1072836493518482</v>
+        <v>0.1058331319155584</v>
       </c>
       <c r="H218" t="n">
-        <v>-0.002307488300824576</v>
+        <v>-0.003717718435293063</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1575042112594017</v>
+        <v>0.1557832613149955</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1078949226491499</v>
+        <v>0.1045506741154817</v>
       </c>
       <c r="L218" t="n">
-        <v>-0.001922257795628778</v>
+        <v>-0.003204284756446949</v>
       </c>
       <c r="M218" t="n">
-        <v>0.3666153959151393</v>
+        <v>0.3675170662111809</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1055847276935873</v>
+        <v>0.1045130370375992</v>
       </c>
       <c r="O218" t="n">
-        <v>-0.003154677212100513</v>
+        <v>-0.003233627954096892</v>
       </c>
       <c r="P218" t="n">
-        <v>0.5809555391501039</v>
+        <v>0.5829496433115143</v>
       </c>
       <c r="Q218" t="n">
-        <v>0.1044244564248499</v>
+        <v>0.1054025606855216</v>
       </c>
       <c r="R218" t="n">
-        <v>-0.003973334754646196</v>
+        <v>-0.00363429459862975</v>
       </c>
     </row>
     <row r="219">
       <c r="F219" t="n">
-        <v>0.06535457864512317</v>
+        <v>0.06595771437600455</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1080902933319373</v>
+        <v>0.10662886974951</v>
       </c>
       <c r="H219" t="n">
-        <v>-0.002307949798484741</v>
+        <v>-0.003717718435293063</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1575011960596358</v>
+        <v>0.1560422869748849</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1087061626690683</v>
+        <v>0.1053367694095831</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.001922257795628778</v>
+        <v>-0.003204284756446949</v>
       </c>
       <c r="M219" t="n">
-        <v>0.3670409347581282</v>
+        <v>0.367906750693663</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1063785978266218</v>
+        <v>0.1052988493461525</v>
       </c>
       <c r="O219" t="n">
-        <v>-0.003154677212100513</v>
+        <v>-0.003233627954096892</v>
       </c>
       <c r="P219" t="n">
-        <v>0.580945013298419</v>
+        <v>0.5829863032969608</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.1052096027137585</v>
+        <v>0.1061950611418037</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.00365741164740482</v>
+        <v>-0.00363429459862975</v>
       </c>
     </row>
     <row r="220">
       <c r="F220" t="n">
-        <v>0.06540777175914028</v>
+        <v>0.06597890232161256</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1088969373120264</v>
+        <v>0.1074246075834615</v>
       </c>
       <c r="H220" t="n">
-        <v>-0.002304353410822677</v>
+        <v>-0.003422429298403205</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1576229988375134</v>
+        <v>0.1561954223860763</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1095174026889867</v>
+        <v>0.1061228647036844</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.002005001070443201</v>
+        <v>-0.003082754953243706</v>
       </c>
       <c r="M220" t="n">
-        <v>0.3677056830053683</v>
+        <v>0.3681825590735011</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1071724679596563</v>
+        <v>0.1060846616547059</v>
       </c>
       <c r="O220" t="n">
-        <v>-0.002904251268805107</v>
+        <v>-0.003016104364037151</v>
       </c>
       <c r="P220" t="n">
-        <v>0.5809349098028209</v>
+        <v>0.5833496591342052</v>
       </c>
       <c r="Q220" t="n">
-        <v>0.1059947490026672</v>
+        <v>0.1069875615980859</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.00365741164740482</v>
+        <v>-0.003230519292416105</v>
       </c>
     </row>
     <row r="221">
       <c r="F221" t="n">
-        <v>0.06543293379882852</v>
+        <v>0.06596385826474009</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1097035812921155</v>
+        <v>0.1082203454174131</v>
       </c>
       <c r="H221" t="n">
-        <v>-0.002303892632296218</v>
+        <v>-0.003422087055473365</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1576830146549466</v>
+        <v>0.1563865427635529</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1103286427089052</v>
+        <v>0.1069089599977858</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.002005001070443201</v>
+        <v>-0.003082754953243706</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3680903814644727</v>
+        <v>0.3686547719828124</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1079663380926908</v>
+        <v>0.1068704739632593</v>
       </c>
       <c r="O221" t="n">
-        <v>-0.002904251268805107</v>
+        <v>-0.003016104364037151</v>
       </c>
       <c r="P221" t="n">
-        <v>0.5811750929315875</v>
+        <v>0.5833731149082292</v>
       </c>
       <c r="Q221" t="n">
-        <v>0.1067798952915758</v>
+        <v>0.107780062054368</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.00365741164740482</v>
+        <v>-0.003230519292416105</v>
       </c>
     </row>
     <row r="222">
       <c r="F222" t="n">
-        <v>0.06550176052889559</v>
+        <v>0.06599377992705022</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1105102252722046</v>
+        <v>0.1090160832513647</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.002303892632296218</v>
+        <v>-0.003422771541333045</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1577021244868556</v>
+        <v>0.1566154568971355</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1111398827288236</v>
+        <v>0.1076950552918872</v>
       </c>
       <c r="L222" t="n">
-        <v>-0.002005001070443201</v>
+        <v>-0.003082754953243706</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3686072425084023</v>
+        <v>0.3688042460793122</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1087602082257253</v>
+        <v>0.1076562862718127</v>
       </c>
       <c r="O222" t="n">
-        <v>-0.002904251268805107</v>
+        <v>-0.003016104364037151</v>
       </c>
       <c r="P222" t="n">
-        <v>0.5813337000910525</v>
+        <v>0.5833064672801541</v>
       </c>
       <c r="Q222" t="n">
-        <v>0.1075650415804845</v>
+        <v>0.1085725625106501</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00365741164740482</v>
+        <v>-0.003230519292416105</v>
       </c>
     </row>
     <row r="223">
       <c r="F223" t="n">
-        <v>0.06552448942496691</v>
+        <v>0.06596942205108498</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1113168692522936</v>
+        <v>0.1098118210853162</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.002298553785189235</v>
+        <v>-0.003422771541333045</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1577427853547601</v>
+        <v>0.1567992660632375</v>
       </c>
       <c r="K223" t="n">
-        <v>0.111951122748742</v>
+        <v>0.1084811505859885</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.002005001070443201</v>
+        <v>-0.003082754953243706</v>
       </c>
       <c r="M223" t="n">
-        <v>0.3689952653608691</v>
+        <v>0.3691489355005217</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1095540783587597</v>
+        <v>0.1084420985803661</v>
       </c>
       <c r="O223" t="n">
-        <v>-0.002904251268805107</v>
+        <v>-0.003016104364037151</v>
       </c>
       <c r="P223" t="n">
-        <v>0.5811618726094405</v>
+        <v>0.583482989326115</v>
       </c>
       <c r="Q223" t="n">
-        <v>0.1083501878693931</v>
+        <v>0.1093650629669322</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00365741164740482</v>
+        <v>-0.003230519292416105</v>
       </c>
     </row>
     <row r="224">
       <c r="F224" t="n">
-        <v>0.065581839339743</v>
+        <v>0.06597198587128955</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1121235132323827</v>
+        <v>0.1106075589192678</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.002299013541921946</v>
+        <v>-0.003135070556626313</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1578675280048488</v>
+        <v>0.156916860421753</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1127623627686604</v>
+        <v>0.1092672458800899</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.002081800076783135</v>
+        <v>-0.002952814276055527</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3694081029102819</v>
+        <v>0.369532702180563</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1103479484917942</v>
+        <v>0.1092279108889194</v>
       </c>
       <c r="O224" t="n">
-        <v>-0.00266974198015306</v>
+        <v>-0.002803932369345358</v>
       </c>
       <c r="P224" t="n">
-        <v>0.5812419796678666</v>
+        <v>0.5835692409286239</v>
       </c>
       <c r="Q224" t="n">
-        <v>0.1091353341583018</v>
+        <v>0.1101575634232143</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.003342161998208051</v>
+        <v>-0.002861846277412961</v>
       </c>
     </row>
     <row r="225">
       <c r="F225" t="n">
-        <v>0.06560192501913836</v>
+        <v>0.06600147348144017</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1129301572124718</v>
+        <v>0.1114032967532194</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.002298783663555591</v>
+        <v>-0.003135070556626313</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1578894925733059</v>
+        <v>0.1571334666135019</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1135736027885789</v>
+        <v>0.1100533411741913</v>
       </c>
       <c r="L225" t="n">
-        <v>-0.002081800076783135</v>
+        <v>-0.002952814276055527</v>
       </c>
       <c r="M225" t="n">
-        <v>0.3698959442874393</v>
+        <v>0.3696431481536887</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1111418186248287</v>
+        <v>0.1100137231974728</v>
       </c>
       <c r="O225" t="n">
-        <v>-0.00266974198015306</v>
+        <v>-0.002803932369345358</v>
       </c>
       <c r="P225" t="n">
-        <v>0.5815746303888908</v>
+        <v>0.5838151965646646</v>
       </c>
       <c r="Q225" t="n">
-        <v>0.1099204804472104</v>
+        <v>0.1109500638794964</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.003342161998208051</v>
+        <v>-0.002861846277412961</v>
       </c>
     </row>
     <row r="226">
       <c r="F226" t="n">
-        <v>0.06564757062680859</v>
+        <v>0.06600374643539944</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1137368011925609</v>
+        <v>0.112199034587171</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.002298553785189235</v>
+        <v>-0.003135384095035817</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1579543157763743</v>
+        <v>0.1572832121414924</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1143848428084973</v>
+        <v>0.1108394364682926</v>
       </c>
       <c r="L226" t="n">
-        <v>-0.002081800076783135</v>
+        <v>-0.002952814276055527</v>
       </c>
       <c r="M226" t="n">
-        <v>0.3700929860730678</v>
+        <v>0.369895187749502</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1119356887578632</v>
+        <v>0.1107995355060262</v>
       </c>
       <c r="O226" t="n">
-        <v>-0.00266974198015306</v>
+        <v>-0.002803932369345358</v>
       </c>
       <c r="P226" t="n">
-        <v>0.581412094116589</v>
+        <v>0.5836372008998019</v>
       </c>
       <c r="Q226" t="n">
-        <v>0.1107056267361191</v>
+        <v>0.1117425643357786</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.003342161998208051</v>
+        <v>-0.002861846277412961</v>
       </c>
     </row>
     <row r="227">
       <c r="F227" t="n">
-        <v>0.06568278826579729</v>
+        <v>0.06598782606632132</v>
       </c>
       <c r="G227" t="n">
-        <v>0.11454344517265</v>
+        <v>0.1129947724211225</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.002298553785189235</v>
+        <v>-0.003135070556626313</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1580622013233168</v>
+        <v>0.1574693636283787</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1151960828284157</v>
+        <v>0.111625531762394</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.002081800076783135</v>
+        <v>-0.002952814276055527</v>
       </c>
       <c r="M227" t="n">
-        <v>0.3705172797545142</v>
+        <v>0.3702363724822653</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1127295588908977</v>
+        <v>0.1115853478145796</v>
       </c>
       <c r="O227" t="n">
-        <v>-0.00266974198015306</v>
+        <v>-0.002803932369345358</v>
       </c>
       <c r="P227" t="n">
-        <v>0.5816694924895027</v>
+        <v>0.5837854649890291</v>
       </c>
       <c r="Q227" t="n">
-        <v>0.1114907730250277</v>
+        <v>0.1125350647920607</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.003342161998208051</v>
+        <v>-0.002861846277412961</v>
       </c>
     </row>
     <row r="228">
       <c r="F228" t="n">
-        <v>0.06571651124497757</v>
+        <v>0.06598980613322807</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1153500891527391</v>
+        <v>0.1137905102550741</v>
       </c>
       <c r="H228" t="n">
-        <v>-0.002294016305903689</v>
+        <v>-0.002866448875140241</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1581301193385234</v>
+        <v>0.1575879085248167</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1160073228483341</v>
+        <v>0.1124116270564954</v>
       </c>
       <c r="L228" t="n">
-        <v>-0.002149165936984789</v>
+        <v>-0.002819648978991302</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3707507701367769</v>
+        <v>0.3704059756254908</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1135234290239322</v>
+        <v>0.1123711601231329</v>
       </c>
       <c r="O228" t="n">
-        <v>-0.002463391533522781</v>
+        <v>-0.002605642328926427</v>
       </c>
       <c r="P228" t="n">
-        <v>0.5815989880606264</v>
+        <v>0.5837596644651913</v>
       </c>
       <c r="Q228" t="n">
-        <v>0.1122759193139363</v>
+        <v>0.1133275652483428</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.003037447382828704</v>
+        <v>-0.002552617897294752</v>
       </c>
     </row>
     <row r="229">
       <c r="F229" t="n">
-        <v>0.06573069031402567</v>
+        <v>0.06600968761026717</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1161567331328281</v>
+        <v>0.1145862480890257</v>
       </c>
       <c r="H229" t="n">
-        <v>-0.002293328238625373</v>
+        <v>-0.002866162287570241</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1581790096811043</v>
+        <v>0.1577630581960124</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1168185628682525</v>
+        <v>0.1131977223505967</v>
       </c>
       <c r="L229" t="n">
-        <v>-0.002149165936984789</v>
+        <v>-0.002819648978991302</v>
       </c>
       <c r="M229" t="n">
-        <v>0.3711038975017126</v>
+        <v>0.3707155127044248</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1143172991569667</v>
+        <v>0.1131569724316863</v>
       </c>
       <c r="O229" t="n">
-        <v>-0.002463391533522781</v>
+        <v>-0.002605642328926427</v>
       </c>
       <c r="P229" t="n">
-        <v>0.5818664261377594</v>
+        <v>0.5838932301031986</v>
       </c>
       <c r="Q229" t="n">
-        <v>0.113061065602845</v>
+        <v>0.1141200657046249</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.003037447382828704</v>
+        <v>-0.002552617897294752</v>
       </c>
     </row>
     <row r="230">
       <c r="F230" t="n">
-        <v>0.06577026461480859</v>
+        <v>0.06601137472657735</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1169633771129172</v>
+        <v>0.1153819859229772</v>
       </c>
       <c r="H230" t="n">
-        <v>-0.002293328238625373</v>
+        <v>-0.002865875700000241</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1582090156729619</v>
+        <v>0.157932270505966</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1176298028881709</v>
+        <v>0.1139838176446981</v>
       </c>
       <c r="L230" t="n">
-        <v>-0.002149165936984789</v>
+        <v>-0.002819648978991302</v>
       </c>
       <c r="M230" t="n">
-        <v>0.3711579807696008</v>
+        <v>0.3707999416721074</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1151111692900012</v>
+        <v>0.1139427847402397</v>
       </c>
       <c r="O230" t="n">
-        <v>-0.002463391533522781</v>
+        <v>-0.002605642328926427</v>
       </c>
       <c r="P230" t="n">
-        <v>0.5820565234069796</v>
+        <v>0.583852521199924</v>
       </c>
       <c r="Q230" t="n">
-        <v>0.1138462118917536</v>
+        <v>0.114912566160907</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.003037447382828704</v>
+        <v>-0.002552617897294752</v>
       </c>
     </row>
     <row r="231">
       <c r="F231" t="n">
-        <v>0.06581720001980627</v>
+        <v>0.06599486625624142</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1177700210930063</v>
+        <v>0.1161777237569288</v>
       </c>
       <c r="H231" t="n">
-        <v>-0.002294016305903689</v>
+        <v>-0.002866448875140241</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1583036008059088</v>
+        <v>0.1580744324192738</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1184410429080894</v>
+        <v>0.1147699129387995</v>
       </c>
       <c r="L231" t="n">
-        <v>-0.002149165936984789</v>
+        <v>-0.002819648978991302</v>
       </c>
       <c r="M231" t="n">
-        <v>0.3713279310549243</v>
+        <v>0.3709709725854945</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1159050394230357</v>
+        <v>0.1147285970487931</v>
       </c>
       <c r="O231" t="n">
-        <v>-0.002295610526892956</v>
+        <v>-0.002605642328926427</v>
       </c>
       <c r="P231" t="n">
-        <v>0.5820033858826463</v>
+        <v>0.5841378028393931</v>
       </c>
       <c r="Q231" t="n">
-        <v>0.1146313581806623</v>
+        <v>0.1157050666171892</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.003037447382828704</v>
+        <v>-0.002552617897294752</v>
       </c>
     </row>
     <row r="232">
       <c r="F232" t="n">
-        <v>0.06583542269852793</v>
+        <v>0.06599625889184378</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1185766650730954</v>
+        <v>0.1169734615908804</v>
       </c>
       <c r="H232" t="n">
-        <v>-0.002285704806489616</v>
+        <v>-0.002621272639782944</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1584213210203645</v>
+        <v>0.1582308333094788</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1192522829280078</v>
+        <v>0.1155560082329008</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.002202552774976718</v>
+        <v>-0.002684796588836882</v>
       </c>
       <c r="M232" t="n">
-        <v>0.3714555349121048</v>
+        <v>0.3712280511544785</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1166989095560702</v>
+        <v>0.1155144093573465</v>
       </c>
       <c r="O232" t="n">
-        <v>-0.002295610526892956</v>
+        <v>-0.002433775243990845</v>
       </c>
       <c r="P232" t="n">
-        <v>0.5822899309400671</v>
+        <v>0.5839984174449695</v>
       </c>
       <c r="Q232" t="n">
-        <v>0.1154165044695709</v>
+        <v>0.1164975670734713</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.002757934157910278</v>
+        <v>-0.00232624781034736</v>
       </c>
     </row>
     <row r="233">
       <c r="F233" t="n">
-        <v>0.06586089697985127</v>
+        <v>0.06601555325507313</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1193833090531845</v>
+        <v>0.1177691994248319</v>
       </c>
       <c r="H233" t="n">
-        <v>-0.002286161947450914</v>
+        <v>-0.00262153479326227</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1584789821091542</v>
+        <v>0.1583595423539941</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1200635229479262</v>
+        <v>0.1163421035270022</v>
       </c>
       <c r="L233" t="n">
-        <v>-0.002202552774976718</v>
+        <v>-0.002684796588836882</v>
       </c>
       <c r="M233" t="n">
-        <v>0.3716300851054505</v>
+        <v>0.371309972090557</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1174927796891047</v>
+        <v>0.1163002216658998</v>
       </c>
       <c r="O233" t="n">
-        <v>-0.002295610526892956</v>
+        <v>-0.002433775243990845</v>
       </c>
       <c r="P233" t="n">
-        <v>0.5822510433580378</v>
+        <v>0.5840180470162978</v>
       </c>
       <c r="Q233" t="n">
-        <v>0.1162016507584796</v>
+        <v>0.1172900675297534</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.002757934157910278</v>
+        <v>-0.00232624781034736</v>
       </c>
     </row>
     <row r="234">
       <c r="F234" t="n">
-        <v>0.06588456644184032</v>
+        <v>0.06600762644164844</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1201899530332736</v>
+        <v>0.1185649372587835</v>
       </c>
       <c r="H234" t="n">
-        <v>-0.002285933376970265</v>
+        <v>-0.002622059100220923</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1585183852769083</v>
+        <v>0.15848105903312</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1208747629678446</v>
+        <v>0.1171281988211036</v>
       </c>
       <c r="L234" t="n">
-        <v>-0.002202552774976718</v>
+        <v>-0.002684796588836882</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3717325376604043</v>
+        <v>0.3713202383208163</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1182866498221392</v>
+        <v>0.1170860339744532</v>
       </c>
       <c r="O234" t="n">
-        <v>-0.002295610526892956</v>
+        <v>-0.002433775243990845</v>
       </c>
       <c r="P234" t="n">
-        <v>0.582303295498501</v>
+        <v>0.5840335948508929</v>
       </c>
       <c r="Q234" t="n">
-        <v>0.1169867970473882</v>
+        <v>0.1180825679860355</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.002757934157910278</v>
+        <v>-0.00232624781034736</v>
       </c>
     </row>
     <row r="235">
       <c r="F235" t="n">
-        <v>0.06590637939124072</v>
+        <v>0.06599955158854562</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1209965970133627</v>
+        <v>0.1193606750927351</v>
       </c>
       <c r="H235" t="n">
-        <v>-0.002285933376970265</v>
+        <v>-0.002622059100220923</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1586439809015012</v>
+        <v>0.1585325114544135</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1216860029877631</v>
+        <v>0.1179142941152049</v>
       </c>
       <c r="L235" t="n">
-        <v>-0.002202552774976718</v>
+        <v>-0.002684796588836882</v>
       </c>
       <c r="M235" t="n">
-        <v>0.3716728469785969</v>
+        <v>0.3715710507207116</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1190805199551736</v>
+        <v>0.1178718462830066</v>
       </c>
       <c r="O235" t="n">
-        <v>-0.002295610526892956</v>
+        <v>-0.002433775243990845</v>
       </c>
       <c r="P235" t="n">
-        <v>0.582530515532069</v>
+        <v>0.5840335859208197</v>
       </c>
       <c r="Q235" t="n">
-        <v>0.1177719433362969</v>
+        <v>0.1188750684423176</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.002757934157910278</v>
+        <v>-0.00232624781034736</v>
       </c>
     </row>
     <row r="236">
       <c r="F236" t="n">
-        <v>0.06591726759841289</v>
+        <v>0.06600035337124467</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1218032409934517</v>
+        <v>0.1201564129266866</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.002276842460094362</v>
+        <v>-0.002412619739434364</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1587099392443506</v>
+        <v>0.1587012917655808</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1224972430076815</v>
+        <v>0.1187003894093063</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.002238023693246716</v>
+        <v>-0.002550518492663627</v>
       </c>
       <c r="M236" t="n">
-        <v>0.3715246095578527</v>
+        <v>0.3714881809277275</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1198743900882081</v>
+        <v>0.11865765859156</v>
       </c>
       <c r="O236" t="n">
-        <v>-0.002166693171581762</v>
+        <v>-0.002298859281334929</v>
       </c>
       <c r="P236" t="n">
-        <v>0.5828500611149929</v>
+        <v>0.5840217167720301</v>
       </c>
       <c r="Q236" t="n">
-        <v>0.1185570896252055</v>
+        <v>0.1196675688985997</v>
       </c>
       <c r="R236" t="n">
-        <v>-0.00251611839120484</v>
+        <v>-0.002191571173965717</v>
       </c>
     </row>
     <row r="237">
       <c r="F237" t="n">
-        <v>0.06592619231787777</v>
+        <v>0.06601003181640916</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1226098849735408</v>
+        <v>0.1209521507606382</v>
       </c>
       <c r="H237" t="n">
-        <v>-0.002276614775848352</v>
+        <v>-0.002412861025536918</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1587789859607435</v>
+        <v>0.1587993960541045</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1233084830275999</v>
+        <v>0.1194864847034077</v>
       </c>
       <c r="L237" t="n">
-        <v>-0.002238023693246716</v>
+        <v>-0.002550518492663627</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3714972587676445</v>
+        <v>0.3716446108021859</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1206682602212426</v>
+        <v>0.1194434709001133</v>
       </c>
       <c r="O237" t="n">
-        <v>-0.002166693171581762</v>
+        <v>-0.002298859281334929</v>
       </c>
       <c r="P237" t="n">
-        <v>0.5827628130878865</v>
+        <v>0.5840709855578347</v>
       </c>
       <c r="Q237" t="n">
-        <v>0.1193422359141142</v>
+        <v>0.1204600693548818</v>
       </c>
       <c r="R237" t="n">
-        <v>-0.00251611839120484</v>
+        <v>-0.002191571173965717</v>
       </c>
     </row>
     <row r="238">
       <c r="F238" t="n">
-        <v>0.06596016223136704</v>
+        <v>0.06599248701841756</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1234165289536299</v>
+        <v>0.1217478885945898</v>
       </c>
       <c r="H238" t="n">
-        <v>-0.002277297828586381</v>
+        <v>-0.002412861025536918</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1588721741746414</v>
+        <v>0.1588473149846193</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1241197230475183</v>
+        <v>0.120272579997509</v>
       </c>
       <c r="L238" t="n">
-        <v>-0.002238023693246716</v>
+        <v>-0.002550518492663627</v>
       </c>
       <c r="M238" t="n">
-        <v>0.3713303468350146</v>
+        <v>0.3716300851054505</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1214621303542771</v>
+        <v>0.1202292832086667</v>
       </c>
       <c r="O238" t="n">
-        <v>-0.002166693171581762</v>
+        <v>-0.002298859281334929</v>
       </c>
       <c r="P238" t="n">
-        <v>0.5830187723063197</v>
+        <v>0.5838481141365783</v>
       </c>
       <c r="Q238" t="n">
-        <v>0.1201273822030228</v>
+        <v>0.121252569811164</v>
       </c>
       <c r="R238" t="n">
-        <v>-0.00251611839120484</v>
+        <v>-0.002191571173965717</v>
       </c>
     </row>
     <row r="239">
       <c r="F239" t="n">
-        <v>0.06596501088715565</v>
+        <v>0.06599284338037513</v>
       </c>
       <c r="G239" t="n">
-        <v>0.124223172933719</v>
+        <v>0.1225436264285413</v>
       </c>
       <c r="H239" t="n">
-        <v>-0.002276614775848352</v>
+        <v>-0.002413102311639472</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1590105955973519</v>
+        <v>0.1589073725840872</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1249309630674367</v>
+        <v>0.1210586752916104</v>
       </c>
       <c r="L239" t="n">
-        <v>-0.002238023693246716</v>
+        <v>-0.002550518492663627</v>
       </c>
       <c r="M239" t="n">
-        <v>0.3713370183107745</v>
+        <v>0.3715773999412004</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1222560004873116</v>
+        <v>0.1210150955172201</v>
       </c>
       <c r="O239" t="n">
-        <v>-0.002166693171581762</v>
+        <v>-0.002203120898497298</v>
       </c>
       <c r="P239" t="n">
-        <v>0.5833687255647453</v>
+        <v>0.5838537895216003</v>
       </c>
       <c r="Q239" t="n">
-        <v>0.1209125284919314</v>
+        <v>0.1220450702674461</v>
       </c>
       <c r="R239" t="n">
-        <v>-0.00251611839120484</v>
+        <v>-0.002191571173965717</v>
       </c>
     </row>
     <row r="240">
       <c r="F240" t="n">
-        <v>0.06597676469941699</v>
+        <v>0.06600213517077802</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1250298169138081</v>
+        <v>0.1233393642624929</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.002266287919489585</v>
+        <v>-0.002249481312006376</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1591108391628386</v>
+        <v>0.1590210900009831</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1257422030873551</v>
+        <v>0.1218447705857118</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.002252779358240514</v>
+        <v>-0.002420391483465806</v>
       </c>
       <c r="M240" t="n">
-        <v>0.3711005492049932</v>
+        <v>0.3717135453202658</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1230498706203461</v>
+        <v>0.1218009078257735</v>
       </c>
       <c r="O240" t="n">
-        <v>-0.002042161767249654</v>
+        <v>-0.002203120898497298</v>
       </c>
       <c r="P240" t="n">
-        <v>0.5833965731334588</v>
+        <v>0.5837547447871483</v>
       </c>
       <c r="Q240" t="n">
-        <v>0.1216976747808401</v>
+        <v>0.1228375707237282</v>
       </c>
       <c r="R240" t="n">
-        <v>-0.002323151822583924</v>
+        <v>-0.002073176287376592</v>
       </c>
     </row>
     <row r="241">
       <c r="F241" t="n">
-        <v>0.06597732861137832</v>
+        <v>0.06601112690259782</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1258364608938972</v>
+        <v>0.1241351020964444</v>
       </c>
       <c r="H241" t="n">
-        <v>-0.002265834752539077</v>
+        <v>-0.002249481312006376</v>
       </c>
       <c r="J241" t="n">
-        <v>0.159226575360008</v>
+        <v>0.1590836891557358</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1265534431072736</v>
+        <v>0.1226308658798131</v>
       </c>
       <c r="L241" t="n">
-        <v>-0.002252779358240514</v>
+        <v>-0.002420391483465806</v>
       </c>
       <c r="M241" t="n">
-        <v>0.3709339944358305</v>
+        <v>0.3716117351515369</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1238437407533806</v>
+        <v>0.1225867201343268</v>
       </c>
       <c r="O241" t="n">
-        <v>-0.002042161767249654</v>
+        <v>-0.002203120898497298</v>
       </c>
       <c r="P241" t="n">
-        <v>0.5837694937297987</v>
+        <v>0.5836346843690642</v>
       </c>
       <c r="Q241" t="n">
-        <v>0.1224828210697487</v>
+        <v>0.1236300711800103</v>
       </c>
       <c r="R241" t="n">
-        <v>-0.002323151822583924</v>
+        <v>-0.002073176287376592</v>
       </c>
     </row>
     <row r="242">
       <c r="F242" t="n">
-        <v>0.06598469708769499</v>
+        <v>0.06600772062633975</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1266431048739862</v>
+        <v>0.124930839930396</v>
       </c>
       <c r="H242" t="n">
-        <v>-0.002265608169063823</v>
+        <v>-0.002249481312006376</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1593226373176293</v>
+        <v>0.1591157382757762</v>
       </c>
       <c r="K242" t="n">
-        <v>0.127364683127192</v>
+        <v>0.1234169611739145</v>
       </c>
       <c r="L242" t="n">
-        <v>-0.002252779358240514</v>
+        <v>-0.002420391483465806</v>
       </c>
       <c r="M242" t="n">
-        <v>0.3706813651093049</v>
+        <v>0.3714809870322463</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1246376108864151</v>
+        <v>0.1233725324428802</v>
       </c>
       <c r="O242" t="n">
-        <v>-0.002042161767249654</v>
+        <v>-0.002203120898497298</v>
       </c>
       <c r="P242" t="n">
-        <v>0.5838212221844448</v>
+        <v>0.5836606183363724</v>
       </c>
       <c r="Q242" t="n">
-        <v>0.1232679673586574</v>
+        <v>0.1244225716362924</v>
       </c>
       <c r="R242" t="n">
-        <v>-0.002323151822583924</v>
+        <v>-0.002073176287376592</v>
       </c>
     </row>
     <row r="243">
       <c r="F243" t="n">
-        <v>0.06600213517077802</v>
+        <v>0.06600784296291203</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1274497488540753</v>
+        <v>0.1257265777643476</v>
       </c>
       <c r="H243" t="n">
-        <v>-0.002265834752539077</v>
+        <v>-0.002249256408855805</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1594338188820261</v>
+        <v>0.1592005821057991</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1281759231471104</v>
+        <v>0.1242030564680159</v>
       </c>
       <c r="L243" t="n">
-        <v>-0.002252779358240514</v>
+        <v>-0.002296918542983279</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3702390043991286</v>
+        <v>0.3713216665916753</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1254314810194496</v>
+        <v>0.1241583447514336</v>
       </c>
       <c r="O243" t="n">
-        <v>-0.002042161767249654</v>
+        <v>-0.002203120898497298</v>
       </c>
       <c r="P243" t="n">
-        <v>0.5840335948508929</v>
+        <v>0.5832494283462925</v>
       </c>
       <c r="Q243" t="n">
-        <v>0.124053113647566</v>
+        <v>0.1252150720925745</v>
       </c>
       <c r="R243" t="n">
-        <v>-0.002323151822583924</v>
+        <v>-0.002073176287376592</v>
       </c>
     </row>
     <row r="244">
       <c r="F244" t="n">
-        <v>0.06600159851291788</v>
+        <v>0.06596651578055999</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1282563928341644</v>
+        <v>0.1265223155982992</v>
       </c>
       <c r="H244" t="n">
-        <v>-0.002251678362592381</v>
+        <v>-0.002109893205552234</v>
       </c>
       <c r="J244" t="n">
-        <v>0.159569261784664</v>
+        <v>0.1592333515987213</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1289871631670288</v>
+        <v>0.1249891517621172</v>
       </c>
       <c r="L244" t="n">
-        <v>-0.002244612362344466</v>
+        <v>-0.002296918542983279</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3700754998747803</v>
+        <v>0.3712383869937118</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1262253511524841</v>
+        <v>0.124944157059987</v>
       </c>
       <c r="O244" t="n">
-        <v>-0.001921986243649994</v>
+        <v>-0.002114229164033183</v>
       </c>
       <c r="P244" t="n">
-        <v>0.5843264640374981</v>
+        <v>0.583151521864156</v>
       </c>
       <c r="Q244" t="n">
-        <v>0.1248382599364747</v>
+        <v>0.1260075725488567</v>
       </c>
       <c r="R244" t="n">
-        <v>-0.002184036329037613</v>
+        <v>-0.001959335732468833</v>
       </c>
     </row>
     <row r="245">
       <c r="F245" t="n">
-        <v>0.06601936193347639</v>
+        <v>0.06595606217418842</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1290630368142535</v>
+        <v>0.1273180534322507</v>
       </c>
       <c r="H245" t="n">
-        <v>-0.002251453217270654</v>
+        <v>-0.002110104173775967</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1596660497678484</v>
+        <v>0.1592346426476647</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1297984031869472</v>
+        <v>0.1257752470562186</v>
       </c>
       <c r="L245" t="n">
-        <v>-0.002244612362344466</v>
+        <v>-0.002296918542983279</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3696189914471449</v>
+        <v>0.3710229855684717</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1270192212855186</v>
+        <v>0.1257299693685404</v>
       </c>
       <c r="O245" t="n">
-        <v>-0.001921986243649994</v>
+        <v>-0.002114229164033183</v>
       </c>
       <c r="P245" t="n">
-        <v>0.5848301361677478</v>
+        <v>0.5831171016649921</v>
       </c>
       <c r="Q245" t="n">
-        <v>0.1256234062253833</v>
+        <v>0.1268000730051388</v>
       </c>
       <c r="R245" t="n">
-        <v>-0.002184036329037613</v>
+        <v>-0.001959335732468833</v>
       </c>
     </row>
     <row r="246">
       <c r="F246" t="n">
-        <v>0.06599794871644965</v>
+        <v>0.06594954134430751</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1298696807943426</v>
+        <v>0.1281137912662023</v>
       </c>
       <c r="H246" t="n">
-        <v>-0.002251678362592381</v>
+        <v>-0.002109893205552234</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1597450297863956</v>
+        <v>0.159226575360008</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1306096432068657</v>
+        <v>0.12656134235032</v>
       </c>
       <c r="L246" t="n">
-        <v>-0.002244612362344466</v>
+        <v>-0.002296918542983279</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3692857400787987</v>
+        <v>0.3708321907769706</v>
       </c>
       <c r="N246" t="n">
-        <v>0.127813091418553</v>
+        <v>0.1265157816770937</v>
       </c>
       <c r="O246" t="n">
-        <v>-0.001921986243649994</v>
+        <v>-0.002114229164033183</v>
       </c>
       <c r="P246" t="n">
-        <v>0.5852282903197691</v>
+        <v>0.5827300420031386</v>
       </c>
       <c r="Q246" t="n">
-        <v>0.126408552514292</v>
+        <v>0.1275925734614209</v>
       </c>
       <c r="R246" t="n">
-        <v>-0.002184036329037613</v>
+        <v>-0.001959335732468833</v>
       </c>
     </row>
     <row r="247">
       <c r="F247" t="n">
-        <v>0.0659800068097232</v>
+        <v>0.06589299083196232</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1306763247744317</v>
+        <v>0.1289095291001539</v>
       </c>
       <c r="H247" t="n">
-        <v>-0.002251228071948927</v>
+        <v>-0.001975338948268672</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1598900616515411</v>
+        <v>0.1592672698632126</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1314208832267841</v>
+        <v>0.1273474376444213</v>
       </c>
       <c r="L247" t="n">
-        <v>-0.002244612362344466</v>
+        <v>-0.002296918542983279</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3687644252671395</v>
+        <v>0.3706142357254266</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1286069615515875</v>
+        <v>0.1273015939856471</v>
       </c>
       <c r="O247" t="n">
-        <v>-0.001921986243649994</v>
+        <v>-0.002114229164033183</v>
       </c>
       <c r="P247" t="n">
-        <v>0.5854355763505359</v>
+        <v>0.5826569225555409</v>
       </c>
       <c r="Q247" t="n">
-        <v>0.1271936988032006</v>
+        <v>0.128385073917703</v>
       </c>
       <c r="R247" t="n">
-        <v>-0.002184036329037613</v>
+        <v>-0.001959335732468833</v>
       </c>
     </row>
     <row r="248">
       <c r="F248" t="n">
-        <v>0.06593885548958987</v>
+        <v>0.065876712957374</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1314829687545208</v>
+        <v>0.1297052669341054</v>
       </c>
       <c r="H248" t="n">
-        <v>-0.002217073731491936</v>
+        <v>-0.001975734055569056</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1600381947271478</v>
+        <v>0.159257613987993</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1322321232467025</v>
+        <v>0.1281335329385227</v>
       </c>
       <c r="L248" t="n">
-        <v>-0.00221755326960755</v>
+        <v>-0.002180154240829902</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3683667876234579</v>
+        <v>0.3705256038146105</v>
       </c>
       <c r="N248" t="n">
-        <v>0.129400831684622</v>
+        <v>0.1280874062942005</v>
       </c>
       <c r="O248" t="n">
-        <v>-0.001805036163829353</v>
+        <v>-0.002028841611605926</v>
       </c>
       <c r="P248" t="n">
-        <v>0.5861187982586563</v>
+        <v>0.5823151934473426</v>
       </c>
       <c r="Q248" t="n">
-        <v>0.1279788450921092</v>
+        <v>0.1291775743739851</v>
       </c>
       <c r="R248" t="n">
-        <v>-0.002055717825388707</v>
+        <v>-0.001851769713417813</v>
       </c>
     </row>
     <row r="249">
       <c r="F249" t="n">
-        <v>0.06588390884085002</v>
+        <v>0.06583773766173354</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1322896127346098</v>
+        <v>0.130501004768057</v>
       </c>
       <c r="H249" t="n">
-        <v>-0.002217073731491936</v>
+        <v>-0.001975338948268672</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1601263276767151</v>
+        <v>0.1592382501927042</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1330433632666209</v>
+        <v>0.1289196282326241</v>
       </c>
       <c r="L249" t="n">
-        <v>-0.00221755326960755</v>
+        <v>-0.002180154240829902</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3679373730066712</v>
+        <v>0.3700982726218798</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1301947018176565</v>
+        <v>0.1288732186027539</v>
       </c>
       <c r="O249" t="n">
-        <v>-0.001805036163829353</v>
+        <v>-0.002028841611605926</v>
       </c>
       <c r="P249" t="n">
-        <v>0.5867752396897602</v>
+        <v>0.5818717951282019</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.1287639913810179</v>
+        <v>0.1299700748302673</v>
       </c>
       <c r="R249" t="n">
-        <v>-0.002055717825388707</v>
+        <v>-0.001851769713417813</v>
       </c>
     </row>
     <row r="250">
       <c r="F250" t="n">
-        <v>0.06578854355286554</v>
+        <v>0.065794232928077</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1330962567146989</v>
+        <v>0.1312967426020085</v>
       </c>
       <c r="H250" t="n">
-        <v>-0.002216630361082678</v>
+        <v>-0.001975536501918864</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1602804518158727</v>
+        <v>0.1591883836427849</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1338546032865394</v>
+        <v>0.1297057235267254</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.00221755326960755</v>
+        <v>-0.002180154240829902</v>
       </c>
       <c r="M250" t="n">
-        <v>0.367476497550936</v>
+        <v>0.3699569343488387</v>
       </c>
       <c r="N250" t="n">
-        <v>0.130988571950691</v>
+        <v>0.1296590309113072</v>
       </c>
       <c r="O250" t="n">
-        <v>-0.001805036163829353</v>
+        <v>-0.002028841611605926</v>
       </c>
       <c r="P250" t="n">
-        <v>0.5874031861265501</v>
+        <v>0.5818261288459784</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.1295491376699266</v>
+        <v>0.1307625752865494</v>
       </c>
       <c r="R250" t="n">
-        <v>-0.002055717825388707</v>
+        <v>-0.001851769713417813</v>
       </c>
     </row>
     <row r="251">
       <c r="F251" t="n">
-        <v>0.06571619822934778</v>
+        <v>0.06573733817557824</v>
       </c>
       <c r="G251" t="n">
-        <v>0.133902900694788</v>
+        <v>0.1320924804359601</v>
       </c>
       <c r="H251" t="n">
-        <v>-0.002216852046287307</v>
+        <v>-0.001975536501918864</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1603954215312831</v>
+        <v>0.1591081477722291</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1346658433064578</v>
+        <v>0.1304918188208268</v>
       </c>
       <c r="L251" t="n">
-        <v>-0.00221755326960755</v>
+        <v>-0.002180154240829902</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3668811116348999</v>
+        <v>0.369633810788613</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1317824420837255</v>
+        <v>0.1304448432198606</v>
       </c>
       <c r="O251" t="n">
-        <v>-0.001805036163829353</v>
+        <v>-0.001946457770155876</v>
       </c>
       <c r="P251" t="n">
-        <v>0.5878333062617536</v>
+        <v>0.5812635656434094</v>
       </c>
       <c r="Q251" t="n">
-        <v>0.1303342839588352</v>
+        <v>0.1315550757428315</v>
       </c>
       <c r="R251" t="n">
-        <v>-0.002055717825388707</v>
+        <v>-0.001851769713417813</v>
       </c>
     </row>
     <row r="252">
       <c r="F252" t="n">
-        <v>0.06563121371743193</v>
+        <v>0.06570318032617528</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1347095446748771</v>
+        <v>0.1328882182699117</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.002152864757660253</v>
+        <v>-0.001847188481702877</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1605763739829898</v>
+        <v>0.1590604060134634</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1354770833263762</v>
+        <v>0.1312779141149281</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.002172739476136688</v>
+        <v>-0.002060118594939718</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3662551272594903</v>
+        <v>0.3692853040795097</v>
       </c>
       <c r="N252" t="n">
-        <v>0.13257631221676</v>
+        <v>0.131230655528414</v>
       </c>
       <c r="O252" t="n">
-        <v>-0.001693981080270699</v>
+        <v>-0.001946457770155876</v>
       </c>
       <c r="P252" t="n">
-        <v>0.5885665706554803</v>
+        <v>0.5810991137941164</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1311194302477439</v>
+        <v>0.1323475761991136</v>
       </c>
       <c r="R252" t="n">
-        <v>-0.001932362735204859</v>
+        <v>-0.001750326353845361</v>
       </c>
     </row>
     <row r="253">
       <c r="F253" t="n">
-        <v>0.06551602378928581</v>
+        <v>0.06561994631912378</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1355161886549662</v>
+        <v>0.1336839561038633</v>
       </c>
       <c r="H253" t="n">
-        <v>-0.002152864757660253</v>
+        <v>-0.001847188481702877</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1606758898955493</v>
+        <v>0.1590661540534257</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1362883233462946</v>
+        <v>0.1320640094090295</v>
       </c>
       <c r="L253" t="n">
-        <v>-0.002172739476136688</v>
+        <v>-0.002060118594939718</v>
       </c>
       <c r="M253" t="n">
-        <v>0.365650444222937</v>
+        <v>0.3689117712735404</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1333701823497945</v>
+        <v>0.1320164678369674</v>
       </c>
       <c r="O253" t="n">
-        <v>-0.001693981080270699</v>
+        <v>-0.001946457770155876</v>
       </c>
       <c r="P253" t="n">
-        <v>0.5893502493564979</v>
+        <v>0.5808341774188456</v>
       </c>
       <c r="Q253" t="n">
-        <v>0.1319045765366525</v>
+        <v>0.1331400766553957</v>
       </c>
       <c r="R253" t="n">
-        <v>-0.001932362735204859</v>
+        <v>-0.001750326353845361</v>
       </c>
     </row>
     <row r="254">
       <c r="F254" t="n">
-        <v>0.06538901523879377</v>
+        <v>0.06555971550693818</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1363228326350553</v>
+        <v>0.1344796939378148</v>
       </c>
       <c r="H254" t="n">
-        <v>-0.002152434227761711</v>
+        <v>-0.00184700379979109</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1608202444208409</v>
+        <v>0.1590000793397176</v>
       </c>
       <c r="K254" t="n">
-        <v>0.137099563366213</v>
+        <v>0.1328501047031309</v>
       </c>
       <c r="L254" t="n">
-        <v>-0.002172739476136688</v>
+        <v>-0.002060118594939718</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3649642035860672</v>
+        <v>0.3683580464564831</v>
       </c>
       <c r="N254" t="n">
-        <v>0.134164052482829</v>
+        <v>0.1328022801455207</v>
       </c>
       <c r="O254" t="n">
-        <v>-0.001693981080270699</v>
+        <v>-0.001946457770155876</v>
       </c>
       <c r="P254" t="n">
-        <v>0.5902668098162485</v>
+        <v>0.5804691670714035</v>
       </c>
       <c r="Q254" t="n">
-        <v>0.1326897228255612</v>
+        <v>0.1339325771116778</v>
       </c>
       <c r="R254" t="n">
-        <v>-0.001932362735204859</v>
+        <v>-0.001750326353845361</v>
       </c>
     </row>
     <row r="255">
       <c r="F255" t="n">
-        <v>0.06526848516110466</v>
+        <v>0.06550462110940505</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1371294766151443</v>
+        <v>0.1352754317717664</v>
       </c>
       <c r="H255" t="n">
-        <v>-0.002153080022609524</v>
+        <v>-0.001847188481702877</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1609883672927123</v>
+        <v>0.1589041398535583</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1379108033861315</v>
+        <v>0.1336361999972323</v>
       </c>
       <c r="L255" t="n">
-        <v>-0.002172739476136688</v>
+        <v>-0.001936458088465983</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3642998005110762</v>
+        <v>0.3679874580874326</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1349579226158635</v>
+        <v>0.1335880924540741</v>
       </c>
       <c r="O255" t="n">
-        <v>-0.001693981080270699</v>
+        <v>-0.001946457770155876</v>
       </c>
       <c r="P255" t="n">
-        <v>0.5911467274349914</v>
+        <v>0.5798385192469607</v>
       </c>
       <c r="Q255" t="n">
-        <v>0.1334748691144698</v>
+        <v>0.13472507756796</v>
       </c>
       <c r="R255" t="n">
-        <v>-0.001932362735204859</v>
+        <v>-0.001750326353845361</v>
       </c>
     </row>
     <row r="256">
       <c r="F256" t="n">
-        <v>0.06513686764063001</v>
+        <v>0.06543684374034178</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1379361205952334</v>
+        <v>0.136071169605718</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.002062774526629235</v>
+        <v>-0.001723863119577498</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1611591315653371</v>
+        <v>0.1588411224825346</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1387220434060499</v>
+        <v>0.1344222952913336</v>
       </c>
       <c r="L256" t="n">
-        <v>-0.002111934168298331</v>
+        <v>-0.001936458088465983</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3637087269674424</v>
+        <v>0.3676445867945525</v>
       </c>
       <c r="N256" t="n">
-        <v>0.135751792748898</v>
+        <v>0.1343739047626275</v>
       </c>
       <c r="O256" t="n">
-        <v>-0.001587356468503646</v>
+        <v>-0.001868673873173399</v>
       </c>
       <c r="P256" t="n">
-        <v>0.5922408007237759</v>
+        <v>0.5794406175821644</v>
       </c>
       <c r="Q256" t="n">
-        <v>0.1342600154033785</v>
+        <v>0.1355175780242421</v>
       </c>
       <c r="R256" t="n">
-        <v>-0.001815295273727701</v>
+        <v>-0.00165728275359259</v>
       </c>
     </row>
     <row r="257">
       <c r="F257" t="n">
-        <v>0.06496778230160109</v>
+        <v>0.06538342574777081</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1387427645753225</v>
+        <v>0.1368669074396695</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.002062774526629235</v>
+        <v>-0.001724380330234437</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1612902219212456</v>
+        <v>0.1587484841633166</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1395332834259683</v>
+        <v>0.135208390585435</v>
       </c>
       <c r="L257" t="n">
-        <v>-0.002111934168298331</v>
+        <v>-0.001936458088465983</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3628831140800812</v>
+        <v>0.3670193987894652</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1365456628819325</v>
+        <v>0.1351597170711809</v>
       </c>
       <c r="O257" t="n">
-        <v>-0.001587356468503646</v>
+        <v>-0.001868673873173399</v>
       </c>
       <c r="P257" t="n">
-        <v>0.59295792264269</v>
+        <v>0.5791095933584003</v>
       </c>
       <c r="Q257" t="n">
-        <v>0.1350451616922871</v>
+        <v>0.1363100784805242</v>
       </c>
       <c r="R257" t="n">
-        <v>-0.001815295273727701</v>
+        <v>-0.00165728275359259</v>
       </c>
     </row>
     <row r="258">
       <c r="F258" t="n">
-        <v>0.06482410602642416</v>
+        <v>0.0653086446875797</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1395494085554116</v>
+        <v>0.1376626452736211</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.002062568249176572</v>
+        <v>-0.001724207926682124</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1614660662129434</v>
+        <v>0.1586263745817826</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1403445234458867</v>
+        <v>0.1359944858795364</v>
       </c>
       <c r="L258" t="n">
-        <v>-0.002111934168298331</v>
+        <v>-0.001936458088465983</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3621314818073861</v>
+        <v>0.366629554821407</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1373395330149669</v>
+        <v>0.1359455293797343</v>
       </c>
       <c r="O258" t="n">
-        <v>-0.001587356468503646</v>
+        <v>-0.001868673873173399</v>
       </c>
       <c r="P258" t="n">
-        <v>0.5940546899060634</v>
+        <v>0.5786798929409397</v>
       </c>
       <c r="Q258" t="n">
-        <v>0.1358303079811957</v>
+        <v>0.1371025789368063</v>
       </c>
       <c r="R258" t="n">
-        <v>-0.001815295273727701</v>
+        <v>-0.00165728275359259</v>
       </c>
     </row>
     <row r="259">
       <c r="F259" t="n">
-        <v>0.06465269427812055</v>
+        <v>0.06521268336825455</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1403560525355007</v>
+        <v>0.1384583831075727</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.001950524594612998</v>
+        <v>-0.001724207926682124</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1616020591171419</v>
+        <v>0.1584957981446411</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1411557634658051</v>
+        <v>0.1367805811736377</v>
       </c>
       <c r="L259" t="n">
-        <v>-0.002111934168298331</v>
+        <v>-0.001936458088465983</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3615048449881075</v>
+        <v>0.3660618089543979</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1381334031480014</v>
+        <v>0.1367313416882876</v>
       </c>
       <c r="O259" t="n">
-        <v>-0.001587356468503646</v>
+        <v>-0.001868673873173399</v>
       </c>
       <c r="P259" t="n">
-        <v>0.595277237626306</v>
+        <v>0.5784004269278847</v>
       </c>
       <c r="Q259" t="n">
-        <v>0.1366154542701044</v>
+        <v>0.1378950793930884</v>
       </c>
       <c r="R259" t="n">
-        <v>-0.001815295273727701</v>
+        <v>-0.00165728275359259</v>
       </c>
     </row>
     <row r="260">
       <c r="F260" t="n">
-        <v>0.06445404015903761</v>
+        <v>0.0651225423610087</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1411626965155897</v>
+        <v>0.1392541209415242</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.001950524594612998</v>
+        <v>-0.001607420156551662</v>
       </c>
       <c r="J260" t="n">
-        <v>0.161740399907755</v>
+        <v>0.1583777170452893</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1419670034857236</v>
+        <v>0.1375666764677391</v>
       </c>
       <c r="L260" t="n">
-        <v>-0.002036207116991989</v>
+        <v>-0.001808850604640108</v>
       </c>
       <c r="M260" t="n">
-        <v>0.360696445153759</v>
+        <v>0.3654716463288882</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1389272732810359</v>
+        <v>0.137517153996841</v>
       </c>
       <c r="O260" t="n">
-        <v>-0.001487471588026832</v>
+        <v>-0.00179609260344574</v>
       </c>
       <c r="P260" t="n">
-        <v>0.5962858658356077</v>
+        <v>0.5778573431929391</v>
       </c>
       <c r="Q260" t="n">
-        <v>0.137400600559013</v>
+        <v>0.1386875798493706</v>
       </c>
       <c r="R260" t="n">
-        <v>-0.001704991654260693</v>
+        <v>-0.001573749579932381</v>
       </c>
     </row>
     <row r="261">
       <c r="F261" t="n">
-        <v>0.06426405641637266</v>
+        <v>0.06505619525719848</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1419693404956789</v>
+        <v>0.1400498587754758</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.001950524594612998</v>
+        <v>-0.001607902430826055</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1619446068618863</v>
+        <v>0.1582930428985991</v>
       </c>
       <c r="K261" t="n">
-        <v>0.142778243505642</v>
+        <v>0.1383527717618405</v>
       </c>
       <c r="L261" t="n">
-        <v>-0.002036207116991989</v>
+        <v>-0.001808850604640108</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3597583110914717</v>
+        <v>0.3650139193376941</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1397211434140704</v>
+        <v>0.1383029663053944</v>
       </c>
       <c r="O261" t="n">
-        <v>-0.001487471588026832</v>
+        <v>-0.00179609260344574</v>
       </c>
       <c r="P261" t="n">
-        <v>0.5972474864823971</v>
+        <v>0.5773822914756308</v>
       </c>
       <c r="Q261" t="n">
-        <v>0.1381857468479216</v>
+        <v>0.1394800803056527</v>
       </c>
       <c r="R261" t="n">
-        <v>-0.001704991654260693</v>
+        <v>-0.001573749579932381</v>
       </c>
     </row>
     <row r="262">
       <c r="F262" t="n">
-        <v>0.06406535493543927</v>
+        <v>0.06497801917883694</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1427759844757679</v>
+        <v>0.1408455966094274</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.001951109810512972</v>
+        <v>-0.00160774167273459</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1621087251890082</v>
+        <v>0.1581169467567493</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1435894835255604</v>
+        <v>0.1391388670559418</v>
       </c>
       <c r="L262" t="n">
-        <v>-0.002036207116991989</v>
+        <v>-0.001808850604640108</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3588948444583359</v>
+        <v>0.3644827152427633</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1405150135471049</v>
+        <v>0.1390887786139477</v>
       </c>
       <c r="O262" t="n">
-        <v>-0.001487471588026832</v>
+        <v>-0.00179609260344574</v>
       </c>
       <c r="P262" t="n">
-        <v>0.5986692784933398</v>
+        <v>0.5768927596142045</v>
       </c>
       <c r="Q262" t="n">
-        <v>0.1389708931368303</v>
+        <v>0.1402725807619348</v>
       </c>
       <c r="R262" t="n">
-        <v>-0.001704991654260693</v>
+        <v>-0.001573749579932381</v>
       </c>
     </row>
     <row r="263">
       <c r="F263" t="n">
-        <v>0.06388476055194749</v>
+        <v>0.06486144183173567</v>
       </c>
       <c r="G263" t="n">
-        <v>0.143582628455857</v>
+        <v>0.1416413344433789</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.001950524594612998</v>
+        <v>-0.00160774167273459</v>
       </c>
       <c r="J263" t="n">
-        <v>0.162232598388779</v>
+        <v>0.1580160962433315</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1444007235454788</v>
+        <v>0.1399249623500432</v>
       </c>
       <c r="L263" t="n">
-        <v>-0.002036207116991989</v>
+        <v>-0.001808850604640108</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3579534515381093</v>
+        <v>0.3638271817483564</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1413088836801394</v>
+        <v>0.1398745909225011</v>
       </c>
       <c r="O263" t="n">
-        <v>-0.001487471588026832</v>
+        <v>-0.00179609260344574</v>
       </c>
       <c r="P263" t="n">
-        <v>0.5998717032979184</v>
+        <v>0.5762237976392459</v>
       </c>
       <c r="Q263" t="n">
-        <v>0.139756039425739</v>
+        <v>0.1410650812182169</v>
       </c>
       <c r="R263" t="n">
-        <v>-0.001704991654260693</v>
+        <v>-0.001573749579932381</v>
       </c>
     </row>
     <row r="264">
       <c r="F264" t="n">
-        <v>0.06366972989492568</v>
+        <v>0.06477793212776553</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1443892724359461</v>
+        <v>0.1424370722773305</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.001820381077643597</v>
+        <v>-0.001498986971313312</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1624222784768135</v>
+        <v>0.15780339584894</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1452119635653972</v>
+        <v>0.1407110576441445</v>
       </c>
       <c r="L264" t="n">
-        <v>-0.001945831884075218</v>
+        <v>-0.001678303466005328</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3570361504946745</v>
+        <v>0.3630993596876184</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1421027538131739</v>
+        <v>0.1406604032310545</v>
       </c>
       <c r="O264" t="n">
-        <v>-0.001394287168432254</v>
+        <v>-0.001730753517842904</v>
       </c>
       <c r="P264" t="n">
-        <v>0.6011074008646894</v>
+        <v>0.575871500723966</v>
       </c>
       <c r="Q264" t="n">
-        <v>0.1405411857146476</v>
+        <v>0.141857581674499</v>
       </c>
       <c r="R264" t="n">
-        <v>-0.001604221196593541</v>
+        <v>-0.001500099027013169</v>
       </c>
     </row>
     <row r="265">
       <c r="F265" t="n">
-        <v>0.06343838226099838</v>
+        <v>0.06470083705542946</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1451959164160352</v>
+        <v>0.1432328101112821</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.001820927246583784</v>
+        <v>-0.001498837072616181</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1625715632270899</v>
+        <v>0.1576660994156119</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1460232035853156</v>
+        <v>0.1414971529382459</v>
       </c>
       <c r="L265" t="n">
-        <v>-0.001945831884075218</v>
+        <v>-0.001678303466005328</v>
       </c>
       <c r="M265" t="n">
-        <v>0.3562442202827454</v>
+        <v>0.3625048080169867</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1428966239462084</v>
+        <v>0.1414462155396079</v>
       </c>
       <c r="O265" t="n">
-        <v>-0.001394287168432254</v>
+        <v>-0.001730753517842904</v>
       </c>
       <c r="P265" t="n">
-        <v>0.6022043706221734</v>
+        <v>0.5753403963276377</v>
       </c>
       <c r="Q265" t="n">
-        <v>0.1413263320035563</v>
+        <v>0.1426500821307811</v>
       </c>
       <c r="R265" t="n">
-        <v>-0.001604221196593541</v>
+        <v>-0.001500099027013169</v>
       </c>
     </row>
     <row r="266">
       <c r="F266" t="n">
-        <v>0.06320866654426267</v>
+        <v>0.0645769643258967</v>
       </c>
       <c r="G266" t="n">
-        <v>0.1460025603961243</v>
+        <v>0.1440285479452336</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.001820745190270388</v>
+        <v>-0.001499286768707575</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1628079509033068</v>
+        <v>0.1575003866773492</v>
       </c>
       <c r="K266" t="n">
-        <v>0.1468344436052341</v>
+        <v>0.1422832482323473</v>
       </c>
       <c r="L266" t="n">
-        <v>-0.001945831884075218</v>
+        <v>-0.001678303466005328</v>
       </c>
       <c r="M266" t="n">
-        <v>0.3552234923464704</v>
+        <v>0.3618385609342336</v>
       </c>
       <c r="N266" t="n">
-        <v>0.1436904940792429</v>
+        <v>0.1422320278481612</v>
       </c>
       <c r="O266" t="n">
-        <v>-0.001394287168432254</v>
+        <v>-0.001730753517842904</v>
       </c>
       <c r="P266" t="n">
-        <v>0.6034163249928406</v>
+        <v>0.5747960570521595</v>
       </c>
       <c r="Q266" t="n">
-        <v>0.1421114782924649</v>
+        <v>0.1434425825870632</v>
       </c>
       <c r="R266" t="n">
-        <v>-0.001604221196593541</v>
+        <v>-0.001500099027013169</v>
       </c>
     </row>
     <row r="267">
       <c r="F267" t="n">
-        <v>0.06296346190793529</v>
+        <v>0.06447758730372852</v>
       </c>
       <c r="G267" t="n">
-        <v>0.1468092043762134</v>
+        <v>0.1448242857791852</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.001820927246583784</v>
+        <v>-0.001498837072616181</v>
       </c>
       <c r="J267" t="n">
-        <v>0.1629399463750215</v>
+        <v>0.1573478946559234</v>
       </c>
       <c r="K267" t="n">
-        <v>0.1476456836251525</v>
+        <v>0.1430693435264487</v>
       </c>
       <c r="L267" t="n">
-        <v>-0.001945831884075218</v>
+        <v>-0.001544223957210461</v>
       </c>
       <c r="M267" t="n">
-        <v>0.3541267171349904</v>
+        <v>0.3612545209455474</v>
       </c>
       <c r="N267" t="n">
-        <v>0.1444843642122774</v>
+        <v>0.1430178401567146</v>
       </c>
       <c r="O267" t="n">
-        <v>-0.001394287168432254</v>
+        <v>-0.001730753517842904</v>
       </c>
       <c r="P267" t="n">
-        <v>0.6048275676510769</v>
+        <v>0.5740739629380582</v>
       </c>
       <c r="Q267" t="n">
-        <v>0.1428966245813736</v>
+        <v>0.1442350830433454</v>
       </c>
       <c r="R267" t="n">
-        <v>-0.001604221196593541</v>
+        <v>-0.001500099027013169</v>
       </c>
     </row>
     <row r="268">
       <c r="F268" t="n">
-        <v>0.062729322163108</v>
+        <v>0.06440275451707178</v>
       </c>
       <c r="G268" t="n">
-        <v>0.1476158483563024</v>
+        <v>0.1456200236131368</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.001675094483579763</v>
+        <v>-0.001398036638722377</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1631377217591951</v>
+        <v>0.1571672617452128</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1484569236450709</v>
+        <v>0.14385543882055</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.00184233715635748</v>
+        <v>-0.001544223957210461</v>
       </c>
       <c r="M268" t="n">
-        <v>0.3532061122368152</v>
+        <v>0.360548442927983</v>
       </c>
       <c r="N268" t="n">
-        <v>0.1452782343453119</v>
+        <v>0.143803652465268</v>
       </c>
       <c r="O268" t="n">
-        <v>-0.001308049196767341</v>
+        <v>-0.001672039200184512</v>
       </c>
       <c r="P268" t="n">
-        <v>0.6061804887088568</v>
+        <v>0.5736689191287213</v>
       </c>
       <c r="Q268" t="n">
-        <v>0.1436817708702822</v>
+        <v>0.1450275834996275</v>
       </c>
       <c r="R268" t="n">
-        <v>-0.001513018154352934</v>
+        <v>-0.001438279029528337</v>
       </c>
     </row>
     <row r="269">
       <c r="F269" t="n">
-        <v>0.06247180219612999</v>
+        <v>0.0642905400458859</v>
       </c>
       <c r="G269" t="n">
-        <v>0.1484224923363915</v>
+        <v>0.1464157614470883</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.001675261976278851</v>
+        <v>-0.001398036638722377</v>
       </c>
       <c r="J269" t="n">
-        <v>0.1632734015351308</v>
+        <v>0.1570000557502265</v>
       </c>
       <c r="K269" t="n">
-        <v>0.1492681636649894</v>
+        <v>0.1446415341146514</v>
       </c>
       <c r="L269" t="n">
-        <v>-0.00184233715635748</v>
+        <v>-0.001544223957210461</v>
       </c>
       <c r="M269" t="n">
-        <v>0.3521092860492002</v>
+        <v>0.3598230516457385</v>
       </c>
       <c r="N269" t="n">
-        <v>0.1460721044783463</v>
+        <v>0.1445894647738214</v>
       </c>
       <c r="O269" t="n">
-        <v>-0.001308049196767341</v>
+        <v>-0.001672039200184512</v>
       </c>
       <c r="P269" t="n">
-        <v>0.6076446348361134</v>
+        <v>0.5729221422247116</v>
       </c>
       <c r="Q269" t="n">
-        <v>0.1444669171591908</v>
+        <v>0.1458200839559096</v>
       </c>
       <c r="R269" t="n">
-        <v>-0.001513018154352934</v>
+        <v>-0.001438279029528337</v>
       </c>
     </row>
     <row r="270">
       <c r="F270" t="n">
-        <v>0.06221738292807746</v>
+        <v>0.06416773376693669</v>
       </c>
       <c r="G270" t="n">
-        <v>0.1492291363164806</v>
+        <v>0.1472114992810399</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.001675094483579763</v>
+        <v>-0.001397757087304916</v>
       </c>
       <c r="J270" t="n">
-        <v>0.1634535035150706</v>
+        <v>0.1567843109716988</v>
       </c>
       <c r="K270" t="n">
-        <v>0.1500794036849078</v>
+        <v>0.1454276294087528</v>
       </c>
       <c r="L270" t="n">
-        <v>-0.00184233715635748</v>
+        <v>-0.001544223957210461</v>
       </c>
       <c r="M270" t="n">
-        <v>0.3509878248059792</v>
+        <v>0.3590278064599487</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1468659746113808</v>
+        <v>0.1453752770823748</v>
       </c>
       <c r="O270" t="n">
-        <v>-0.001308049196767341</v>
+        <v>-0.001672039200184512</v>
       </c>
       <c r="P270" t="n">
-        <v>0.6088752828657862</v>
+        <v>0.5725748185172325</v>
       </c>
       <c r="Q270" t="n">
-        <v>0.1452520634480995</v>
+        <v>0.1466125844121917</v>
       </c>
       <c r="R270" t="n">
-        <v>-0.001513018154352934</v>
+        <v>-0.001438279029528337</v>
       </c>
     </row>
     <row r="271">
       <c r="F271" t="n">
-        <v>0.0619491372060038</v>
+        <v>0.06407866513391952</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1500357802965697</v>
+        <v>0.1480072371149915</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.001674926990880675</v>
+        <v>-0.001398036638722377</v>
       </c>
       <c r="J271" t="n">
-        <v>0.1636994433914142</v>
+        <v>0.1565822369087749</v>
       </c>
       <c r="K271" t="n">
-        <v>0.1508906437048262</v>
+        <v>0.1462137247028541</v>
       </c>
       <c r="L271" t="n">
-        <v>-0.00184233715635748</v>
+        <v>-0.001544223957210461</v>
       </c>
       <c r="M271" t="n">
-        <v>0.350042038290254</v>
+        <v>0.3581632932608544</v>
       </c>
       <c r="N271" t="n">
-        <v>0.1476598447444153</v>
+        <v>0.1461610893909281</v>
       </c>
       <c r="O271" t="n">
-        <v>-0.001230327689682539</v>
+        <v>-0.001622289020698185</v>
       </c>
       <c r="P271" t="n">
-        <v>0.6104718680127195</v>
+        <v>0.5718867335559897</v>
       </c>
       <c r="Q271" t="n">
-        <v>0.1460372097370081</v>
+        <v>0.1474050848684738</v>
       </c>
       <c r="R271" t="n">
-        <v>-0.001513018154352934</v>
+        <v>-0.001438279029528337</v>
       </c>
     </row>
     <row r="272">
       <c r="F272" t="n">
-        <v>0.06168472294940081</v>
+        <v>0.06397041730595794</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1508424242766588</v>
+        <v>0.148802974948943</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.001519073154016972</v>
+        <v>-0.001306055192871761</v>
       </c>
       <c r="J272" t="n">
-        <v>0.1638616401353482</v>
+        <v>0.1563938948574257</v>
       </c>
       <c r="K272" t="n">
-        <v>0.1517018837247446</v>
+        <v>0.1469998199969555</v>
       </c>
       <c r="L272" t="n">
-        <v>-0.001727001857224263</v>
+        <v>-0.001407837440298101</v>
       </c>
       <c r="M272" t="n">
-        <v>0.3489217398628222</v>
+        <v>0.3575345687310413</v>
       </c>
       <c r="N272" t="n">
-        <v>0.1484537148774498</v>
+        <v>0.1469469016994815</v>
       </c>
       <c r="O272" t="n">
-        <v>-0.001230327689682539</v>
+        <v>-0.001622289020698185</v>
       </c>
       <c r="P272" t="n">
-        <v>0.6118312709010172</v>
+        <v>0.5712695226466941</v>
       </c>
       <c r="Q272" t="n">
-        <v>0.1468223560259168</v>
+        <v>0.148197585324756</v>
       </c>
       <c r="R272" t="n">
-        <v>-0.001433991189012448</v>
+        <v>-0.001388589477696125</v>
       </c>
     </row>
     <row r="273">
       <c r="F273" t="n">
-        <v>0.06141588387593233</v>
+        <v>0.06386962319010896</v>
       </c>
       <c r="G273" t="n">
-        <v>0.1516490682567478</v>
+        <v>0.1495987127828946</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.001519225046143161</v>
+        <v>-0.001305663454661542</v>
       </c>
       <c r="J273" t="n">
-        <v>0.1640254251373732</v>
+        <v>0.1561368872415672</v>
       </c>
       <c r="K273" t="n">
-        <v>0.152513123744663</v>
+        <v>0.1477859152910569</v>
       </c>
       <c r="L273" t="n">
-        <v>-0.001727001857224263</v>
+        <v>-0.001407837440298101</v>
       </c>
       <c r="M273" t="n">
-        <v>0.3476780309354031</v>
+        <v>0.3565835046597701</v>
       </c>
       <c r="N273" t="n">
-        <v>0.1492475850104843</v>
+        <v>0.1477327140080349</v>
       </c>
       <c r="O273" t="n">
-        <v>-0.001230327689682539</v>
+        <v>-0.001622289020698185</v>
       </c>
       <c r="P273" t="n">
-        <v>0.6134686032007309</v>
+        <v>0.5706412560719427</v>
       </c>
       <c r="Q273" t="n">
-        <v>0.1476075023148254</v>
+        <v>0.1489900857810381</v>
       </c>
       <c r="R273" t="n">
-        <v>-0.001433991189012448</v>
+        <v>-0.001388589477696125</v>
       </c>
     </row>
     <row r="274">
       <c r="F274" t="n">
-        <v>0.06114301025118044</v>
+        <v>0.06375878964796645</v>
       </c>
       <c r="G274" t="n">
-        <v>0.1524557122368369</v>
+        <v>0.1503944506168462</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.001518769369764594</v>
+        <v>-0.001305794034064948</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1642550035191339</v>
+        <v>0.1559144913654746</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1533243637645814</v>
+        <v>0.1485720105851582</v>
       </c>
       <c r="L274" t="n">
-        <v>-0.001727001857224263</v>
+        <v>-0.001407837440298101</v>
       </c>
       <c r="M274" t="n">
-        <v>0.3466098439658845</v>
+        <v>0.355918893084723</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1500414551435188</v>
+        <v>0.1485185263165883</v>
       </c>
       <c r="O274" t="n">
-        <v>-0.001230327689682539</v>
+        <v>-0.001622289020698185</v>
       </c>
       <c r="P274" t="n">
-        <v>0.6146918115480955</v>
+        <v>0.5700842371732896</v>
       </c>
       <c r="Q274" t="n">
-        <v>0.1483926486037341</v>
+        <v>0.1497825862373202</v>
       </c>
       <c r="R274" t="n">
-        <v>-0.001433991189012448</v>
+        <v>-0.001388589477696125</v>
       </c>
     </row>
     <row r="275">
       <c r="F275" t="n">
-        <v>0.06086649234072718</v>
+        <v>0.06364687562520119</v>
       </c>
       <c r="G275" t="n">
-        <v>0.153262356216926</v>
+        <v>0.1511901884507977</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.001355391440796536</v>
+        <v>-0.001305924613468355</v>
       </c>
       <c r="J275" t="n">
-        <v>0.1644004059133713</v>
+        <v>0.1556649900361733</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1541356037844999</v>
+        <v>0.1493581058792596</v>
       </c>
       <c r="L275" t="n">
-        <v>-0.001727001857224263</v>
+        <v>-0.001407837440298101</v>
       </c>
       <c r="M275" t="n">
-        <v>0.3454188977750318</v>
+        <v>0.3550346218942945</v>
       </c>
       <c r="N275" t="n">
-        <v>0.1508353252765533</v>
+        <v>0.1493043386251417</v>
       </c>
       <c r="O275" t="n">
-        <v>-0.001230327689682539</v>
+        <v>-0.001622289020698185</v>
       </c>
       <c r="P275" t="n">
-        <v>0.6164500029603756</v>
+        <v>0.56935280119104</v>
       </c>
       <c r="Q275" t="n">
-        <v>0.1491777948926427</v>
+        <v>0.1505750866936023</v>
       </c>
       <c r="R275" t="n">
-        <v>-0.001367318878153953</v>
+        <v>-0.001388589477696125</v>
       </c>
     </row>
     <row r="276">
       <c r="F276" t="n">
-        <v>0.06059520474025416</v>
+        <v>0.06353401909822486</v>
       </c>
       <c r="G276" t="n">
-        <v>0.1540690001970151</v>
+        <v>0.1519859262847493</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.001355255928754864</v>
+        <v>-0.001223607613504241</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1646330195920561</v>
+        <v>0.1554913008511536</v>
       </c>
       <c r="K276" t="n">
-        <v>0.1549468438044183</v>
+        <v>0.1501442011733609</v>
       </c>
       <c r="L276" t="n">
-        <v>-0.001600574272872891</v>
+        <v>-0.001268517826849279</v>
       </c>
       <c r="M276" t="n">
-        <v>0.3442050536083588</v>
+        <v>0.3540832935158978</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1516291954095878</v>
+        <v>0.150090150933695</v>
       </c>
       <c r="O276" t="n">
-        <v>-0.001160858014850288</v>
+        <v>-0.001582103680316294</v>
       </c>
       <c r="P276" t="n">
-        <v>0.6178765383038437</v>
+        <v>0.568529513242497</v>
       </c>
       <c r="Q276" t="n">
-        <v>0.1499629411815514</v>
+        <v>0.1513675871498844</v>
       </c>
       <c r="R276" t="n">
-        <v>-0.001367318878153953</v>
+        <v>-0.001353326050158222</v>
       </c>
     </row>
     <row r="277">
       <c r="F277" t="n">
-        <v>0.06032945291615799</v>
+        <v>0.06341159295103778</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1548756441771042</v>
+        <v>0.1527816641187009</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.001354984904671522</v>
+        <v>-0.001223607613504241</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1648026681360337</v>
+        <v>0.1552290907610936</v>
       </c>
       <c r="K277" t="n">
-        <v>0.1557580838243367</v>
+        <v>0.1509302964674623</v>
       </c>
       <c r="L277" t="n">
-        <v>-0.001600574272872891</v>
+        <v>-0.001268517826849279</v>
       </c>
       <c r="M277" t="n">
-        <v>0.3428700630925736</v>
+        <v>0.3532165100496779</v>
       </c>
       <c r="N277" t="n">
-        <v>0.1524230655426223</v>
+        <v>0.1508759632422484</v>
       </c>
       <c r="O277" t="n">
-        <v>-0.001160858014850288</v>
+        <v>-0.001582103680316294</v>
       </c>
       <c r="P277" t="n">
-        <v>0.6193157651427285</v>
+        <v>0.5679420652366944</v>
       </c>
       <c r="Q277" t="n">
-        <v>0.15074808747046</v>
+        <v>0.1521600876061665</v>
       </c>
       <c r="R277" t="n">
-        <v>-0.001367318878153953</v>
+        <v>-0.001353326050158222</v>
       </c>
     </row>
     <row r="278">
       <c r="F278" t="n">
-        <v>0.06004425820078689</v>
+        <v>0.06327976945147526</v>
       </c>
       <c r="G278" t="n">
-        <v>0.1556822881571933</v>
+        <v>0.1535774019526524</v>
       </c>
       <c r="H278" t="n">
-        <v>-0.001355391440796536</v>
+        <v>-0.001223485264977744</v>
       </c>
       <c r="J278" t="n">
-        <v>0.165016607926887</v>
+        <v>0.1550017499166709</v>
       </c>
       <c r="K278" t="n">
-        <v>0.1565693238442551</v>
+        <v>0.1517163917615637</v>
       </c>
       <c r="L278" t="n">
-        <v>-0.001600574272872891</v>
+        <v>-0.001268517826849279</v>
       </c>
       <c r="M278" t="n">
-        <v>0.3416116515745436</v>
+        <v>0.3524341083898563</v>
       </c>
       <c r="N278" t="n">
-        <v>0.1532169356756568</v>
+        <v>0.1516617755508018</v>
       </c>
       <c r="O278" t="n">
-        <v>-0.001160858014850288</v>
+        <v>-0.001582103680316294</v>
       </c>
       <c r="P278" t="n">
-        <v>0.620940290990395</v>
+        <v>0.5671815316332258</v>
       </c>
       <c r="Q278" t="n">
-        <v>0.1515332337593686</v>
+        <v>0.1529525880624487</v>
       </c>
       <c r="R278" t="n">
-        <v>-0.001367318878153953</v>
+        <v>-0.001353326050158222</v>
       </c>
     </row>
     <row r="279">
       <c r="F279" t="n">
-        <v>0.05974018198136612</v>
+        <v>0.06318243207753073</v>
       </c>
       <c r="G279" t="n">
-        <v>0.1564889321372823</v>
+        <v>0.154373139786604</v>
       </c>
       <c r="H279" t="n">
-        <v>-0.001355255928754864</v>
+        <v>-0.001223362916451246</v>
       </c>
       <c r="J279" t="n">
-        <v>0.1651457963570798</v>
+        <v>0.1547068962797866</v>
       </c>
       <c r="K279" t="n">
-        <v>0.1573805638641735</v>
+        <v>0.152502487055665</v>
       </c>
       <c r="L279" t="n">
-        <v>-0.001600574272872891</v>
+        <v>-0.001127439430568209</v>
       </c>
       <c r="M279" t="n">
-        <v>0.3403313233820081</v>
+        <v>0.3514350151593491</v>
       </c>
       <c r="N279" t="n">
-        <v>0.1540108058086913</v>
+        <v>0.1524475878593552</v>
       </c>
       <c r="O279" t="n">
-        <v>-0.001160858014850288</v>
+        <v>-0.001582103680316294</v>
       </c>
       <c r="P279" t="n">
-        <v>0.6225750016280369</v>
+        <v>0.5666569213584131</v>
       </c>
       <c r="Q279" t="n">
-        <v>0.1523183800482773</v>
+        <v>0.1537450885187308</v>
       </c>
       <c r="R279" t="n">
-        <v>-0.001367318878153953</v>
+        <v>-0.001353326050158222</v>
       </c>
     </row>
     <row r="280">
       <c r="F280" t="n">
-        <v>0.05944289779831385</v>
+        <v>0.06304973550771659</v>
       </c>
       <c r="G280" t="n">
-        <v>0.1572955761173715</v>
+        <v>0.1551688776205556</v>
       </c>
       <c r="H280" t="n">
-        <v>-0.00118821845680591</v>
+        <v>-0.001151178445491804</v>
       </c>
       <c r="J280" t="n">
-        <v>0.1653406954013009</v>
+        <v>0.1544471073358603</v>
       </c>
       <c r="K280" t="n">
-        <v>0.158191803884092</v>
+        <v>0.1532885823497664</v>
       </c>
       <c r="L280" t="n">
-        <v>-0.001464052176509775</v>
+        <v>-0.001127439430568209</v>
       </c>
       <c r="M280" t="n">
-        <v>0.339029404089179</v>
+        <v>0.3506211318400214</v>
       </c>
       <c r="N280" t="n">
-        <v>0.1548046759417257</v>
+        <v>0.1532334001679085</v>
       </c>
       <c r="O280" t="n">
-        <v>-0.001100996504795735</v>
+        <v>-0.001551970160729992</v>
       </c>
       <c r="P280" t="n">
-        <v>0.623956153318963</v>
+        <v>0.5660415698196609</v>
       </c>
       <c r="Q280" t="n">
-        <v>0.1531035263371859</v>
+        <v>0.1545375889750129</v>
       </c>
       <c r="R280" t="n">
-        <v>-0.001315089502677892</v>
+        <v>-0.001333217380462277</v>
       </c>
     </row>
     <row r="281">
       <c r="F281" t="n">
-        <v>0.05917773249495238</v>
+        <v>0.06294298985736312</v>
       </c>
       <c r="G281" t="n">
-        <v>0.1581022200974605</v>
+        <v>0.1559646154545071</v>
       </c>
       <c r="H281" t="n">
-        <v>-0.001187980860633783</v>
+        <v>-0.001151178445491804</v>
       </c>
       <c r="J281" t="n">
-        <v>0.1656014224296279</v>
+        <v>0.15418151282109</v>
       </c>
       <c r="K281" t="n">
-        <v>0.1590030439040104</v>
+        <v>0.1540746776438678</v>
       </c>
       <c r="L281" t="n">
-        <v>-0.001464052176509775</v>
+        <v>-0.001127439430568209</v>
       </c>
       <c r="M281" t="n">
-        <v>0.3376574486483411</v>
+        <v>0.3496419601539664</v>
       </c>
       <c r="N281" t="n">
-        <v>0.1555985460747602</v>
+        <v>0.1540192124764619</v>
       </c>
       <c r="O281" t="n">
-        <v>-0.001100996504795735</v>
+        <v>-0.001551970160729992</v>
       </c>
       <c r="P281" t="n">
-        <v>0.6256936453783768</v>
+        <v>0.5651729601705437</v>
       </c>
       <c r="Q281" t="n">
-        <v>0.1538886726260946</v>
+        <v>0.155330089431295</v>
       </c>
       <c r="R281" t="n">
-        <v>-0.001315089502677892</v>
+        <v>-0.001333217380462277</v>
       </c>
     </row>
     <row r="282">
       <c r="F282" t="n">
-        <v>0.05886160927681211</v>
+        <v>0.0628448140269878</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1589088640775496</v>
+        <v>0.1567603532884587</v>
       </c>
       <c r="H282" t="n">
-        <v>-0.001187980860633783</v>
+        <v>-0.001151178445491804</v>
       </c>
       <c r="J282" t="n">
-        <v>0.1657770680216735</v>
+        <v>0.1539306256466888</v>
       </c>
       <c r="K282" t="n">
-        <v>0.1598142839239288</v>
+        <v>0.1548607729379692</v>
       </c>
       <c r="L282" t="n">
-        <v>-0.001464052176509775</v>
+        <v>-0.001127439430568209</v>
       </c>
       <c r="M282" t="n">
-        <v>0.3363134582900373</v>
+        <v>0.3486483071028947</v>
       </c>
       <c r="N282" t="n">
-        <v>0.1563924162077947</v>
+        <v>0.1548050247850153</v>
       </c>
       <c r="O282" t="n">
-        <v>-0.001100996504795735</v>
+        <v>-0.001551970160729992</v>
       </c>
       <c r="P282" t="n">
-        <v>0.6269984185787747</v>
+        <v>0.5646221650609177</v>
       </c>
       <c r="Q282" t="n">
-        <v>0.1546738189150032</v>
+        <v>0.1561225898875771</v>
       </c>
       <c r="R282" t="n">
-        <v>-0.001315089502677892</v>
+        <v>-0.001333217380462277</v>
       </c>
     </row>
     <row r="283">
       <c r="F283" t="n">
-        <v>0.05857826927825648</v>
+        <v>0.06271183132454493</v>
       </c>
       <c r="G283" t="n">
-        <v>0.1597155080576387</v>
+        <v>0.1575560911224103</v>
       </c>
       <c r="H283" t="n">
-        <v>-0.00106260293621388</v>
+        <v>-0.001104525688940253</v>
       </c>
       <c r="J283" t="n">
-        <v>0.1659537186943228</v>
+        <v>0.1536333946300207</v>
       </c>
       <c r="K283" t="n">
-        <v>0.1606255239438472</v>
+        <v>0.1556468682320705</v>
       </c>
       <c r="L283" t="n">
-        <v>-0.001356134978553073</v>
+        <v>-0.001020210743784809</v>
       </c>
       <c r="M283" t="n">
-        <v>0.3349973553510482</v>
+        <v>0.3477400820130247</v>
       </c>
       <c r="N283" t="n">
-        <v>0.1571862863408292</v>
+        <v>0.1555908370935687</v>
       </c>
       <c r="O283" t="n">
-        <v>-0.001062390458122256</v>
+        <v>-0.001537178712520579</v>
       </c>
       <c r="P283" t="n">
-        <v>0.6286573504978382</v>
+        <v>0.5637376445331442</v>
       </c>
       <c r="Q283" t="n">
-        <v>0.1554589652039119</v>
+        <v>0.1569150903438593</v>
       </c>
       <c r="R283" t="n">
-        <v>-0.001286599089674801</v>
+        <v>-0.001328232419144404</v>
       </c>
     </row>
     <row r="284">
       <c r="F284" t="n">
-        <v>0.05827823211113169</v>
+        <v>0.06258774054384084</v>
       </c>
       <c r="G284" t="n">
-        <v>0.1605221520377278</v>
+        <v>0.1583518289563618</v>
       </c>
       <c r="H284" t="n">
-        <v>-0.001062390458122256</v>
+        <v>-0.001104194397491861</v>
       </c>
       <c r="J284" t="n">
-        <v>0.1661745466813072</v>
+        <v>0.1533714498406966</v>
       </c>
       <c r="K284" t="n">
-        <v>0.1614367639637656</v>
+        <v>0.1564329635261719</v>
       </c>
       <c r="L284" t="n">
-        <v>-0.001356134978553073</v>
+        <v>-0.001020210743784809</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3337090498646427</v>
+        <v>0.3467680324118959</v>
       </c>
       <c r="N284" t="n">
-        <v>0.1579801564738637</v>
+        <v>0.1563766494021221</v>
       </c>
       <c r="O284" t="n">
-        <v>-0.001062390458122256</v>
+        <v>-0.001537178712520579</v>
       </c>
       <c r="P284" t="n">
-        <v>0.6303186752688189</v>
+        <v>0.5630083854362607</v>
       </c>
       <c r="Q284" t="n">
-        <v>0.1562441114928205</v>
+        <v>0.1577075908001414</v>
       </c>
       <c r="R284" t="n">
-        <v>-0.001286599089674801</v>
+        <v>-0.001328232419144404</v>
       </c>
     </row>
   </sheetData>
